--- a/2020_prflplayers.xlsx
+++ b/2020_prflplayers.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GIT\prfl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LCD\GIT\prfl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED442230-6594-4D5B-B5F9-18E8E521CD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C801BF51-576B-4FE7-815B-5586E713CE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{BA228D13-2244-495E-B498-5A53B12CE2AB}"/>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="9" xr2:uid="{68C4CD1C-F6FC-42D1-9C86-4B42BFFB4529}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{68C4CD1C-F6FC-42D1-9C86-4B42BFFB4529}"/>
   </bookViews>
   <sheets>
     <sheet name="QB" sheetId="2" r:id="rId1"/>
@@ -41,15 +41,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -91,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7993" uniqueCount="3091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8007" uniqueCount="3091">
   <si>
     <t>#</t>
   </si>
@@ -10118,10 +10109,10 @@
   <autoFilter ref="A1:E358" xr:uid="{01B26D9A-97D4-49EA-991F-DEDE151D2E25}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A85C2F1D-6FC4-4E52-9ADA-14207D188C4D}" uniqueName="1" name="#" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{6346A493-9A85-414C-80B3-F56A3259255F}" uniqueName="2" name="Franchise" queryTableFieldId="2" dataDxfId="98"/>
-    <tableColumn id="3" xr3:uid="{2D41785E-D525-42FA-9C1B-C8EFE4B8098D}" uniqueName="3" name="Type" queryTableFieldId="3" dataDxfId="97"/>
+    <tableColumn id="2" xr3:uid="{6346A493-9A85-414C-80B3-F56A3259255F}" uniqueName="2" name="Franchise" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{2D41785E-D525-42FA-9C1B-C8EFE4B8098D}" uniqueName="3" name="Type" queryTableFieldId="3" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{0737215A-1A55-41F9-A10E-7F273B16C05C}" uniqueName="4" name="Transaction" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{3EB36907-FB02-4245-B2A7-9449E8317768}" uniqueName="5" name="Date" queryTableFieldId="5" dataDxfId="96"/>
+    <tableColumn id="5" xr3:uid="{3EB36907-FB02-4245-B2A7-9449E8317768}" uniqueName="5" name="Date" queryTableFieldId="5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10132,30 +10123,30 @@
   <autoFilter ref="A1:Y177" xr:uid="{B23CABA1-55AB-4603-981E-3B5BA7A46D28}"/>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{B89CBB66-85B8-49D7-866F-94E9DF4197E9}" uniqueName="1" name="#" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{AC4C2393-4C6E-4115-BA58-C172192DA32B}" uniqueName="2" name="Player" queryTableFieldId="2" dataDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{AC4C2393-4C6E-4115-BA58-C172192DA32B}" uniqueName="2" name="Player" queryTableFieldId="2" dataDxfId="98"/>
     <tableColumn id="3" xr3:uid="{C741BD39-B31C-4372-8791-5A55A4303A4F}" uniqueName="3" name="Pts" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{504A4A18-5D66-4A95-A512-67DA666F1FA5}" uniqueName="4" name="Avg" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{B7E1572D-8084-4116-847C-BA6D8C56F969}" uniqueName="5" name="1" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{A46EE90F-4179-4D02-AF59-534C864EDD41}" uniqueName="6" name="2" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{1288F711-A08B-4189-B342-FFBEB6823A3D}" uniqueName="7" name="3" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{E05DFBE4-76E6-49B6-B4DA-ACAD90BFC72A}" uniqueName="8" name="4" queryTableFieldId="8" dataDxfId="94"/>
-    <tableColumn id="9" xr3:uid="{69875101-3A27-4FCB-BC2A-EE875EA189B3}" uniqueName="9" name="5" queryTableFieldId="9" dataDxfId="93"/>
-    <tableColumn id="10" xr3:uid="{55745D45-4B58-42BD-8B69-1DFFD65D1A81}" uniqueName="10" name="6" queryTableFieldId="10" dataDxfId="92"/>
-    <tableColumn id="11" xr3:uid="{E59ADFCA-A719-4158-B0EB-73FD42BA9081}" uniqueName="11" name="7" queryTableFieldId="11" dataDxfId="91"/>
-    <tableColumn id="12" xr3:uid="{9C797639-51B0-4595-8052-419CCE19C3AE}" uniqueName="12" name="8" queryTableFieldId="12" dataDxfId="90"/>
-    <tableColumn id="13" xr3:uid="{17F0ED18-25CF-4557-8CF0-2694455A62D6}" uniqueName="13" name="9" queryTableFieldId="13" dataDxfId="89"/>
-    <tableColumn id="14" xr3:uid="{323E2615-EB7F-49CD-93BF-110B08F7C702}" uniqueName="14" name="10" queryTableFieldId="14" dataDxfId="88"/>
-    <tableColumn id="15" xr3:uid="{214921CA-BCC5-4AEA-B13E-9732DF8105B7}" uniqueName="15" name="11" queryTableFieldId="15" dataDxfId="87"/>
+    <tableColumn id="8" xr3:uid="{E05DFBE4-76E6-49B6-B4DA-ACAD90BFC72A}" uniqueName="8" name="4" queryTableFieldId="8" dataDxfId="97"/>
+    <tableColumn id="9" xr3:uid="{69875101-3A27-4FCB-BC2A-EE875EA189B3}" uniqueName="9" name="5" queryTableFieldId="9" dataDxfId="96"/>
+    <tableColumn id="10" xr3:uid="{55745D45-4B58-42BD-8B69-1DFFD65D1A81}" uniqueName="10" name="6" queryTableFieldId="10" dataDxfId="95"/>
+    <tableColumn id="11" xr3:uid="{E59ADFCA-A719-4158-B0EB-73FD42BA9081}" uniqueName="11" name="7" queryTableFieldId="11" dataDxfId="94"/>
+    <tableColumn id="12" xr3:uid="{9C797639-51B0-4595-8052-419CCE19C3AE}" uniqueName="12" name="8" queryTableFieldId="12" dataDxfId="93"/>
+    <tableColumn id="13" xr3:uid="{17F0ED18-25CF-4557-8CF0-2694455A62D6}" uniqueName="13" name="9" queryTableFieldId="13" dataDxfId="92"/>
+    <tableColumn id="14" xr3:uid="{323E2615-EB7F-49CD-93BF-110B08F7C702}" uniqueName="14" name="10" queryTableFieldId="14" dataDxfId="91"/>
+    <tableColumn id="15" xr3:uid="{214921CA-BCC5-4AEA-B13E-9732DF8105B7}" uniqueName="15" name="11" queryTableFieldId="15" dataDxfId="90"/>
     <tableColumn id="16" xr3:uid="{77E23414-DE0D-48A5-8B4E-8A3C2679B041}" uniqueName="16" name="12" queryTableFieldId="16"/>
-    <tableColumn id="17" xr3:uid="{83A8840B-7D8C-4352-8A77-DAE4F2E601EE}" uniqueName="17" name="13" queryTableFieldId="17" dataDxfId="86"/>
+    <tableColumn id="17" xr3:uid="{83A8840B-7D8C-4352-8A77-DAE4F2E601EE}" uniqueName="17" name="13" queryTableFieldId="17" dataDxfId="89"/>
     <tableColumn id="18" xr3:uid="{FFC51E4E-BF0D-4C3D-A362-9DB817D21FDD}" uniqueName="18" name="14" queryTableFieldId="18"/>
     <tableColumn id="19" xr3:uid="{A6D6D800-EC42-4A2E-88B5-8E8B7527459F}" uniqueName="19" name="15" queryTableFieldId="19"/>
     <tableColumn id="20" xr3:uid="{696491ED-E134-466D-A858-4FA2BFAED9D5}" uniqueName="20" name="16" queryTableFieldId="20"/>
     <tableColumn id="21" xr3:uid="{33A28E09-59D5-431F-AD20-BE6331F368C8}" uniqueName="21" name="17" queryTableFieldId="21"/>
-    <tableColumn id="22" xr3:uid="{7649AD84-4BC9-4DB7-AA45-9451A5819846}" uniqueName="22" name="Status" queryTableFieldId="22" dataDxfId="85"/>
+    <tableColumn id="22" xr3:uid="{7649AD84-4BC9-4DB7-AA45-9451A5819846}" uniqueName="22" name="Status" queryTableFieldId="22" dataDxfId="88"/>
     <tableColumn id="23" xr3:uid="{69019C68-9A6E-4910-A2FB-D66BEDA37C1F}" uniqueName="23" name="Bye" queryTableFieldId="23"/>
     <tableColumn id="24" xr3:uid="{DE60E79E-2DF0-4B61-B905-34E163F02723}" uniqueName="24" name="Salary" queryTableFieldId="24"/>
-    <tableColumn id="25" xr3:uid="{39198F70-417B-4EE1-8441-2A6652B79F83}" uniqueName="25" name="Column25" queryTableFieldId="25" dataDxfId="84"/>
+    <tableColumn id="25" xr3:uid="{39198F70-417B-4EE1-8441-2A6652B79F83}" uniqueName="25" name="Column25" queryTableFieldId="25" dataDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10166,30 +10157,30 @@
   <autoFilter ref="A1:Y250" xr:uid="{BB07846E-FF53-4CF8-9473-2CF0432DE3F4}"/>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{CADEA02B-0F6C-40E3-A103-61CCEFA3577D}" uniqueName="1" name="#" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{E5F907D8-B04D-4132-8A05-47D8AEE668DF}" uniqueName="2" name="Player" queryTableFieldId="2" dataDxfId="83"/>
+    <tableColumn id="2" xr3:uid="{E5F907D8-B04D-4132-8A05-47D8AEE668DF}" uniqueName="2" name="Player" queryTableFieldId="2" dataDxfId="86"/>
     <tableColumn id="3" xr3:uid="{66BDF9BB-38B2-45EE-960B-DE22C2E3287A}" uniqueName="3" name="Pts" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{4FA8496D-22C1-42B4-851F-4803F1A0EAB6}" uniqueName="4" name="Avg" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{7CF649E0-A22E-4D76-9CFF-54C7F6A1748B}" uniqueName="5" name="1" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{E543F158-36E5-4C3D-A4DE-26E5ECA67E9E}" uniqueName="6" name="2" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{376162B2-6151-41EA-B0A8-C06A17036878}" uniqueName="7" name="3" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{3218244D-8E7C-4716-B2F7-A7F914BA9CAD}" uniqueName="8" name="4" queryTableFieldId="8" dataDxfId="82"/>
-    <tableColumn id="9" xr3:uid="{D837C54C-36B1-4791-B5AA-492FA8A3EFD6}" uniqueName="9" name="5" queryTableFieldId="9" dataDxfId="81"/>
-    <tableColumn id="10" xr3:uid="{9A510D36-51DA-4A26-909F-801BF760EA5D}" uniqueName="10" name="6" queryTableFieldId="10" dataDxfId="80"/>
-    <tableColumn id="11" xr3:uid="{0EF039F4-9BC3-40A6-890C-B89F734DDD97}" uniqueName="11" name="7" queryTableFieldId="11" dataDxfId="79"/>
-    <tableColumn id="12" xr3:uid="{CED119B1-FF66-48BE-AD6F-5B5FA848465B}" uniqueName="12" name="8" queryTableFieldId="12" dataDxfId="78"/>
-    <tableColumn id="13" xr3:uid="{584C091A-D48F-4454-9A72-3C8DEF4F2F6F}" uniqueName="13" name="9" queryTableFieldId="13" dataDxfId="77"/>
-    <tableColumn id="14" xr3:uid="{2493D056-10C6-492C-951E-5831A6B15005}" uniqueName="14" name="10" queryTableFieldId="14" dataDxfId="76"/>
-    <tableColumn id="15" xr3:uid="{89DF6519-3C3C-4A72-ADE9-BF0C5B375284}" uniqueName="15" name="11" queryTableFieldId="15" dataDxfId="75"/>
+    <tableColumn id="8" xr3:uid="{3218244D-8E7C-4716-B2F7-A7F914BA9CAD}" uniqueName="8" name="4" queryTableFieldId="8" dataDxfId="85"/>
+    <tableColumn id="9" xr3:uid="{D837C54C-36B1-4791-B5AA-492FA8A3EFD6}" uniqueName="9" name="5" queryTableFieldId="9" dataDxfId="84"/>
+    <tableColumn id="10" xr3:uid="{9A510D36-51DA-4A26-909F-801BF760EA5D}" uniqueName="10" name="6" queryTableFieldId="10" dataDxfId="83"/>
+    <tableColumn id="11" xr3:uid="{0EF039F4-9BC3-40A6-890C-B89F734DDD97}" uniqueName="11" name="7" queryTableFieldId="11" dataDxfId="82"/>
+    <tableColumn id="12" xr3:uid="{CED119B1-FF66-48BE-AD6F-5B5FA848465B}" uniqueName="12" name="8" queryTableFieldId="12" dataDxfId="81"/>
+    <tableColumn id="13" xr3:uid="{584C091A-D48F-4454-9A72-3C8DEF4F2F6F}" uniqueName="13" name="9" queryTableFieldId="13" dataDxfId="80"/>
+    <tableColumn id="14" xr3:uid="{2493D056-10C6-492C-951E-5831A6B15005}" uniqueName="14" name="10" queryTableFieldId="14" dataDxfId="79"/>
+    <tableColumn id="15" xr3:uid="{89DF6519-3C3C-4A72-ADE9-BF0C5B375284}" uniqueName="15" name="11" queryTableFieldId="15" dataDxfId="78"/>
     <tableColumn id="16" xr3:uid="{B0559956-C1C4-422D-A4EF-96FE3B491FC8}" uniqueName="16" name="12" queryTableFieldId="16"/>
-    <tableColumn id="17" xr3:uid="{C97F4C11-8722-42C5-B3F3-EAC03D20F1DF}" uniqueName="17" name="13" queryTableFieldId="17" dataDxfId="74"/>
+    <tableColumn id="17" xr3:uid="{C97F4C11-8722-42C5-B3F3-EAC03D20F1DF}" uniqueName="17" name="13" queryTableFieldId="17" dataDxfId="77"/>
     <tableColumn id="18" xr3:uid="{BBE14EC0-D2BC-4A4B-834B-FDF5CFB197F3}" uniqueName="18" name="14" queryTableFieldId="18"/>
     <tableColumn id="19" xr3:uid="{8B3C61E4-0D4E-4866-BC4D-92D8D7CD9233}" uniqueName="19" name="15" queryTableFieldId="19"/>
     <tableColumn id="20" xr3:uid="{D34101B9-39CB-4E14-B4C7-7E44FCA561FF}" uniqueName="20" name="16" queryTableFieldId="20"/>
     <tableColumn id="21" xr3:uid="{45885339-427B-4C1E-B365-CFBA5F565A24}" uniqueName="21" name="17" queryTableFieldId="21"/>
-    <tableColumn id="22" xr3:uid="{11179E67-184E-4500-8EBF-64060F539E63}" uniqueName="22" name="Status" queryTableFieldId="22" dataDxfId="73"/>
+    <tableColumn id="22" xr3:uid="{11179E67-184E-4500-8EBF-64060F539E63}" uniqueName="22" name="Status" queryTableFieldId="22" dataDxfId="76"/>
     <tableColumn id="23" xr3:uid="{3F684844-74BC-40C3-A998-A6DA7DF7275C}" uniqueName="23" name="Bye" queryTableFieldId="23"/>
     <tableColumn id="24" xr3:uid="{4224EB5E-778B-451F-BE53-52FD228B3C9D}" uniqueName="24" name="Salary" queryTableFieldId="24"/>
-    <tableColumn id="25" xr3:uid="{0B90B589-1619-4E08-9F1A-4E4DCCD51543}" uniqueName="25" name="Column25" queryTableFieldId="25" dataDxfId="72"/>
+    <tableColumn id="25" xr3:uid="{0B90B589-1619-4E08-9F1A-4E4DCCD51543}" uniqueName="25" name="Column25" queryTableFieldId="25" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10200,30 +10191,30 @@
   <autoFilter ref="A1:Y143" xr:uid="{E3C18E83-85E7-4896-AB8C-054134AB04F7}"/>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{7AC6576E-DC4C-4D79-A4D4-F0468C8B09E7}" uniqueName="1" name="#" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{706594AA-6027-4B3A-BA79-C60F7CB0BA07}" uniqueName="2" name="Player" queryTableFieldId="2" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{706594AA-6027-4B3A-BA79-C60F7CB0BA07}" uniqueName="2" name="Player" queryTableFieldId="2" dataDxfId="74"/>
     <tableColumn id="3" xr3:uid="{366DBCE6-B668-4F74-BECF-BCD5190242E5}" uniqueName="3" name="Pts" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{A859AE37-3468-4BDC-A30B-24E7154F47AE}" uniqueName="4" name="Avg" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{723A167E-4251-465C-87B7-F6520234421F}" uniqueName="5" name="1" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{7963D8B4-F589-4AC5-BCE0-493AC68C6641}" uniqueName="6" name="2" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{5087B51B-C67D-488D-9452-5C00A1DE8969}" uniqueName="7" name="3" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{F5DF7D80-069A-43F0-8B96-051C8458504A}" uniqueName="8" name="4" queryTableFieldId="8" dataDxfId="70"/>
-    <tableColumn id="9" xr3:uid="{9BA17AC6-0201-44DE-8988-AC51F22416D1}" uniqueName="9" name="5" queryTableFieldId="9" dataDxfId="69"/>
-    <tableColumn id="10" xr3:uid="{E13BB5F0-C9E8-4013-81D7-A6EEA12BBB15}" uniqueName="10" name="6" queryTableFieldId="10" dataDxfId="68"/>
-    <tableColumn id="11" xr3:uid="{B06A1B0D-4213-4043-A541-D91CB41DB280}" uniqueName="11" name="7" queryTableFieldId="11" dataDxfId="67"/>
-    <tableColumn id="12" xr3:uid="{9478E218-79F9-4872-91FA-DFD4B756E8AE}" uniqueName="12" name="8" queryTableFieldId="12" dataDxfId="66"/>
-    <tableColumn id="13" xr3:uid="{AC56E231-EA36-481F-8246-97E7EB31451A}" uniqueName="13" name="9" queryTableFieldId="13" dataDxfId="65"/>
-    <tableColumn id="14" xr3:uid="{3CBE4385-AA54-4AFC-B6EE-2B59D4170789}" uniqueName="14" name="10" queryTableFieldId="14" dataDxfId="64"/>
-    <tableColumn id="15" xr3:uid="{8BFF152B-775A-4014-9D28-7C3E1D344616}" uniqueName="15" name="11" queryTableFieldId="15" dataDxfId="63"/>
+    <tableColumn id="8" xr3:uid="{F5DF7D80-069A-43F0-8B96-051C8458504A}" uniqueName="8" name="4" queryTableFieldId="8" dataDxfId="73"/>
+    <tableColumn id="9" xr3:uid="{9BA17AC6-0201-44DE-8988-AC51F22416D1}" uniqueName="9" name="5" queryTableFieldId="9" dataDxfId="72"/>
+    <tableColumn id="10" xr3:uid="{E13BB5F0-C9E8-4013-81D7-A6EEA12BBB15}" uniqueName="10" name="6" queryTableFieldId="10" dataDxfId="71"/>
+    <tableColumn id="11" xr3:uid="{B06A1B0D-4213-4043-A541-D91CB41DB280}" uniqueName="11" name="7" queryTableFieldId="11" dataDxfId="70"/>
+    <tableColumn id="12" xr3:uid="{9478E218-79F9-4872-91FA-DFD4B756E8AE}" uniqueName="12" name="8" queryTableFieldId="12" dataDxfId="69"/>
+    <tableColumn id="13" xr3:uid="{AC56E231-EA36-481F-8246-97E7EB31451A}" uniqueName="13" name="9" queryTableFieldId="13" dataDxfId="68"/>
+    <tableColumn id="14" xr3:uid="{3CBE4385-AA54-4AFC-B6EE-2B59D4170789}" uniqueName="14" name="10" queryTableFieldId="14" dataDxfId="67"/>
+    <tableColumn id="15" xr3:uid="{8BFF152B-775A-4014-9D28-7C3E1D344616}" uniqueName="15" name="11" queryTableFieldId="15" dataDxfId="66"/>
     <tableColumn id="16" xr3:uid="{52943F94-0847-4603-8A86-AE86956620A5}" uniqueName="16" name="12" queryTableFieldId="16"/>
-    <tableColumn id="17" xr3:uid="{E04A6DA2-CC45-4A85-B3E5-E2D8BD214EC5}" uniqueName="17" name="13" queryTableFieldId="17" dataDxfId="62"/>
+    <tableColumn id="17" xr3:uid="{E04A6DA2-CC45-4A85-B3E5-E2D8BD214EC5}" uniqueName="17" name="13" queryTableFieldId="17" dataDxfId="65"/>
     <tableColumn id="18" xr3:uid="{94A0E788-F49D-4D94-A434-CE4C2F88C94B}" uniqueName="18" name="14" queryTableFieldId="18"/>
     <tableColumn id="19" xr3:uid="{A6CF0778-20DC-435F-A77F-559440EACFCC}" uniqueName="19" name="15" queryTableFieldId="19"/>
     <tableColumn id="20" xr3:uid="{3EC9AA85-0642-479A-8D91-5F7A7F05E9BA}" uniqueName="20" name="16" queryTableFieldId="20"/>
     <tableColumn id="21" xr3:uid="{2C83DF48-80DD-41AA-A3EE-EDCA90A61090}" uniqueName="21" name="17" queryTableFieldId="21"/>
-    <tableColumn id="22" xr3:uid="{50FD11F7-189F-47BE-82DB-84D056862BD9}" uniqueName="22" name="Status" queryTableFieldId="22" dataDxfId="61"/>
+    <tableColumn id="22" xr3:uid="{50FD11F7-189F-47BE-82DB-84D056862BD9}" uniqueName="22" name="Status" queryTableFieldId="22" dataDxfId="64"/>
     <tableColumn id="23" xr3:uid="{67219750-32F9-4A93-92D7-DBC19D7E22F6}" uniqueName="23" name="Bye" queryTableFieldId="23"/>
     <tableColumn id="24" xr3:uid="{816DC4B4-63CB-4C1B-A975-5118D377FC52}" uniqueName="24" name="Salary" queryTableFieldId="24"/>
-    <tableColumn id="25" xr3:uid="{52629AB1-67A8-4FF0-9FC8-78CF5962B080}" uniqueName="25" name="Column25" queryTableFieldId="25" dataDxfId="60"/>
+    <tableColumn id="25" xr3:uid="{52629AB1-67A8-4FF0-9FC8-78CF5962B080}" uniqueName="25" name="Column25" queryTableFieldId="25" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10234,30 +10225,30 @@
   <autoFilter ref="A1:Y47" xr:uid="{B678FB56-F4C6-477B-9FB1-8FF3693E0EDC}"/>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{391112B1-CBE7-4647-9ED9-87DE01B3D3BE}" uniqueName="1" name="#" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{14490791-4C9B-486B-89CF-26F18BD41DAE}" uniqueName="2" name="Player" queryTableFieldId="2" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{14490791-4C9B-486B-89CF-26F18BD41DAE}" uniqueName="2" name="Player" queryTableFieldId="2" dataDxfId="62"/>
     <tableColumn id="3" xr3:uid="{3895B59B-553A-4FED-979C-B1E7ED2A74EA}" uniqueName="3" name="Pts" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{6DE547AC-A077-4415-A028-F484C50D42D4}" uniqueName="4" name="Avg" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{64061413-306D-457E-ADC0-C56EC3321796}" uniqueName="5" name="1" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{1ADDEF71-3D1A-4F78-B23C-333D148C2CA5}" uniqueName="6" name="2" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{9CE02B9C-0AC2-4B07-815F-7B6FBD5A0C12}" uniqueName="7" name="3" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{88E7D119-F772-4812-B037-B5B7968607C7}" uniqueName="8" name="4" queryTableFieldId="8" dataDxfId="58"/>
-    <tableColumn id="9" xr3:uid="{DC26EDF6-28CA-41EE-BB1C-90F67FA13474}" uniqueName="9" name="5" queryTableFieldId="9" dataDxfId="57"/>
-    <tableColumn id="10" xr3:uid="{C315C6BD-2B8D-4266-B6AC-51796D6CAC0D}" uniqueName="10" name="6" queryTableFieldId="10" dataDxfId="56"/>
-    <tableColumn id="11" xr3:uid="{16954FF8-AF6D-4B7C-9237-18023177826F}" uniqueName="11" name="7" queryTableFieldId="11" dataDxfId="55"/>
-    <tableColumn id="12" xr3:uid="{90D56C01-307D-487B-A457-1FFD65D9AF28}" uniqueName="12" name="8" queryTableFieldId="12" dataDxfId="54"/>
-    <tableColumn id="13" xr3:uid="{5AE7C9DD-E63F-4012-8DB2-514BB8DA5F03}" uniqueName="13" name="9" queryTableFieldId="13" dataDxfId="53"/>
-    <tableColumn id="14" xr3:uid="{9653E56B-B283-454C-A48C-E172BD1DBF6F}" uniqueName="14" name="10" queryTableFieldId="14" dataDxfId="52"/>
-    <tableColumn id="15" xr3:uid="{47B6C384-AEB3-423B-9EC1-B4C645061847}" uniqueName="15" name="11" queryTableFieldId="15" dataDxfId="51"/>
+    <tableColumn id="8" xr3:uid="{88E7D119-F772-4812-B037-B5B7968607C7}" uniqueName="8" name="4" queryTableFieldId="8" dataDxfId="61"/>
+    <tableColumn id="9" xr3:uid="{DC26EDF6-28CA-41EE-BB1C-90F67FA13474}" uniqueName="9" name="5" queryTableFieldId="9" dataDxfId="60"/>
+    <tableColumn id="10" xr3:uid="{C315C6BD-2B8D-4266-B6AC-51796D6CAC0D}" uniqueName="10" name="6" queryTableFieldId="10" dataDxfId="59"/>
+    <tableColumn id="11" xr3:uid="{16954FF8-AF6D-4B7C-9237-18023177826F}" uniqueName="11" name="7" queryTableFieldId="11" dataDxfId="58"/>
+    <tableColumn id="12" xr3:uid="{90D56C01-307D-487B-A457-1FFD65D9AF28}" uniqueName="12" name="8" queryTableFieldId="12" dataDxfId="57"/>
+    <tableColumn id="13" xr3:uid="{5AE7C9DD-E63F-4012-8DB2-514BB8DA5F03}" uniqueName="13" name="9" queryTableFieldId="13" dataDxfId="56"/>
+    <tableColumn id="14" xr3:uid="{9653E56B-B283-454C-A48C-E172BD1DBF6F}" uniqueName="14" name="10" queryTableFieldId="14" dataDxfId="55"/>
+    <tableColumn id="15" xr3:uid="{47B6C384-AEB3-423B-9EC1-B4C645061847}" uniqueName="15" name="11" queryTableFieldId="15" dataDxfId="54"/>
     <tableColumn id="16" xr3:uid="{9C30B706-AD34-4E38-BE06-3B352D862F4F}" uniqueName="16" name="12" queryTableFieldId="16"/>
-    <tableColumn id="17" xr3:uid="{555A2F24-6982-4FEC-B748-6F8A926723DA}" uniqueName="17" name="13" queryTableFieldId="17" dataDxfId="50"/>
+    <tableColumn id="17" xr3:uid="{555A2F24-6982-4FEC-B748-6F8A926723DA}" uniqueName="17" name="13" queryTableFieldId="17" dataDxfId="53"/>
     <tableColumn id="18" xr3:uid="{5D9A86A1-CC79-4DDC-A2D9-07F865E80745}" uniqueName="18" name="14" queryTableFieldId="18"/>
     <tableColumn id="19" xr3:uid="{7547BDE6-9553-4EBA-9262-E003A83466EA}" uniqueName="19" name="15" queryTableFieldId="19"/>
     <tableColumn id="20" xr3:uid="{472EF098-4F95-4297-80D0-D4C8941EE0FB}" uniqueName="20" name="16" queryTableFieldId="20"/>
     <tableColumn id="21" xr3:uid="{52F6F8B6-735B-4108-AD65-3A1820491F5F}" uniqueName="21" name="17" queryTableFieldId="21"/>
-    <tableColumn id="22" xr3:uid="{3D07B6DE-EF34-4950-9280-B13F87CE9D7D}" uniqueName="22" name="Status" queryTableFieldId="22" dataDxfId="49"/>
+    <tableColumn id="22" xr3:uid="{3D07B6DE-EF34-4950-9280-B13F87CE9D7D}" uniqueName="22" name="Status" queryTableFieldId="22" dataDxfId="52"/>
     <tableColumn id="23" xr3:uid="{B631B0EC-1B49-4BAD-B1DC-139CE7E4E78F}" uniqueName="23" name="Bye" queryTableFieldId="23"/>
     <tableColumn id="24" xr3:uid="{E11AAB73-ABAA-4C2F-9BDA-FB45B39E4EB1}" uniqueName="24" name="Salary" queryTableFieldId="24"/>
-    <tableColumn id="25" xr3:uid="{39EB1D41-A4C8-4C84-9EC7-CA18C14A9A2F}" uniqueName="25" name="Column25" queryTableFieldId="25" dataDxfId="48"/>
+    <tableColumn id="25" xr3:uid="{39EB1D41-A4C8-4C84-9EC7-CA18C14A9A2F}" uniqueName="25" name="Column25" queryTableFieldId="25" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10268,30 +10259,30 @@
   <autoFilter ref="A1:Y33" xr:uid="{C5CB9A38-B71A-444B-A031-F91AD1AF596E}"/>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{26F43DAC-2C32-434F-956A-3F0812173640}" uniqueName="1" name="#" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{2534A379-A0CC-4584-9DA1-1768459FAD80}" uniqueName="2" name="Player" queryTableFieldId="2" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{2534A379-A0CC-4584-9DA1-1768459FAD80}" uniqueName="2" name="Player" queryTableFieldId="2" dataDxfId="50"/>
     <tableColumn id="3" xr3:uid="{EFDAEA37-37EF-4DC1-A1DA-25E98E320030}" uniqueName="3" name="Pts" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{9495B573-5BF5-47ED-A3D0-3ABBA974FDE0}" uniqueName="4" name="Avg" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{77D81783-5720-478D-82F2-52C94653E380}" uniqueName="5" name="1" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{5AB00746-4A4E-4DC6-B6F0-1585D27AB883}" uniqueName="6" name="2" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{19D099EF-80CD-4F96-ADAA-080260B37768}" uniqueName="7" name="3" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{858046B0-549F-411E-8A64-C049F85BEDB7}" uniqueName="8" name="4" queryTableFieldId="8" dataDxfId="46"/>
-    <tableColumn id="9" xr3:uid="{B8B91222-CB25-46FD-B10B-7863D7E890A2}" uniqueName="9" name="5" queryTableFieldId="9" dataDxfId="45"/>
-    <tableColumn id="10" xr3:uid="{6E1682F3-4693-457B-963B-D6E38C5920A0}" uniqueName="10" name="6" queryTableFieldId="10" dataDxfId="44"/>
-    <tableColumn id="11" xr3:uid="{1C530D1C-B2A8-4A9E-9329-8CD4220BB81C}" uniqueName="11" name="7" queryTableFieldId="11" dataDxfId="43"/>
-    <tableColumn id="12" xr3:uid="{7B557388-A307-417A-8F44-AA3B3FEB3ED7}" uniqueName="12" name="8" queryTableFieldId="12" dataDxfId="42"/>
-    <tableColumn id="13" xr3:uid="{1D212E0E-5591-4E39-9C4C-651A84C6F396}" uniqueName="13" name="9" queryTableFieldId="13" dataDxfId="41"/>
-    <tableColumn id="14" xr3:uid="{2EDE58C3-EB4E-401E-8129-5B0C0E8C4CC9}" uniqueName="14" name="10" queryTableFieldId="14" dataDxfId="40"/>
-    <tableColumn id="15" xr3:uid="{91F38D5E-80D9-45C1-9A14-CBF6ABB31CD4}" uniqueName="15" name="11" queryTableFieldId="15" dataDxfId="39"/>
+    <tableColumn id="8" xr3:uid="{858046B0-549F-411E-8A64-C049F85BEDB7}" uniqueName="8" name="4" queryTableFieldId="8" dataDxfId="49"/>
+    <tableColumn id="9" xr3:uid="{B8B91222-CB25-46FD-B10B-7863D7E890A2}" uniqueName="9" name="5" queryTableFieldId="9" dataDxfId="48"/>
+    <tableColumn id="10" xr3:uid="{6E1682F3-4693-457B-963B-D6E38C5920A0}" uniqueName="10" name="6" queryTableFieldId="10" dataDxfId="47"/>
+    <tableColumn id="11" xr3:uid="{1C530D1C-B2A8-4A9E-9329-8CD4220BB81C}" uniqueName="11" name="7" queryTableFieldId="11" dataDxfId="46"/>
+    <tableColumn id="12" xr3:uid="{7B557388-A307-417A-8F44-AA3B3FEB3ED7}" uniqueName="12" name="8" queryTableFieldId="12" dataDxfId="45"/>
+    <tableColumn id="13" xr3:uid="{1D212E0E-5591-4E39-9C4C-651A84C6F396}" uniqueName="13" name="9" queryTableFieldId="13" dataDxfId="44"/>
+    <tableColumn id="14" xr3:uid="{2EDE58C3-EB4E-401E-8129-5B0C0E8C4CC9}" uniqueName="14" name="10" queryTableFieldId="14" dataDxfId="43"/>
+    <tableColumn id="15" xr3:uid="{91F38D5E-80D9-45C1-9A14-CBF6ABB31CD4}" uniqueName="15" name="11" queryTableFieldId="15" dataDxfId="42"/>
     <tableColumn id="16" xr3:uid="{6789F900-CE30-45F0-8787-BE32984E072A}" uniqueName="16" name="12" queryTableFieldId="16"/>
-    <tableColumn id="17" xr3:uid="{4633A0A4-199A-4157-AED2-77F02DC6ADB4}" uniqueName="17" name="13" queryTableFieldId="17" dataDxfId="38"/>
+    <tableColumn id="17" xr3:uid="{4633A0A4-199A-4157-AED2-77F02DC6ADB4}" uniqueName="17" name="13" queryTableFieldId="17" dataDxfId="41"/>
     <tableColumn id="18" xr3:uid="{43CF6658-1797-410C-915C-0DD2069F97C5}" uniqueName="18" name="14" queryTableFieldId="18"/>
     <tableColumn id="19" xr3:uid="{27357B2B-71D0-40A8-9DA6-1F6F357B77DA}" uniqueName="19" name="15" queryTableFieldId="19"/>
     <tableColumn id="20" xr3:uid="{296CCB7A-DD09-4CAB-BD17-DE917F00D9EB}" uniqueName="20" name="16" queryTableFieldId="20"/>
     <tableColumn id="21" xr3:uid="{671552AC-9C79-4865-8451-B7A74A182145}" uniqueName="21" name="17" queryTableFieldId="21"/>
-    <tableColumn id="22" xr3:uid="{9DD28971-8767-419F-A4E7-015B85408EBE}" uniqueName="22" name="Status" queryTableFieldId="22" dataDxfId="37"/>
+    <tableColumn id="22" xr3:uid="{9DD28971-8767-419F-A4E7-015B85408EBE}" uniqueName="22" name="Status" queryTableFieldId="22" dataDxfId="40"/>
     <tableColumn id="23" xr3:uid="{E2C9AF7E-15FE-483A-AFF9-09D0E43E3BF7}" uniqueName="23" name="Bye" queryTableFieldId="23"/>
     <tableColumn id="24" xr3:uid="{AA540C2F-1AE9-404B-B5C1-1035C5DAEACC}" uniqueName="24" name="Salary" queryTableFieldId="24"/>
-    <tableColumn id="25" xr3:uid="{0979FC22-951D-4E4E-8308-62C49463C6BF}" uniqueName="25" name="Column25" queryTableFieldId="25" dataDxfId="36"/>
+    <tableColumn id="25" xr3:uid="{0979FC22-951D-4E4E-8308-62C49463C6BF}" uniqueName="25" name="Column25" queryTableFieldId="25" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10302,30 +10293,30 @@
   <autoFilter ref="A1:Y33" xr:uid="{E7B9ADA0-9820-4EC2-B248-F18D95F5E4F3}"/>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{E61671D7-5DB3-405E-AAED-8AB6E3CE65ED}" uniqueName="1" name="#" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{846E814B-690B-488B-B258-514079762FAE}" uniqueName="2" name="Player" queryTableFieldId="2" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{846E814B-690B-488B-B258-514079762FAE}" uniqueName="2" name="Player" queryTableFieldId="2" dataDxfId="38"/>
     <tableColumn id="3" xr3:uid="{7B77F1C8-E576-415A-B520-7D1B0EF1806C}" uniqueName="3" name="Pts" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{B87595EC-BF16-42FE-99F6-6D5F47D420F3}" uniqueName="4" name="Avg" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{CD20C933-4354-4B00-B98A-048A786012CF}" uniqueName="5" name="1" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{2BBC95E5-D796-4916-82E9-9B2CD115E09C}" uniqueName="6" name="2" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{5ADF238A-2CE8-4558-9798-2347B1A0620A}" uniqueName="7" name="3" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{3D0AF18B-B412-42E7-B130-841DB6BC4A4D}" uniqueName="8" name="4" queryTableFieldId="8" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{2C9914C5-45AF-4C04-9668-62F10F8E765A}" uniqueName="9" name="5" queryTableFieldId="9" dataDxfId="33"/>
-    <tableColumn id="10" xr3:uid="{5543AF3D-074E-43BC-BFFD-46CBC0DEF4C7}" uniqueName="10" name="6" queryTableFieldId="10" dataDxfId="32"/>
-    <tableColumn id="11" xr3:uid="{0B45824D-9C29-43CA-9081-CC50D833A590}" uniqueName="11" name="7" queryTableFieldId="11" dataDxfId="31"/>
-    <tableColumn id="12" xr3:uid="{DAFEE8F3-D8FA-4FD5-9779-4BC0F2D656CF}" uniqueName="12" name="8" queryTableFieldId="12" dataDxfId="30"/>
-    <tableColumn id="13" xr3:uid="{7D989CAE-91A1-410B-B468-C643FCC895E7}" uniqueName="13" name="9" queryTableFieldId="13" dataDxfId="29"/>
-    <tableColumn id="14" xr3:uid="{870F8A7A-1E64-4FC5-ACE1-02AFD9F0DB06}" uniqueName="14" name="10" queryTableFieldId="14" dataDxfId="28"/>
-    <tableColumn id="15" xr3:uid="{18A4852E-8760-4733-B650-3B0531C860AD}" uniqueName="15" name="11" queryTableFieldId="15" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{3D0AF18B-B412-42E7-B130-841DB6BC4A4D}" uniqueName="8" name="4" queryTableFieldId="8" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{2C9914C5-45AF-4C04-9668-62F10F8E765A}" uniqueName="9" name="5" queryTableFieldId="9" dataDxfId="36"/>
+    <tableColumn id="10" xr3:uid="{5543AF3D-074E-43BC-BFFD-46CBC0DEF4C7}" uniqueName="10" name="6" queryTableFieldId="10" dataDxfId="35"/>
+    <tableColumn id="11" xr3:uid="{0B45824D-9C29-43CA-9081-CC50D833A590}" uniqueName="11" name="7" queryTableFieldId="11" dataDxfId="34"/>
+    <tableColumn id="12" xr3:uid="{DAFEE8F3-D8FA-4FD5-9779-4BC0F2D656CF}" uniqueName="12" name="8" queryTableFieldId="12" dataDxfId="33"/>
+    <tableColumn id="13" xr3:uid="{7D989CAE-91A1-410B-B468-C643FCC895E7}" uniqueName="13" name="9" queryTableFieldId="13" dataDxfId="32"/>
+    <tableColumn id="14" xr3:uid="{870F8A7A-1E64-4FC5-ACE1-02AFD9F0DB06}" uniqueName="14" name="10" queryTableFieldId="14" dataDxfId="31"/>
+    <tableColumn id="15" xr3:uid="{18A4852E-8760-4733-B650-3B0531C860AD}" uniqueName="15" name="11" queryTableFieldId="15" dataDxfId="30"/>
     <tableColumn id="16" xr3:uid="{52E8EBF3-FC59-4F4A-95E2-EFAD8C02F765}" uniqueName="16" name="12" queryTableFieldId="16"/>
-    <tableColumn id="17" xr3:uid="{F085A53A-02A2-4A7B-8A59-8600F9AF0048}" uniqueName="17" name="13" queryTableFieldId="17" dataDxfId="26"/>
+    <tableColumn id="17" xr3:uid="{F085A53A-02A2-4A7B-8A59-8600F9AF0048}" uniqueName="17" name="13" queryTableFieldId="17" dataDxfId="29"/>
     <tableColumn id="18" xr3:uid="{0661C1E4-5F67-43A3-B518-05C9CCD28A3C}" uniqueName="18" name="14" queryTableFieldId="18"/>
     <tableColumn id="19" xr3:uid="{9684D722-4634-4CEE-82AD-E7D8D868DF64}" uniqueName="19" name="15" queryTableFieldId="19"/>
     <tableColumn id="20" xr3:uid="{0160F554-C47D-4B2C-896C-1610D8F33ADF}" uniqueName="20" name="16" queryTableFieldId="20"/>
     <tableColumn id="21" xr3:uid="{18993DE0-6F61-4ADE-BC2A-75C83E3AD7F5}" uniqueName="21" name="17" queryTableFieldId="21"/>
-    <tableColumn id="22" xr3:uid="{A4644384-38C7-4CE6-B353-C84D15F8C636}" uniqueName="22" name="Status" queryTableFieldId="22" dataDxfId="25"/>
+    <tableColumn id="22" xr3:uid="{A4644384-38C7-4CE6-B353-C84D15F8C636}" uniqueName="22" name="Status" queryTableFieldId="22" dataDxfId="28"/>
     <tableColumn id="23" xr3:uid="{256CD369-6CDC-4C02-8830-A23C69CD0D34}" uniqueName="23" name="Bye" queryTableFieldId="23"/>
     <tableColumn id="24" xr3:uid="{8ECDF9B0-3B42-46F6-8E54-C255C8681DD1}" uniqueName="24" name="Salary" queryTableFieldId="24"/>
-    <tableColumn id="25" xr3:uid="{027C6CB9-026A-44D3-8722-4259AFC9F154}" uniqueName="25" name="Column25" queryTableFieldId="25" dataDxfId="24"/>
+    <tableColumn id="25" xr3:uid="{027C6CB9-026A-44D3-8722-4259AFC9F154}" uniqueName="25" name="Column25" queryTableFieldId="25" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10336,30 +10327,30 @@
   <autoFilter ref="A1:Y33" xr:uid="{E2792131-DB7F-4D11-BB04-10767F329909}"/>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{B6D113DD-20E5-4010-AF52-39DB5A1A0886}" uniqueName="1" name="#" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{CEF653EB-1CDF-4AEC-9708-1FAD76FDE63E}" uniqueName="2" name="Player" queryTableFieldId="2" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{CEF653EB-1CDF-4AEC-9708-1FAD76FDE63E}" uniqueName="2" name="Player" queryTableFieldId="2" dataDxfId="26"/>
     <tableColumn id="3" xr3:uid="{60A72A68-D74A-4C90-B556-0AE728691654}" uniqueName="3" name="Pts" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{4AE1EA59-9195-48D1-B165-6B68BA549A3E}" uniqueName="4" name="Avg" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{2CAE2F00-F954-46EE-8DC5-1F3115CFC6E0}" uniqueName="5" name="1" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{ED8A5A8D-3A83-4F6B-8F29-9B93179F95A7}" uniqueName="6" name="2" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{A5D41F17-4BAD-49C1-A102-D8B68412DD5D}" uniqueName="7" name="3" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{5D118FA5-D3C0-472A-9B98-93A7C4374AEF}" uniqueName="8" name="4" queryTableFieldId="8" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{AB0B10CC-71BD-42B5-A54C-E0A876F7814E}" uniqueName="9" name="5" queryTableFieldId="9" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{96B1D98F-6157-409A-82A3-9B763A337AF3}" uniqueName="10" name="6" queryTableFieldId="10" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{027D84B1-C7C4-4DAA-B5B0-A8D40519D59A}" uniqueName="11" name="7" queryTableFieldId="11" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{FA15FF34-8366-4D78-8B2E-46453AC699DD}" uniqueName="12" name="8" queryTableFieldId="12" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{DD39AD84-06A8-4012-85CE-DF557ABAB29B}" uniqueName="13" name="9" queryTableFieldId="13" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{F4BCD4A0-EB2B-45C6-9106-76AD9D58044F}" uniqueName="14" name="10" queryTableFieldId="14" dataDxfId="16"/>
-    <tableColumn id="15" xr3:uid="{E3850997-4E3A-4828-8D1C-13944DEB5BAB}" uniqueName="15" name="11" queryTableFieldId="15" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{5D118FA5-D3C0-472A-9B98-93A7C4374AEF}" uniqueName="8" name="4" queryTableFieldId="8" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{AB0B10CC-71BD-42B5-A54C-E0A876F7814E}" uniqueName="9" name="5" queryTableFieldId="9" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{96B1D98F-6157-409A-82A3-9B763A337AF3}" uniqueName="10" name="6" queryTableFieldId="10" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{027D84B1-C7C4-4DAA-B5B0-A8D40519D59A}" uniqueName="11" name="7" queryTableFieldId="11" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{FA15FF34-8366-4D78-8B2E-46453AC699DD}" uniqueName="12" name="8" queryTableFieldId="12" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{DD39AD84-06A8-4012-85CE-DF557ABAB29B}" uniqueName="13" name="9" queryTableFieldId="13" dataDxfId="20"/>
+    <tableColumn id="14" xr3:uid="{F4BCD4A0-EB2B-45C6-9106-76AD9D58044F}" uniqueName="14" name="10" queryTableFieldId="14" dataDxfId="19"/>
+    <tableColumn id="15" xr3:uid="{E3850997-4E3A-4828-8D1C-13944DEB5BAB}" uniqueName="15" name="11" queryTableFieldId="15" dataDxfId="18"/>
     <tableColumn id="16" xr3:uid="{C8207F56-9117-4AC8-B3B7-D0D4FA488091}" uniqueName="16" name="12" queryTableFieldId="16"/>
-    <tableColumn id="17" xr3:uid="{8935932A-946F-43B2-A354-44E3232D72D0}" uniqueName="17" name="13" queryTableFieldId="17" dataDxfId="14"/>
+    <tableColumn id="17" xr3:uid="{8935932A-946F-43B2-A354-44E3232D72D0}" uniqueName="17" name="13" queryTableFieldId="17" dataDxfId="17"/>
     <tableColumn id="18" xr3:uid="{122F89A6-B635-4F4A-A935-62E1E3FC192F}" uniqueName="18" name="14" queryTableFieldId="18"/>
     <tableColumn id="19" xr3:uid="{ECEC9338-E49D-4778-A655-8C58D6DEEF8E}" uniqueName="19" name="15" queryTableFieldId="19"/>
     <tableColumn id="20" xr3:uid="{E9A54D97-CBE5-4CF5-B35A-46DE5E8E74B8}" uniqueName="20" name="16" queryTableFieldId="20"/>
     <tableColumn id="21" xr3:uid="{EB8C167D-893D-422C-9F4E-B5A589F87E8F}" uniqueName="21" name="17" queryTableFieldId="21"/>
-    <tableColumn id="22" xr3:uid="{36BC9870-A86F-4747-A277-5A5CAC0CD651}" uniqueName="22" name="Status" queryTableFieldId="22" dataDxfId="13"/>
+    <tableColumn id="22" xr3:uid="{36BC9870-A86F-4747-A277-5A5CAC0CD651}" uniqueName="22" name="Status" queryTableFieldId="22" dataDxfId="16"/>
     <tableColumn id="23" xr3:uid="{71081649-F397-4557-B63E-743FC31C0D64}" uniqueName="23" name="Bye" queryTableFieldId="23"/>
     <tableColumn id="24" xr3:uid="{A1F9D66E-EDD1-4255-B2A2-228602614D18}" uniqueName="24" name="Salary" queryTableFieldId="24"/>
-    <tableColumn id="25" xr3:uid="{D01D31A9-590A-4825-9F43-2F821B46B112}" uniqueName="25" name="Column25" queryTableFieldId="25" dataDxfId="12"/>
+    <tableColumn id="25" xr3:uid="{D01D31A9-590A-4825-9F43-2F821B46B112}" uniqueName="25" name="Column25" queryTableFieldId="25" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10370,30 +10361,30 @@
   <autoFilter ref="A1:Y36" xr:uid="{B69AFF24-225A-43FA-8824-40F4F897772D}"/>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{F0C491CE-0CC3-4BA0-8551-AA4E7C51C648}" uniqueName="1" name="#" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{C490B4B4-6EB7-41C2-AD49-CDA7B1ABC1F8}" uniqueName="2" name="Player" queryTableFieldId="2" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{C490B4B4-6EB7-41C2-AD49-CDA7B1ABC1F8}" uniqueName="2" name="Player" queryTableFieldId="2" dataDxfId="14"/>
     <tableColumn id="3" xr3:uid="{61BA734F-4E73-4F9D-9E23-FC087A16EDBF}" uniqueName="3" name="Pts" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{EB906F91-90BF-4222-8562-B6CF27BFBA31}" uniqueName="4" name="Avg" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{87FF7065-105D-478A-A61A-646AF3C0E65D}" uniqueName="5" name="1" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{EFD21B67-9F1C-46AD-8CF8-926F54AA3ED1}" uniqueName="6" name="2" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{9B955D61-E70A-4565-9FCC-D69BBBB11BE9}" uniqueName="7" name="3" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{BC9A266E-1DC1-4C46-A0C9-367E3F19CF33}" uniqueName="8" name="4" queryTableFieldId="8" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{3F2B8D29-62DD-4FB4-90AC-8F5718C141C6}" uniqueName="9" name="5" queryTableFieldId="9" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{4945C98B-BB7E-4236-ABDA-58C788D21AD9}" uniqueName="10" name="6" queryTableFieldId="10" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{E42494F7-EA98-4D23-8942-B6F370DD8248}" uniqueName="11" name="7" queryTableFieldId="11" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{C590165A-9F45-4EE9-A5CE-D0C578AA3AEE}" uniqueName="12" name="8" queryTableFieldId="12" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{9C2F0F87-0A37-4A35-9E80-77D3B7621BB1}" uniqueName="13" name="9" queryTableFieldId="13" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{192D35BA-0CB0-4653-B8AA-EDF273CCC83C}" uniqueName="14" name="10" queryTableFieldId="14" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{87C551B2-3DBE-4EC9-9861-B245773F2F79}" uniqueName="15" name="11" queryTableFieldId="15" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{BC9A266E-1DC1-4C46-A0C9-367E3F19CF33}" uniqueName="8" name="4" queryTableFieldId="8" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{3F2B8D29-62DD-4FB4-90AC-8F5718C141C6}" uniqueName="9" name="5" queryTableFieldId="9" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{4945C98B-BB7E-4236-ABDA-58C788D21AD9}" uniqueName="10" name="6" queryTableFieldId="10" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{E42494F7-EA98-4D23-8942-B6F370DD8248}" uniqueName="11" name="7" queryTableFieldId="11" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{C590165A-9F45-4EE9-A5CE-D0C578AA3AEE}" uniqueName="12" name="8" queryTableFieldId="12" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{9C2F0F87-0A37-4A35-9E80-77D3B7621BB1}" uniqueName="13" name="9" queryTableFieldId="13" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{192D35BA-0CB0-4653-B8AA-EDF273CCC83C}" uniqueName="14" name="10" queryTableFieldId="14" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{87C551B2-3DBE-4EC9-9861-B245773F2F79}" uniqueName="15" name="11" queryTableFieldId="15" dataDxfId="6"/>
     <tableColumn id="16" xr3:uid="{17349183-ED79-4C7D-B7D1-96B9A27A8FD7}" uniqueName="16" name="12" queryTableFieldId="16"/>
-    <tableColumn id="17" xr3:uid="{8E8C5A38-C518-4881-8A6D-637DFF921052}" uniqueName="17" name="13" queryTableFieldId="17" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{8E8C5A38-C518-4881-8A6D-637DFF921052}" uniqueName="17" name="13" queryTableFieldId="17" dataDxfId="5"/>
     <tableColumn id="18" xr3:uid="{AB3CEB82-5CB9-43B6-A015-FB7AF3D3393E}" uniqueName="18" name="14" queryTableFieldId="18"/>
     <tableColumn id="19" xr3:uid="{0562640E-EA87-4F47-A19D-91E90E8E908E}" uniqueName="19" name="15" queryTableFieldId="19"/>
     <tableColumn id="20" xr3:uid="{D3A28763-4857-4E8E-A631-52556C13CCD5}" uniqueName="20" name="16" queryTableFieldId="20"/>
     <tableColumn id="21" xr3:uid="{BC6128F5-0596-454A-8CF8-3EC7BE4811F0}" uniqueName="21" name="17" queryTableFieldId="21"/>
-    <tableColumn id="22" xr3:uid="{9B37CAA0-E6D0-4C44-A80A-5A9B94115A21}" uniqueName="22" name="Status" queryTableFieldId="22" dataDxfId="1"/>
+    <tableColumn id="22" xr3:uid="{9B37CAA0-E6D0-4C44-A80A-5A9B94115A21}" uniqueName="22" name="Status" queryTableFieldId="22" dataDxfId="4"/>
     <tableColumn id="23" xr3:uid="{33405D06-5711-4D7E-8F87-2222A49C833F}" uniqueName="23" name="Bye" queryTableFieldId="23"/>
     <tableColumn id="24" xr3:uid="{18986F27-C21F-4C4A-B252-674460D6695A}" uniqueName="24" name="Salary" queryTableFieldId="24"/>
-    <tableColumn id="25" xr3:uid="{20094E5C-9F50-437D-AEB2-690FEFE2BF7A}" uniqueName="25" name="Column25" queryTableFieldId="25" dataDxfId="0"/>
+    <tableColumn id="25" xr3:uid="{20094E5C-9F50-437D-AEB2-690FEFE2BF7A}" uniqueName="25" name="Column25" queryTableFieldId="25" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10701,7 +10692,9 @@
     <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="AC1" sqref="AC1:AO7"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="AA1" sqref="AA1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17717,8 +17710,8 @@
   <dimension ref="A1:E358"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="1">
-      <selection activeCell="D314" sqref="D314"/>
+    <sheetView topLeftCell="A284" workbookViewId="1">
+      <selection activeCell="D303" sqref="D303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23831,7 +23824,9 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView topLeftCell="J1" workbookViewId="1">
+      <selection activeCell="AC1" sqref="AC1:AO7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23925,6 +23920,9 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
+      <c r="AA1" t="s">
+        <v>3090</v>
+      </c>
       <c r="AD1" t="s">
         <v>2356</v>
       </c>
@@ -24030,6 +24028,10 @@
         <v>36</v>
       </c>
       <c r="Y2" s="1"/>
+      <c r="AA2">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>11.232222222222223</v>
+      </c>
       <c r="AC2" t="s">
         <v>2355</v>
       </c>
@@ -24038,12 +24040,12 @@
         <v>101.18453125000001</v>
       </c>
       <c r="AE2">
+        <f>AVERAGE(C2:C65)</f>
+        <v>167.72750000000002</v>
+      </c>
+      <c r="AF2">
         <f>AVERAGE(C2:C33)</f>
         <v>224.074375</v>
-      </c>
-      <c r="AF2">
-        <f>AVERAGE(C2:C17)</f>
-        <v>266.2475</v>
       </c>
       <c r="AH2" t="s">
         <v>2356</v>
@@ -24151,6 +24153,10 @@
         <v>35</v>
       </c>
       <c r="Y3" s="1"/>
+      <c r="AA3">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>10.521142857142857</v>
+      </c>
       <c r="AC3" t="s">
         <v>2359</v>
       </c>
@@ -24159,43 +24165,43 @@
         <v>84.946850045147499</v>
       </c>
       <c r="AE3">
+        <f>_xlfn.STDEV.P(C2:C65)</f>
+        <v>72.335530299777261</v>
+      </c>
+      <c r="AF3">
         <f>_xlfn.STDEV.P(C2:C33)</f>
         <v>60.464650878504116</v>
       </c>
-      <c r="AF3">
-        <f>_xlfn.STDEV.P(C2:C17)</f>
-        <v>59.822087841783159</v>
-      </c>
       <c r="AH3" t="s">
         <v>2357</v>
       </c>
       <c r="AI3">
         <f>AE2-(3*AE3)</f>
-        <v>42.680422364487669</v>
+        <v>-49.279090899331777</v>
       </c>
       <c r="AJ3">
         <f>AE2-(2*AE3)</f>
-        <v>103.14507324299177</v>
+        <v>23.056439400445498</v>
       </c>
       <c r="AK3">
         <f>AE2-AE3</f>
-        <v>163.6097241214959</v>
+        <v>95.391969700222759</v>
       </c>
       <c r="AL3">
         <f>AE2</f>
-        <v>224.074375</v>
+        <v>167.72750000000002</v>
       </c>
       <c r="AM3">
         <f>AE2+AE3</f>
-        <v>284.53902587850411</v>
+        <v>240.06303029977727</v>
       </c>
       <c r="AN3">
         <f>AE2+(2*AE3)</f>
-        <v>345.00367675700824</v>
+        <v>312.39856059955457</v>
       </c>
       <c r="AO3">
         <f>AE2+(3*AE3)</f>
-        <v>405.46832763551231</v>
+        <v>384.73409089933182</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
@@ -24272,6 +24278,10 @@
         <v>33</v>
       </c>
       <c r="Y4" s="1"/>
+      <c r="AA4">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>10.98969696969697</v>
+      </c>
       <c r="AC4" t="s">
         <v>2360</v>
       </c>
@@ -24280,43 +24290,43 @@
         <v>7215.9673325927761</v>
       </c>
       <c r="AE4">
+        <f>_xlfn.VAR.P(C2:C65)</f>
+        <v>5232.4289437499938</v>
+      </c>
+      <c r="AF4">
         <f>_xlfn.VAR.P(C2:C33)</f>
         <v>3655.9740058593889</v>
       </c>
-      <c r="AF4">
-        <f>_xlfn.VAR.P(C2:C17)</f>
-        <v>3578.6821937500208</v>
-      </c>
       <c r="AH4" t="s">
         <v>2358</v>
       </c>
       <c r="AI4">
         <f>AF2-(3*AF3)</f>
-        <v>86.781236474650541</v>
+        <v>42.680422364487669</v>
       </c>
       <c r="AJ4">
         <f>AF2-(2*AF3)</f>
-        <v>146.60332431643369</v>
+        <v>103.14507324299177</v>
       </c>
       <c r="AK4">
         <f>AF2-AF3</f>
-        <v>206.42541215821683</v>
+        <v>163.6097241214959</v>
       </c>
       <c r="AL4">
         <f>AF2</f>
-        <v>266.2475</v>
+        <v>224.074375</v>
       </c>
       <c r="AM4">
         <f>AF2+AF3</f>
-        <v>326.06958784178318</v>
+        <v>284.53902587850411</v>
       </c>
       <c r="AN4">
         <f>AF2+(2*AF3)</f>
-        <v>385.89167568356629</v>
+        <v>345.00367675700824</v>
       </c>
       <c r="AO4">
         <f>AF2+(3*AF3)</f>
-        <v>445.71376352534946</v>
+        <v>405.46832763551231</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
@@ -24393,6 +24403,10 @@
         <v>8</v>
       </c>
       <c r="Y5" s="1"/>
+      <c r="AA5">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>35.597499999999997</v>
+      </c>
       <c r="AH5" t="s">
         <v>2356</v>
       </c>
@@ -24499,6 +24513,10 @@
         <v>26</v>
       </c>
       <c r="Y6" s="1"/>
+      <c r="AA6">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>10.569230769230769</v>
+      </c>
       <c r="AH6" t="s">
         <v>2357</v>
       </c>
@@ -24512,15 +24530,15 @@
       </c>
       <c r="AK6">
         <f>COUNTIF(C2:C33,"&gt;" &amp; AK3)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL6">
         <f>COUNTIF(C2:C33,"&gt;" &amp; AL3)</f>
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="AM6">
         <f>COUNTIF(C2:C33,"&gt;" &amp; AM3)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AN6">
         <f>COUNTIF(C2:C33,"&gt;" &amp; AN3)</f>
@@ -24528,7 +24546,7 @@
       </c>
       <c r="AO6">
         <f>COUNTIF(C2:C33,"&gt;" &amp; AO3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
@@ -24605,6 +24623,10 @@
         <v>13</v>
       </c>
       <c r="Y7" s="1"/>
+      <c r="AA7">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>20.918461538461539</v>
+      </c>
       <c r="AH7" t="s">
         <v>2358</v>
       </c>
@@ -24618,19 +24640,19 @@
       </c>
       <c r="AK7">
         <f>COUNTIF(C2:C17,"&gt;" &amp; AK4)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL7">
         <f>COUNTIF(C2:C17,"&gt;" &amp; AL4)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AM7">
         <f>COUNTIF(C2:C17,"&gt;" &amp; AM4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN7">
         <f>COUNTIF(C2:C17,"&gt;" &amp; AN4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO7">
         <f>COUNTIF(C2:C17,"&gt;" &amp; AO4)</f>
@@ -24711,6 +24733,10 @@
         <v>45</v>
       </c>
       <c r="Y8" s="1"/>
+      <c r="AA8">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>5.9417777777777774</v>
+      </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -24786,6 +24812,10 @@
         <v>30</v>
       </c>
       <c r="Y9" s="1"/>
+      <c r="AA9">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>8.5459999999999994</v>
+      </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -24861,6 +24891,10 @@
         <v>44</v>
       </c>
       <c r="Y10" s="1"/>
+      <c r="AA10">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>5.5313636363636363</v>
+      </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -24936,6 +24970,10 @@
         <v>12</v>
       </c>
       <c r="Y11" s="1"/>
+      <c r="AA11">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>20.278333333333332</v>
+      </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -25011,6 +25049,10 @@
         <v>27</v>
       </c>
       <c r="Y12" s="1"/>
+      <c r="AA12">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>8.4333333333333336</v>
+      </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -25086,6 +25128,10 @@
         <v>15</v>
       </c>
       <c r="Y13" s="1"/>
+      <c r="AA13">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>14.401333333333334</v>
+      </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -25161,6 +25207,10 @@
         <v>46</v>
       </c>
       <c r="Y14" s="1"/>
+      <c r="AA14">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>4.6930434782608694</v>
+      </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -25236,6 +25286,10 @@
         <v>21</v>
       </c>
       <c r="Y15" s="1"/>
+      <c r="AA15">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>10.08952380952381</v>
+      </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -25311,8 +25365,12 @@
         <v>25</v>
       </c>
       <c r="Y16" s="1"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA16">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>8.3927999999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -25386,8 +25444,12 @@
         <v>3</v>
       </c>
       <c r="Y17" s="1"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA17">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>67.13333333333334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -25458,11 +25520,15 @@
         <v>7</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Y18" s="1"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA18">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>266.0266666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -25536,8 +25602,12 @@
         <v>25</v>
       </c>
       <c r="Y19" s="1"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA19">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>7.9447999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -25611,8 +25681,12 @@
         <v>7</v>
       </c>
       <c r="Y20" s="1"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA20">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>28.231428571428573</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -25686,8 +25760,12 @@
         <v>26</v>
       </c>
       <c r="Y21" s="1"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA21">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>7.5592307692307692</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -25761,8 +25839,12 @@
         <v>26</v>
       </c>
       <c r="Y22" s="1"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA22">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>7.4584615384615383</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -25836,8 +25918,12 @@
         <v>1</v>
       </c>
       <c r="Y23" s="1"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA23">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>191.24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -25911,8 +25997,12 @@
         <v>27</v>
       </c>
       <c r="Y24" s="1"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA24">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>6.789629629629629</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -25986,8 +26076,12 @@
         <v>5</v>
       </c>
       <c r="Y25" s="1"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA25">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>36.236000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -26061,8 +26155,12 @@
         <v>26</v>
       </c>
       <c r="Y26" s="1"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA26">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>6.9246153846153842</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -26136,8 +26234,12 @@
         <v>10</v>
       </c>
       <c r="Y27" s="1"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA27">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>17.91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -26211,8 +26313,12 @@
         <v>23</v>
       </c>
       <c r="Y28" s="1"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA28">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>7.6913043478260876</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -26286,8 +26392,12 @@
         <v>1</v>
       </c>
       <c r="Y29" s="1"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA29">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>175.32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -26361,8 +26471,12 @@
         <v>24</v>
       </c>
       <c r="Y30" s="1"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA30">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>7.2533333333333339</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -26436,8 +26550,12 @@
         <v>6</v>
       </c>
       <c r="Y31" s="1"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA31">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>28.05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -26511,8 +26629,12 @@
         <v>2</v>
       </c>
       <c r="Y32" s="1"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA32">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>79.19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -26586,8 +26708,12 @@
         <v>13</v>
       </c>
       <c r="Y33" s="1"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA33">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>12.026153846153846</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -26661,8 +26787,12 @@
         <v>6</v>
       </c>
       <c r="Y34" s="1"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA34">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>24.643333333333334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -26736,8 +26866,12 @@
         <v>9</v>
       </c>
       <c r="Y35" s="1"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA35">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>16.404444444444444</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -26811,8 +26945,12 @@
         <v>1</v>
       </c>
       <c r="Y36" s="1"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA36">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>145.84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -26886,8 +27024,12 @@
         <v>55</v>
       </c>
       <c r="Y37" s="1"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA37">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>2.6479999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -26958,11 +27100,15 @@
         <v>5</v>
       </c>
       <c r="X38">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y38" s="1"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA38">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>280.32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -27036,8 +27182,12 @@
         <v>16</v>
       </c>
       <c r="Y39" s="1"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA39">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>8.73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -27111,8 +27261,12 @@
         <v>2</v>
       </c>
       <c r="Y40" s="1"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA40">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>68.83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -27183,11 +27337,15 @@
         <v>11</v>
       </c>
       <c r="X41">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y41" s="1"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA41">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>531.91999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -27261,8 +27419,12 @@
         <v>3</v>
       </c>
       <c r="Y42" s="1"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA42">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>42.826666666666661</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -27336,8 +27498,12 @@
         <v>15</v>
       </c>
       <c r="Y43" s="1"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA43">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>7.8786666666666667</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -27411,8 +27577,12 @@
         <v>8</v>
       </c>
       <c r="Y44" s="1"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA44">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>14.762499999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -27486,8 +27656,12 @@
         <v>18</v>
       </c>
       <c r="Y45" s="1"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA45">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>6.5233333333333334</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -27561,8 +27735,12 @@
         <v>15</v>
       </c>
       <c r="Y46" s="1"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA46">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>7.7493333333333334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -27636,8 +27814,12 @@
         <v>1</v>
       </c>
       <c r="Y47" s="1"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA47">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>113.32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -27708,11 +27890,15 @@
         <v>11</v>
       </c>
       <c r="X48">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y48" s="1"/>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA48">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -27786,8 +27972,12 @@
         <v>33</v>
       </c>
       <c r="Y49" s="1"/>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA49">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>3.3115151515151515</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -27858,11 +28048,15 @@
         <v>5</v>
       </c>
       <c r="X50">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y50" s="1"/>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA50">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>215.24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -27936,8 +28130,12 @@
         <v>18</v>
       </c>
       <c r="Y51" s="1"/>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA51">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -28011,8 +28209,12 @@
         <v>5</v>
       </c>
       <c r="Y52" s="1"/>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA52">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>20.968</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -28086,8 +28288,12 @@
         <v>13</v>
       </c>
       <c r="Y53" s="1"/>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA53">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>7.8323076923076922</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -28161,8 +28367,12 @@
         <v>1</v>
       </c>
       <c r="Y54" s="1"/>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA54">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>98.46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -28236,8 +28446,12 @@
         <v>18</v>
       </c>
       <c r="Y55" s="1"/>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA55">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>5.416666666666667</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -28311,8 +28525,12 @@
         <v>46</v>
       </c>
       <c r="Y56" s="1"/>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA56">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>2.1030434782608696</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -28386,8 +28604,12 @@
         <v>1</v>
       </c>
       <c r="Y57" s="1"/>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA57">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>93.04</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -28458,11 +28680,15 @@
         <v>6</v>
       </c>
       <c r="X58">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y58" s="1"/>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA58">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>366.16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -28536,8 +28762,12 @@
         <v>2</v>
       </c>
       <c r="Y59" s="1"/>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA59">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>45.29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -28608,11 +28838,15 @@
         <v>6</v>
       </c>
       <c r="X60">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y60" s="1"/>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA60">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>358.72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -28683,11 +28917,15 @@
         <v>5</v>
       </c>
       <c r="X61">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="Y61" s="1"/>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA61">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>10.181176470588236</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -28761,8 +28999,12 @@
         <v>85</v>
       </c>
       <c r="Y62" s="1"/>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA62">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -28833,11 +29075,15 @@
         <v>11</v>
       </c>
       <c r="X63">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y63" s="1"/>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA63">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>335.68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -28911,8 +29157,12 @@
         <v>1</v>
       </c>
       <c r="Y64" s="1"/>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA64">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>81.08</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -28986,8 +29236,12 @@
         <v>7</v>
       </c>
       <c r="Y65" s="1"/>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA65">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>11.245714285714286</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -29061,8 +29315,12 @@
         <v>8</v>
       </c>
       <c r="Y66" s="1"/>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA66">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>9.4975000000000005</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -29136,8 +29394,12 @@
         <v>13</v>
       </c>
       <c r="Y67" s="1"/>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA67">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>5.6661538461538461</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -29208,11 +29470,15 @@
         <v>6</v>
       </c>
       <c r="X68">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y68" s="1"/>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA68">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>284.32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -29283,11 +29549,15 @@
         <v>9</v>
       </c>
       <c r="X69">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y69" s="1"/>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA69">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>281.83999999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -29361,8 +29631,12 @@
         <v>0</v>
       </c>
       <c r="Y70" s="1"/>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA70" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -29436,8 +29710,12 @@
         <v>12</v>
       </c>
       <c r="Y71" s="1"/>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA71">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>5.5533333333333337</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -29511,8 +29789,12 @@
         <v>16</v>
       </c>
       <c r="Y72" s="1"/>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA72">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>4.0062499999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -29586,8 +29868,12 @@
         <v>0</v>
       </c>
       <c r="Y73" s="1"/>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA73" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -29661,8 +29947,12 @@
         <v>0</v>
       </c>
       <c r="Y74" s="1"/>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA74" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -29736,8 +30026,12 @@
         <v>0</v>
       </c>
       <c r="Y75" s="1"/>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA75" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -29811,8 +30105,12 @@
         <v>0</v>
       </c>
       <c r="Y76" s="1"/>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA76" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -29886,8 +30184,12 @@
         <v>0</v>
       </c>
       <c r="Y77" s="1"/>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA77" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -29961,8 +30263,12 @@
         <v>4</v>
       </c>
       <c r="Y78" s="1"/>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA78">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>14.295</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -30036,8 +30342,12 @@
         <v>0</v>
       </c>
       <c r="Y79" s="1"/>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA79" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -30111,8 +30421,12 @@
         <v>0</v>
       </c>
       <c r="Y80" s="1"/>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA80" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -30186,8 +30500,12 @@
         <v>0</v>
       </c>
       <c r="Y81" s="1"/>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA81" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -30261,8 +30579,12 @@
         <v>0</v>
       </c>
       <c r="Y82" s="1"/>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA82" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -30336,8 +30658,12 @@
         <v>0</v>
       </c>
       <c r="Y83" s="1"/>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA83" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -30411,8 +30737,12 @@
         <v>0</v>
       </c>
       <c r="Y84" s="1"/>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA84" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -30486,8 +30816,12 @@
         <v>0</v>
       </c>
       <c r="Y85" s="1"/>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA85" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -30561,8 +30895,12 @@
         <v>1</v>
       </c>
       <c r="Y86" s="1"/>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA86">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>41.38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -30636,8 +30974,12 @@
         <v>0</v>
       </c>
       <c r="Y87" s="1"/>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA87" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -30711,8 +31053,12 @@
         <v>1</v>
       </c>
       <c r="Y88" s="1"/>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA88">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>39.46</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -30786,8 +31132,12 @@
         <v>11</v>
       </c>
       <c r="Y89" s="1"/>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA89">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>3.4763636363636365</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -30861,8 +31211,12 @@
         <v>1</v>
       </c>
       <c r="Y90" s="1"/>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA90">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -30936,8 +31290,12 @@
         <v>0</v>
       </c>
       <c r="Y91" s="1"/>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA91" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -31011,8 +31369,12 @@
         <v>0</v>
       </c>
       <c r="Y92" s="1"/>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA92" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -31086,8 +31448,12 @@
         <v>0</v>
       </c>
       <c r="Y93" s="1"/>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA93" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -31161,8 +31527,12 @@
         <v>0</v>
       </c>
       <c r="Y94" s="1"/>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA94" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -31236,8 +31606,12 @@
         <v>7</v>
       </c>
       <c r="Y95" s="1"/>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA95">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>4.4771428571428569</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -31311,8 +31685,12 @@
         <v>0</v>
       </c>
       <c r="Y96" s="1"/>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA96" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -31386,8 +31764,12 @@
         <v>0</v>
       </c>
       <c r="Y97" s="1"/>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA97" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -31461,8 +31843,12 @@
         <v>0</v>
       </c>
       <c r="Y98" s="1"/>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA98" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -31536,8 +31922,12 @@
         <v>9</v>
       </c>
       <c r="Y99" s="1"/>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA99">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>3.0844444444444448</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -31611,8 +32001,12 @@
         <v>0</v>
       </c>
       <c r="Y100" s="1"/>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA100" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -31686,8 +32080,12 @@
         <v>0</v>
       </c>
       <c r="Y101" s="1"/>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA101" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -31761,8 +32159,12 @@
         <v>0</v>
       </c>
       <c r="Y102" s="1"/>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA102" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -31836,8 +32238,12 @@
         <v>27</v>
       </c>
       <c r="Y103" s="1"/>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA103">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>0.87555555555555553</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -31911,8 +32317,12 @@
         <v>0</v>
       </c>
       <c r="Y104" s="1"/>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA104" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -31986,8 +32396,12 @@
         <v>27</v>
       </c>
       <c r="Y105" s="1"/>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA105">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>0.83851851851851855</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -32061,8 +32475,12 @@
         <v>2</v>
       </c>
       <c r="Y106" s="1"/>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA106">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>11.19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -32136,8 +32554,12 @@
         <v>0</v>
       </c>
       <c r="Y107" s="1"/>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA107" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -32211,8 +32633,12 @@
         <v>0</v>
       </c>
       <c r="Y108" s="1"/>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA108" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -32286,8 +32712,12 @@
         <v>0</v>
       </c>
       <c r="Y109" s="1"/>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA109" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -32361,8 +32791,12 @@
         <v>0</v>
       </c>
       <c r="Y110" s="1"/>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA110" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -32436,8 +32870,12 @@
         <v>0</v>
       </c>
       <c r="Y111" s="1"/>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA111" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -32511,8 +32949,12 @@
         <v>5</v>
       </c>
       <c r="Y112" s="1"/>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA112">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -32586,8 +33028,12 @@
         <v>2</v>
       </c>
       <c r="Y113" s="1"/>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA113">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -32661,8 +33107,12 @@
         <v>0</v>
       </c>
       <c r="Y114" s="1"/>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA114" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -32736,8 +33186,12 @@
         <v>0</v>
       </c>
       <c r="Y115" s="1"/>
-    </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA115" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -32811,8 +33265,12 @@
         <v>0</v>
       </c>
       <c r="Y116" s="1"/>
-    </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA116" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -32886,8 +33344,12 @@
         <v>0</v>
       </c>
       <c r="Y117" s="1"/>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA117" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -32961,8 +33423,12 @@
         <v>1</v>
       </c>
       <c r="Y118" s="1"/>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA118">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>17.98</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -33036,8 +33502,12 @@
         <v>46</v>
       </c>
       <c r="Y119" s="1"/>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA119">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>0.38913043478260867</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -33111,8 +33581,12 @@
         <v>0</v>
       </c>
       <c r="Y120" s="1"/>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA120" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -33186,8 +33660,12 @@
         <v>0</v>
       </c>
       <c r="Y121" s="1"/>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA121" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -33261,8 +33739,12 @@
         <v>0</v>
       </c>
       <c r="Y122" s="1"/>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA122" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -33336,8 +33818,12 @@
         <v>0</v>
       </c>
       <c r="Y123" s="1"/>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA123" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -33411,8 +33897,12 @@
         <v>0</v>
       </c>
       <c r="Y124" s="1"/>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA124" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -33486,8 +33976,12 @@
         <v>1</v>
       </c>
       <c r="Y125" s="1"/>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA125">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>14.44</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -33561,8 +34055,12 @@
         <v>0</v>
       </c>
       <c r="Y126" s="1"/>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA126" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -33636,8 +34134,12 @@
         <v>0</v>
       </c>
       <c r="Y127" s="1"/>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA127" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -33711,8 +34213,12 @@
         <v>0</v>
       </c>
       <c r="Y128" s="1"/>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA128" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -33786,8 +34292,12 @@
         <v>0</v>
       </c>
       <c r="Y129" s="1"/>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA129" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -33861,8 +34371,12 @@
         <v>0</v>
       </c>
       <c r="Y130" s="1"/>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA130" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -33936,8 +34450,12 @@
         <v>0</v>
       </c>
       <c r="Y131" s="1"/>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA131" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -34011,8 +34529,12 @@
         <v>0</v>
       </c>
       <c r="Y132" s="1"/>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA132" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -34086,8 +34608,12 @@
         <v>0</v>
       </c>
       <c r="Y133" s="1"/>
-    </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA133" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -34161,8 +34687,12 @@
         <v>0</v>
       </c>
       <c r="Y134" s="1"/>
-    </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA134" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -34236,8 +34766,12 @@
         <v>0</v>
       </c>
       <c r="Y135" s="1"/>
-    </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA135" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -34311,8 +34845,12 @@
         <v>0</v>
       </c>
       <c r="Y136" s="1"/>
-    </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA136" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -34386,8 +34924,12 @@
         <v>0</v>
       </c>
       <c r="Y137" s="1"/>
-    </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA137" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -34461,8 +35003,12 @@
         <v>0</v>
       </c>
       <c r="Y138" s="1"/>
-    </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA138" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -34536,8 +35082,12 @@
         <v>0</v>
       </c>
       <c r="Y139" s="1"/>
-    </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA139" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -34611,8 +35161,12 @@
         <v>0</v>
       </c>
       <c r="Y140" s="1"/>
-    </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA140" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -34686,8 +35240,12 @@
         <v>0</v>
       </c>
       <c r="Y141" s="1"/>
-    </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA141" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -34761,8 +35319,12 @@
         <v>0</v>
       </c>
       <c r="Y142" s="1"/>
-    </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA142" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -34836,8 +35398,12 @@
         <v>0</v>
       </c>
       <c r="Y143" s="1"/>
-    </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA143" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -34911,8 +35477,12 @@
         <v>0</v>
       </c>
       <c r="Y144" s="1"/>
-    </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA144" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -34986,8 +35556,12 @@
         <v>0</v>
       </c>
       <c r="Y145" s="1"/>
-    </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA145" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -35061,8 +35635,12 @@
         <v>0</v>
       </c>
       <c r="Y146" s="1"/>
-    </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA146" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -35136,8 +35714,12 @@
         <v>0</v>
       </c>
       <c r="Y147" s="1"/>
-    </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA147" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -35211,8 +35793,12 @@
         <v>0</v>
       </c>
       <c r="Y148" s="1"/>
-    </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA148" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -35286,8 +35872,12 @@
         <v>0</v>
       </c>
       <c r="Y149" s="1"/>
-    </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA149" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -35361,8 +35951,12 @@
         <v>0</v>
       </c>
       <c r="Y150" s="1"/>
-    </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA150" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -35436,8 +36030,12 @@
         <v>0</v>
       </c>
       <c r="Y151" s="1"/>
-    </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA151" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -35511,8 +36109,12 @@
         <v>0</v>
       </c>
       <c r="Y152" s="1"/>
-    </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA152" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -35586,8 +36188,12 @@
         <v>0</v>
       </c>
       <c r="Y153" s="1"/>
-    </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA153" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -35661,8 +36267,12 @@
         <v>0</v>
       </c>
       <c r="Y154" s="1"/>
-    </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA154" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -35736,8 +36346,12 @@
         <v>24</v>
       </c>
       <c r="Y155" s="1"/>
-    </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA155">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>8.1666666666666665E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -35811,8 +36425,12 @@
         <v>0</v>
       </c>
       <c r="Y156" s="1"/>
-    </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA156" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -35886,8 +36504,12 @@
         <v>0</v>
       </c>
       <c r="Y157" s="1"/>
-    </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA157" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -35961,8 +36583,12 @@
         <v>0</v>
       </c>
       <c r="Y158" s="1"/>
-    </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA158" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="159" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -36036,8 +36662,12 @@
         <v>0</v>
       </c>
       <c r="Y159" s="1"/>
-    </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA159" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="160" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -36111,8 +36741,12 @@
         <v>0</v>
       </c>
       <c r="Y160" s="1"/>
-    </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA160" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="161" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -36186,8 +36820,12 @@
         <v>0</v>
       </c>
       <c r="Y161" s="1"/>
-    </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA161" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -36261,8 +36899,12 @@
         <v>0</v>
       </c>
       <c r="Y162" s="1"/>
-    </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA162" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -36336,8 +36978,12 @@
         <v>0</v>
       </c>
       <c r="Y163" s="1"/>
-    </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA163" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -36411,8 +37057,12 @@
         <v>0</v>
       </c>
       <c r="Y164" s="1"/>
-    </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA164" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -36486,8 +37136,12 @@
         <v>0</v>
       </c>
       <c r="Y165" s="1"/>
-    </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA165" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="166" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -36561,8 +37215,12 @@
         <v>0</v>
       </c>
       <c r="Y166" s="1"/>
-    </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA166" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -36636,8 +37294,12 @@
         <v>0</v>
       </c>
       <c r="Y167" s="1"/>
-    </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA167" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -36711,8 +37373,12 @@
         <v>0</v>
       </c>
       <c r="Y168" s="1"/>
-    </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA168" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -36786,8 +37452,12 @@
         <v>0</v>
       </c>
       <c r="Y169" s="1"/>
-    </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA169" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="170" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -36861,8 +37531,12 @@
         <v>0</v>
       </c>
       <c r="Y170" s="1"/>
-    </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA170" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -36936,8 +37610,12 @@
         <v>0</v>
       </c>
       <c r="Y171" s="1"/>
-    </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA171" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="172" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -37011,8 +37689,12 @@
         <v>0</v>
       </c>
       <c r="Y172" s="1"/>
-    </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA172" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -37086,8 +37768,12 @@
         <v>0</v>
       </c>
       <c r="Y173" s="1"/>
-    </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA173" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="174" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -37161,8 +37847,12 @@
         <v>0</v>
       </c>
       <c r="Y174" s="1"/>
-    </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA174" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="175" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -37236,8 +37926,12 @@
         <v>0</v>
       </c>
       <c r="Y175" s="1"/>
-    </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA175" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="176" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -37311,8 +38005,12 @@
         <v>0</v>
       </c>
       <c r="Y176" s="1"/>
-    </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA176" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -37386,6 +38084,10 @@
         <v>0</v>
       </c>
       <c r="Y177" s="1"/>
+      <c r="AA177" t="e">
+        <f>Table_1__2[[#This Row],[Pts]]/Table_1__2[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37397,12 +38099,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B673A536-67B5-48A3-A483-84D8474FC03E}">
-  <dimension ref="A1:Y250"/>
+  <dimension ref="A1:AO250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="X8" sqref="X8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -37420,7 +38124,7 @@
     <col min="25" max="25" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -37496,8 +38200,41 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA1" t="s">
+        <v>3090</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>2358</v>
+      </c>
+      <c r="AI1">
+        <v>-3</v>
+      </c>
+      <c r="AJ1">
+        <v>-2</v>
+      </c>
+      <c r="AK1">
+        <v>-1</v>
+      </c>
+      <c r="AL1">
+        <v>0</v>
+      </c>
+      <c r="AM1">
+        <v>1</v>
+      </c>
+      <c r="AN1">
+        <v>2</v>
+      </c>
+      <c r="AO1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -37571,8 +38308,58 @@
         <v>25</v>
       </c>
       <c r="Y2" s="1"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA2">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>15.333599999999999</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="AD2">
+        <f>AVERAGE(C2:C129)</f>
+        <v>149.70601562500002</v>
+      </c>
+      <c r="AE2">
+        <f>AVERAGE(C2:C65)</f>
+        <v>215.5567187499999</v>
+      </c>
+      <c r="AF2">
+        <f>AVERAGE(C2:C33)</f>
+        <v>263.63624999999996</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>2356</v>
+      </c>
+      <c r="AI2">
+        <f>AD2-(3*AD3)</f>
+        <v>-90.760149400282671</v>
+      </c>
+      <c r="AJ2">
+        <f>AD2-(2*AD3)</f>
+        <v>-10.604761058521774</v>
+      </c>
+      <c r="AK2">
+        <f>AD2-(AD3)</f>
+        <v>69.550627283239123</v>
+      </c>
+      <c r="AL2">
+        <f>AD2</f>
+        <v>149.70601562500002</v>
+      </c>
+      <c r="AM2">
+        <f>AD2+AD3</f>
+        <v>229.86140396676092</v>
+      </c>
+      <c r="AN2">
+        <f>AD2+(2*AD3)</f>
+        <v>310.01679230852181</v>
+      </c>
+      <c r="AO2">
+        <f>AD2+(3*AD3)</f>
+        <v>390.17218065028271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -37646,8 +38433,58 @@
         <v>17</v>
       </c>
       <c r="Y3" s="1"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA3">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>21.368235294117646</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>2359</v>
+      </c>
+      <c r="AD3">
+        <f>_xlfn.STDEV.P(C2:C129)</f>
+        <v>80.155388341760897</v>
+      </c>
+      <c r="AE3">
+        <f>_xlfn.STDEV.P(C2:C65)</f>
+        <v>59.624236841413214</v>
+      </c>
+      <c r="AF3">
+        <f>_xlfn.STDEV.P(C2:C33)</f>
+        <v>44.894440757598581</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>2357</v>
+      </c>
+      <c r="AI3">
+        <f>AE2-(3*AE3)</f>
+        <v>36.684008225760266</v>
+      </c>
+      <c r="AJ3">
+        <f>AE2-(2*AE3)</f>
+        <v>96.308245067173473</v>
+      </c>
+      <c r="AK3">
+        <f>AE2-AE3</f>
+        <v>155.93248190858668</v>
+      </c>
+      <c r="AL3">
+        <f>AE2</f>
+        <v>215.5567187499999</v>
+      </c>
+      <c r="AM3">
+        <f>AE2+AE3</f>
+        <v>275.18095559141312</v>
+      </c>
+      <c r="AN3">
+        <f>AE2+(2*AE3)</f>
+        <v>334.80519243282635</v>
+      </c>
+      <c r="AO3">
+        <f>AE2+(3*AE3)</f>
+        <v>394.42942927423951</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -37721,8 +38558,58 @@
         <v>9</v>
       </c>
       <c r="Y4" s="1"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA4">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>39.700000000000003</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>2360</v>
+      </c>
+      <c r="AD4">
+        <f>_xlfn.VAR.P(C2:C129)</f>
+        <v>6424.8862802184995</v>
+      </c>
+      <c r="AE4">
+        <f>_xlfn.VAR.P(C2:C65)</f>
+        <v>3555.0496189209371</v>
+      </c>
+      <c r="AF4">
+        <f>_xlfn.VAR.P(C2:C33)</f>
+        <v>2015.5108109375287</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>2358</v>
+      </c>
+      <c r="AI4">
+        <f>AF2-(3*AF3)</f>
+        <v>128.95292772720421</v>
+      </c>
+      <c r="AJ4">
+        <f>AF2-(2*AF3)</f>
+        <v>173.84736848480281</v>
+      </c>
+      <c r="AK4">
+        <f>AF2-AF3</f>
+        <v>218.74180924240139</v>
+      </c>
+      <c r="AL4">
+        <f>AF2</f>
+        <v>263.63624999999996</v>
+      </c>
+      <c r="AM4">
+        <f>AF2+AF3</f>
+        <v>308.53069075759856</v>
+      </c>
+      <c r="AN4">
+        <f>AF2+(2*AF3)</f>
+        <v>353.42513151519711</v>
+      </c>
+      <c r="AO4">
+        <f>AF2+(3*AF3)</f>
+        <v>398.31957227279571</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -37796,8 +38683,43 @@
         <v>11</v>
       </c>
       <c r="Y5" s="1"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA5">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>28.949090909090909</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>2356</v>
+      </c>
+      <c r="AI5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AI2)</f>
+        <v>64</v>
+      </c>
+      <c r="AJ5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AJ2)</f>
+        <v>64</v>
+      </c>
+      <c r="AK5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AK2)</f>
+        <v>64</v>
+      </c>
+      <c r="AL5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AL2)</f>
+        <v>57</v>
+      </c>
+      <c r="AM5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AM2)</f>
+        <v>24</v>
+      </c>
+      <c r="AN5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AN2)</f>
+        <v>6</v>
+      </c>
+      <c r="AO5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AO2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -37871,8 +38793,43 @@
         <v>19</v>
       </c>
       <c r="Y6" s="1"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA6">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>16.464210526315789</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>2357</v>
+      </c>
+      <c r="AI6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AI3)</f>
+        <v>32</v>
+      </c>
+      <c r="AJ6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AJ3)</f>
+        <v>32</v>
+      </c>
+      <c r="AK6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AK3)</f>
+        <v>32</v>
+      </c>
+      <c r="AL6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AL3)</f>
+        <v>29</v>
+      </c>
+      <c r="AM6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AM3)</f>
+        <v>9</v>
+      </c>
+      <c r="AN6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AN3)</f>
+        <v>3</v>
+      </c>
+      <c r="AO6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AO3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -37943,11 +38900,46 @@
         <v>7</v>
       </c>
       <c r="X7">
-        <v>33</v>
+        <v>0.75</v>
       </c>
       <c r="Y7" s="1"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA7">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>413.73333333333335</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>2358</v>
+      </c>
+      <c r="AI7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AI4)</f>
+        <v>16</v>
+      </c>
+      <c r="AJ7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AJ4)</f>
+        <v>16</v>
+      </c>
+      <c r="AK7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AK4)</f>
+        <v>16</v>
+      </c>
+      <c r="AL7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AL4)</f>
+        <v>12</v>
+      </c>
+      <c r="AM7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AM4)</f>
+        <v>6</v>
+      </c>
+      <c r="AN7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AN4)</f>
+        <v>3</v>
+      </c>
+      <c r="AO7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AO4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -38021,8 +39013,12 @@
         <v>7</v>
       </c>
       <c r="Y8" s="1"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA8">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>43.997142857142862</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -38096,8 +39092,12 @@
         <v>8</v>
       </c>
       <c r="Y9" s="1"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA9">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>35.875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -38171,8 +39171,12 @@
         <v>7</v>
       </c>
       <c r="Y10" s="1"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA10">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>39.519999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -38246,8 +39250,12 @@
         <v>15</v>
       </c>
       <c r="Y11" s="1"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA11">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>18.263999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -38321,8 +39329,12 @@
         <v>8</v>
       </c>
       <c r="Y12" s="1"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA12">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>33.975000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -38396,8 +39408,12 @@
         <v>9</v>
       </c>
       <c r="Y13" s="1"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA13">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>29.888888888888889</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -38471,8 +39487,12 @@
         <v>4</v>
       </c>
       <c r="Y14" s="1"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA14">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>65.125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -38546,8 +39566,12 @@
         <v>11</v>
       </c>
       <c r="Y15" s="1"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA15">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>23.476363636363637</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -38621,8 +39645,12 @@
         <v>7</v>
       </c>
       <c r="Y16" s="1"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA16">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>36.094285714285711</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -38696,8 +39724,12 @@
         <v>9</v>
       </c>
       <c r="Y17" s="1"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA17">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>27.997777777777777</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -38771,8 +39803,12 @@
         <v>2</v>
       </c>
       <c r="Y18" s="1"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA18">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>125.66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -38846,8 +39882,12 @@
         <v>1</v>
       </c>
       <c r="Y19" s="1"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA19">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>248.48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -38921,8 +39961,12 @@
         <v>5</v>
       </c>
       <c r="Y20" s="1"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA20">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>49.516000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -38996,8 +40040,12 @@
         <v>0</v>
       </c>
       <c r="Y21" s="1"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA21" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -39071,8 +40119,12 @@
         <v>0</v>
       </c>
       <c r="Y22" s="1"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA22" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -39146,8 +40198,12 @@
         <v>10</v>
       </c>
       <c r="Y23" s="1"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA23">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>23.527999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -39221,8 +40277,12 @@
         <v>9</v>
       </c>
       <c r="Y24" s="1"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA24">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>26.051111111111112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -39296,8 +40356,12 @@
         <v>1</v>
       </c>
       <c r="Y25" s="1"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA25">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>232.64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -39371,8 +40435,12 @@
         <v>1</v>
       </c>
       <c r="Y26" s="1"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA26">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>228.76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -39446,8 +40514,12 @@
         <v>19</v>
       </c>
       <c r="Y27" s="1"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA27">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>11.932631578947369</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -39521,8 +40593,12 @@
         <v>7</v>
       </c>
       <c r="Y28" s="1"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA28">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>31.934285714285714</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -39596,8 +40672,12 @@
         <v>0</v>
       </c>
       <c r="Y29" s="1"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA29" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -39671,8 +40751,12 @@
         <v>17</v>
       </c>
       <c r="Y30" s="1"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA30">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>12.710588235294118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -39746,8 +40830,12 @@
         <v>1</v>
       </c>
       <c r="Y31" s="1"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA31">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>215.36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -39821,8 +40909,12 @@
         <v>4</v>
       </c>
       <c r="Y32" s="1"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA32">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>53.81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -39896,8 +40988,12 @@
         <v>5</v>
       </c>
       <c r="Y33" s="1"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA33">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>41.62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -39971,8 +41067,12 @@
         <v>13</v>
       </c>
       <c r="Y34" s="1"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA34">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>15.915384615384616</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -40046,8 +41146,12 @@
         <v>25</v>
       </c>
       <c r="Y35" s="1"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA35">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>8.0991999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -40121,8 +41225,12 @@
         <v>4</v>
       </c>
       <c r="Y36" s="1"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA36">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>50.465000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -40196,8 +41304,12 @@
         <v>3</v>
       </c>
       <c r="Y37" s="1"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA37">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>66.74666666666667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -40271,8 +41383,12 @@
         <v>0</v>
       </c>
       <c r="Y38" s="1"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA38" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -40346,8 +41462,12 @@
         <v>0</v>
       </c>
       <c r="Y39" s="1"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA39" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -40421,8 +41541,12 @@
         <v>0</v>
       </c>
       <c r="Y40" s="1"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA40" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -40496,8 +41620,12 @@
         <v>1</v>
       </c>
       <c r="Y41" s="1"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA41">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>180.92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -40571,8 +41699,12 @@
         <v>1</v>
       </c>
       <c r="Y42" s="1"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA42">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>180.38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -40646,8 +41778,12 @@
         <v>20</v>
       </c>
       <c r="Y43" s="1"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA43">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>9.0109999999999992</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -40721,8 +41857,12 @@
         <v>3</v>
       </c>
       <c r="Y44" s="1"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA44">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>59.32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -40796,8 +41936,12 @@
         <v>0</v>
       </c>
       <c r="Y45" s="1"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA45" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -40871,8 +42015,12 @@
         <v>3</v>
       </c>
       <c r="Y46" s="1"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA46">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>58.653333333333336</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -40946,8 +42094,12 @@
         <v>7</v>
       </c>
       <c r="Y47" s="1"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA47">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>24.208571428571428</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -41021,8 +42173,12 @@
         <v>1</v>
       </c>
       <c r="Y48" s="1"/>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA48">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>168.46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -41096,8 +42252,12 @@
         <v>17</v>
       </c>
       <c r="Y49" s="1"/>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA49">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>9.8152941176470598</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -41171,8 +42331,12 @@
         <v>8</v>
       </c>
       <c r="Y50" s="1"/>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA50">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>20.737500000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -41246,8 +42410,12 @@
         <v>0</v>
       </c>
       <c r="Y51" s="1"/>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA51" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -41321,8 +42489,12 @@
         <v>2</v>
       </c>
       <c r="Y52" s="1"/>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA52">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>80.63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -41396,8 +42568,12 @@
         <v>1</v>
       </c>
       <c r="Y53" s="1"/>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA53">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>160.52000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -41471,8 +42647,12 @@
         <v>1</v>
       </c>
       <c r="Y54" s="1"/>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA54">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>160.38999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -41546,8 +42726,12 @@
         <v>0</v>
       </c>
       <c r="Y55" s="1"/>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA55" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -41621,8 +42805,12 @@
         <v>0</v>
       </c>
       <c r="Y56" s="1"/>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA56" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -41696,8 +42884,12 @@
         <v>0</v>
       </c>
       <c r="Y57" s="1"/>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA57" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -41771,8 +42963,12 @@
         <v>7</v>
       </c>
       <c r="Y58" s="1"/>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA58">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>21.748571428571431</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -41846,8 +43042,12 @@
         <v>0</v>
       </c>
       <c r="Y59" s="1"/>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA59" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -41921,8 +43121,12 @@
         <v>0</v>
       </c>
       <c r="Y60" s="1"/>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA60" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -41996,8 +43200,12 @@
         <v>0</v>
       </c>
       <c r="Y61" s="1"/>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA61" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -42071,8 +43279,12 @@
         <v>0</v>
       </c>
       <c r="Y62" s="1"/>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA62" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -42146,8 +43358,12 @@
         <v>0</v>
       </c>
       <c r="Y63" s="1"/>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA63" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -42221,8 +43437,12 @@
         <v>1</v>
       </c>
       <c r="Y64" s="1"/>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA64">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>131.24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -42296,8 +43516,12 @@
         <v>0</v>
       </c>
       <c r="Y65" s="1"/>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA65" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -42371,8 +43595,12 @@
         <v>0</v>
       </c>
       <c r="Y66" s="1"/>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA66" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -42446,8 +43674,12 @@
         <v>0</v>
       </c>
       <c r="Y67" s="1"/>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA67" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -42521,8 +43753,12 @@
         <v>12</v>
       </c>
       <c r="Y68" s="1"/>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA68">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>10.315</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -42596,8 +43832,12 @@
         <v>0</v>
       </c>
       <c r="Y69" s="1"/>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA69" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -42671,8 +43911,12 @@
         <v>0</v>
       </c>
       <c r="Y70" s="1"/>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA70" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -42746,8 +43990,12 @@
         <v>0</v>
       </c>
       <c r="Y71" s="1"/>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA71" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -42821,8 +44069,12 @@
         <v>0</v>
       </c>
       <c r="Y72" s="1"/>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA72" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -42896,8 +44148,12 @@
         <v>0</v>
       </c>
       <c r="Y73" s="1"/>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA73" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -42971,8 +44227,12 @@
         <v>0</v>
       </c>
       <c r="Y74" s="1"/>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA74" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -43046,8 +44306,12 @@
         <v>0</v>
       </c>
       <c r="Y75" s="1"/>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA75" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -43121,8 +44385,12 @@
         <v>0</v>
       </c>
       <c r="Y76" s="1"/>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA76" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -43196,8 +44464,12 @@
         <v>1</v>
       </c>
       <c r="Y77" s="1"/>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA77">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>109.38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -43271,8 +44543,12 @@
         <v>0</v>
       </c>
       <c r="Y78" s="1"/>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA78" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -43346,8 +44622,12 @@
         <v>0</v>
       </c>
       <c r="Y79" s="1"/>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA79" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -43421,8 +44701,12 @@
         <v>10</v>
       </c>
       <c r="Y80" s="1"/>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA80">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>10.772</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -43496,8 +44780,12 @@
         <v>0</v>
       </c>
       <c r="Y81" s="1"/>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA81" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -43571,8 +44859,12 @@
         <v>1</v>
       </c>
       <c r="Y82" s="1"/>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA82">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>105.36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -43646,8 +44938,12 @@
         <v>0</v>
       </c>
       <c r="Y83" s="1"/>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA83" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -43721,8 +45017,12 @@
         <v>0</v>
       </c>
       <c r="Y84" s="1"/>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA84" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -43796,8 +45096,12 @@
         <v>0</v>
       </c>
       <c r="Y85" s="1"/>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA85" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -43871,8 +45175,12 @@
         <v>0</v>
       </c>
       <c r="Y86" s="1"/>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA86" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -43946,8 +45254,12 @@
         <v>0</v>
       </c>
       <c r="Y87" s="1"/>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA87" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -44021,8 +45333,12 @@
         <v>0</v>
       </c>
       <c r="Y88" s="1"/>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA88" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -44096,8 +45412,12 @@
         <v>0</v>
       </c>
       <c r="Y89" s="1"/>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA89" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -44171,8 +45491,12 @@
         <v>0</v>
       </c>
       <c r="Y90" s="1"/>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA90" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -44246,8 +45570,12 @@
         <v>0</v>
       </c>
       <c r="Y91" s="1"/>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA91" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -44321,8 +45649,12 @@
         <v>0</v>
       </c>
       <c r="Y92" s="1"/>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA92" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -44396,8 +45728,12 @@
         <v>0</v>
       </c>
       <c r="Y93" s="1"/>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA93" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -44471,8 +45807,12 @@
         <v>0</v>
       </c>
       <c r="Y94" s="1"/>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA94" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -44546,8 +45886,12 @@
         <v>29</v>
       </c>
       <c r="Y95" s="1"/>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA95">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>3.1131034482758619</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -44621,8 +45965,12 @@
         <v>1</v>
       </c>
       <c r="Y96" s="1"/>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA96">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -44696,8 +46044,12 @@
         <v>3</v>
       </c>
       <c r="Y97" s="1"/>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA97">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>29.486666666666665</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -44771,8 +46123,12 @@
         <v>0</v>
       </c>
       <c r="Y98" s="1"/>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA98" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -44846,8 +46202,12 @@
         <v>6</v>
       </c>
       <c r="Y99" s="1"/>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA99">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>13.513333333333334</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -44921,8 +46281,12 @@
         <v>0</v>
       </c>
       <c r="Y100" s="1"/>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA100" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -44996,8 +46360,12 @@
         <v>0</v>
       </c>
       <c r="Y101" s="1"/>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA101" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -45071,8 +46439,12 @@
         <v>0</v>
       </c>
       <c r="Y102" s="1"/>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA102" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -45146,8 +46518,12 @@
         <v>15</v>
       </c>
       <c r="Y103" s="1"/>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA103">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>5.0720000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -45221,8 +46597,12 @@
         <v>0</v>
       </c>
       <c r="Y104" s="1"/>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA104" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -45296,8 +46676,12 @@
         <v>3</v>
       </c>
       <c r="Y105" s="1"/>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA105">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>23.459999999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -45371,8 +46755,12 @@
         <v>0</v>
       </c>
       <c r="Y106" s="1"/>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA106" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -45446,8 +46834,12 @@
         <v>0</v>
       </c>
       <c r="Y107" s="1"/>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA107" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -45521,8 +46913,12 @@
         <v>0</v>
       </c>
       <c r="Y108" s="1"/>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA108" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -45596,8 +46992,12 @@
         <v>0</v>
       </c>
       <c r="Y109" s="1"/>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA109" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -45671,8 +47071,12 @@
         <v>0</v>
       </c>
       <c r="Y110" s="1"/>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA110" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -45746,8 +47150,12 @@
         <v>3</v>
       </c>
       <c r="Y111" s="1"/>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA111">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>21.733333333333334</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -45821,8 +47229,12 @@
         <v>0</v>
       </c>
       <c r="Y112" s="1"/>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA112" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -45896,8 +47308,12 @@
         <v>0</v>
       </c>
       <c r="Y113" s="1"/>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA113" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -45971,8 +47387,12 @@
         <v>0</v>
       </c>
       <c r="Y114" s="1"/>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA114" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -46046,8 +47466,12 @@
         <v>0</v>
       </c>
       <c r="Y115" s="1"/>
-    </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA115" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -46121,8 +47545,12 @@
         <v>0</v>
       </c>
       <c r="Y116" s="1"/>
-    </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA116" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -46196,8 +47624,12 @@
         <v>0</v>
       </c>
       <c r="Y117" s="1"/>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA117" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -46271,8 +47703,12 @@
         <v>0</v>
       </c>
       <c r="Y118" s="1"/>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA118" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -46346,8 +47782,12 @@
         <v>0</v>
       </c>
       <c r="Y119" s="1"/>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA119" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -46421,8 +47861,12 @@
         <v>0</v>
       </c>
       <c r="Y120" s="1"/>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA120" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -46496,8 +47940,12 @@
         <v>0</v>
       </c>
       <c r="Y121" s="1"/>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA121" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -46571,8 +48019,12 @@
         <v>0</v>
       </c>
       <c r="Y122" s="1"/>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA122" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -46646,8 +48098,12 @@
         <v>0</v>
       </c>
       <c r="Y123" s="1"/>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA123" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -46721,8 +48177,12 @@
         <v>0</v>
       </c>
       <c r="Y124" s="1"/>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA124" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -46796,8 +48256,12 @@
         <v>0</v>
       </c>
       <c r="Y125" s="1"/>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA125" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -46871,8 +48335,12 @@
         <v>0</v>
       </c>
       <c r="Y126" s="1"/>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA126" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -46946,8 +48414,12 @@
         <v>1</v>
       </c>
       <c r="Y127" s="1"/>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA127">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>45.82</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -47021,8 +48493,12 @@
         <v>1</v>
       </c>
       <c r="Y128" s="1"/>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA128">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>45.08</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -47096,8 +48572,12 @@
         <v>0</v>
       </c>
       <c r="Y129" s="1"/>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA129" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -47171,8 +48651,12 @@
         <v>0</v>
       </c>
       <c r="Y130" s="1"/>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA130" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -47246,8 +48730,12 @@
         <v>0</v>
       </c>
       <c r="Y131" s="1"/>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA131" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -47321,8 +48809,12 @@
         <v>0</v>
       </c>
       <c r="Y132" s="1"/>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA132" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -47396,8 +48888,12 @@
         <v>6</v>
       </c>
       <c r="Y133" s="1"/>
-    </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA133">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>6.5150000000000006</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -47471,8 +48967,12 @@
         <v>0</v>
       </c>
       <c r="Y134" s="1"/>
-    </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA134" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -47546,8 +49046,12 @@
         <v>0</v>
       </c>
       <c r="Y135" s="1"/>
-    </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA135" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -47621,8 +49125,12 @@
         <v>0</v>
       </c>
       <c r="Y136" s="1"/>
-    </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA136" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -47696,8 +49204,12 @@
         <v>2</v>
       </c>
       <c r="Y137" s="1"/>
-    </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA137">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>17.27</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -47771,8 +49283,12 @@
         <v>0</v>
       </c>
       <c r="Y138" s="1"/>
-    </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA138" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -47846,8 +49362,12 @@
         <v>0</v>
       </c>
       <c r="Y139" s="1"/>
-    </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA139" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -47921,8 +49441,12 @@
         <v>0</v>
       </c>
       <c r="Y140" s="1"/>
-    </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA140" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -47996,8 +49520,12 @@
         <v>0</v>
       </c>
       <c r="Y141" s="1"/>
-    </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA141" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -48071,8 +49599,12 @@
         <v>0</v>
       </c>
       <c r="Y142" s="1"/>
-    </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA142" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -48146,8 +49678,12 @@
         <v>0</v>
       </c>
       <c r="Y143" s="1"/>
-    </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA143" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -48221,8 +49757,12 @@
         <v>0</v>
       </c>
       <c r="Y144" s="1"/>
-    </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA144" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -48296,8 +49836,12 @@
         <v>0</v>
       </c>
       <c r="Y145" s="1"/>
-    </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA145" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -48371,8 +49915,12 @@
         <v>0</v>
       </c>
       <c r="Y146" s="1"/>
-    </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA146" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -48446,8 +49994,12 @@
         <v>0</v>
       </c>
       <c r="Y147" s="1"/>
-    </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA147" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -48521,8 +50073,12 @@
         <v>0</v>
       </c>
       <c r="Y148" s="1"/>
-    </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA148" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -48596,8 +50152,12 @@
         <v>0</v>
       </c>
       <c r="Y149" s="1"/>
-    </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA149" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -48671,8 +50231,12 @@
         <v>0</v>
       </c>
       <c r="Y150" s="1"/>
-    </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA150" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -48746,8 +50310,12 @@
         <v>1</v>
       </c>
       <c r="Y151" s="1"/>
-    </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA151">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>27.04</v>
+      </c>
+    </row>
+    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -48821,8 +50389,12 @@
         <v>0</v>
       </c>
       <c r="Y152" s="1"/>
-    </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA152" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -48896,8 +50468,12 @@
         <v>0</v>
       </c>
       <c r="Y153" s="1"/>
-    </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA153" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -48971,8 +50547,12 @@
         <v>0</v>
       </c>
       <c r="Y154" s="1"/>
-    </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA154" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -49046,8 +50626,12 @@
         <v>0</v>
       </c>
       <c r="Y155" s="1"/>
-    </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA155" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -49121,8 +50705,12 @@
         <v>0</v>
       </c>
       <c r="Y156" s="1"/>
-    </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA156" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -49196,8 +50784,12 @@
         <v>0</v>
       </c>
       <c r="Y157" s="1"/>
-    </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA157" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -49271,8 +50863,12 @@
         <v>0</v>
       </c>
       <c r="Y158" s="1"/>
-    </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA158" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="159" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -49346,8 +50942,12 @@
         <v>0</v>
       </c>
       <c r="Y159" s="1"/>
-    </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA159" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="160" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -49421,8 +51021,12 @@
         <v>0</v>
       </c>
       <c r="Y160" s="1"/>
-    </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA160" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="161" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -49496,8 +51100,12 @@
         <v>0</v>
       </c>
       <c r="Y161" s="1"/>
-    </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA161" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -49571,8 +51179,12 @@
         <v>0</v>
       </c>
       <c r="Y162" s="1"/>
-    </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA162" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -49646,8 +51258,12 @@
         <v>0</v>
       </c>
       <c r="Y163" s="1"/>
-    </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA163" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -49721,8 +51337,12 @@
         <v>0</v>
       </c>
       <c r="Y164" s="1"/>
-    </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA164" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -49796,8 +51416,12 @@
         <v>0</v>
       </c>
       <c r="Y165" s="1"/>
-    </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA165" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="166" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -49871,8 +51495,12 @@
         <v>0</v>
       </c>
       <c r="Y166" s="1"/>
-    </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA166" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -49946,8 +51574,12 @@
         <v>0</v>
       </c>
       <c r="Y167" s="1"/>
-    </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA167" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -50021,8 +51653,12 @@
         <v>0</v>
       </c>
       <c r="Y168" s="1"/>
-    </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA168" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -50096,8 +51732,12 @@
         <v>0</v>
       </c>
       <c r="Y169" s="1"/>
-    </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA169" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="170" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -50171,8 +51811,12 @@
         <v>0</v>
       </c>
       <c r="Y170" s="1"/>
-    </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA170" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -50246,8 +51890,12 @@
         <v>0</v>
       </c>
       <c r="Y171" s="1"/>
-    </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA171" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="172" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -50321,8 +51969,12 @@
         <v>0</v>
       </c>
       <c r="Y172" s="1"/>
-    </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA172" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -50396,8 +52048,12 @@
         <v>0</v>
       </c>
       <c r="Y173" s="1"/>
-    </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA173" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="174" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -50471,8 +52127,12 @@
         <v>0</v>
       </c>
       <c r="Y174" s="1"/>
-    </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA174" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="175" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -50546,8 +52206,12 @@
         <v>0</v>
       </c>
       <c r="Y175" s="1"/>
-    </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA175" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="176" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -50621,8 +52285,12 @@
         <v>0</v>
       </c>
       <c r="Y176" s="1"/>
-    </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA176" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -50696,8 +52364,12 @@
         <v>0</v>
       </c>
       <c r="Y177" s="1"/>
-    </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA177" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -50771,8 +52443,12 @@
         <v>0</v>
       </c>
       <c r="Y178" s="1"/>
-    </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA178" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="179" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -50846,8 +52522,12 @@
         <v>0</v>
       </c>
       <c r="Y179" s="1"/>
-    </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA179" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -50921,8 +52601,12 @@
         <v>0</v>
       </c>
       <c r="Y180" s="1"/>
-    </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA180" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="181" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -50996,8 +52680,12 @@
         <v>0</v>
       </c>
       <c r="Y181" s="1"/>
-    </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA181" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="182" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -51071,8 +52759,12 @@
         <v>0</v>
       </c>
       <c r="Y182" s="1"/>
-    </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA182" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="183" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -51146,8 +52838,12 @@
         <v>0</v>
       </c>
       <c r="Y183" s="1"/>
-    </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA183" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="184" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -51221,8 +52917,12 @@
         <v>0</v>
       </c>
       <c r="Y184" s="1"/>
-    </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA184" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="185" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -51296,8 +52996,12 @@
         <v>0</v>
       </c>
       <c r="Y185" s="1"/>
-    </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA185" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="186" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -51371,8 +53075,12 @@
         <v>0</v>
       </c>
       <c r="Y186" s="1"/>
-    </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA186" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="187" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -51446,8 +53154,12 @@
         <v>0</v>
       </c>
       <c r="Y187" s="1"/>
-    </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA187" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="188" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -51521,8 +53233,12 @@
         <v>0</v>
       </c>
       <c r="Y188" s="1"/>
-    </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA188" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="189" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -51596,8 +53312,12 @@
         <v>0</v>
       </c>
       <c r="Y189" s="1"/>
-    </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA189" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="190" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -51671,8 +53391,12 @@
         <v>0</v>
       </c>
       <c r="Y190" s="1"/>
-    </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA190" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="191" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -51746,8 +53470,12 @@
         <v>10</v>
       </c>
       <c r="Y191" s="1"/>
-    </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA191">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>0.72399999999999998</v>
+      </c>
+    </row>
+    <row r="192" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -51821,8 +53549,12 @@
         <v>0</v>
       </c>
       <c r="Y192" s="1"/>
-    </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA192" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -51896,8 +53628,12 @@
         <v>0</v>
       </c>
       <c r="Y193" s="1"/>
-    </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA193" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="194" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -51971,8 +53707,12 @@
         <v>1</v>
       </c>
       <c r="Y194" s="1"/>
-    </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA194">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>6.92</v>
+      </c>
+    </row>
+    <row r="195" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -52046,8 +53786,12 @@
         <v>0</v>
       </c>
       <c r="Y195" s="1"/>
-    </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA195" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="196" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -52121,8 +53865,12 @@
         <v>0</v>
       </c>
       <c r="Y196" s="1"/>
-    </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA196" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="197" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -52196,8 +53944,12 @@
         <v>0</v>
       </c>
       <c r="Y197" s="1"/>
-    </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA197" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="198" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -52271,8 +54023,12 @@
         <v>0</v>
       </c>
       <c r="Y198" s="1"/>
-    </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA198" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="199" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -52346,8 +54102,12 @@
         <v>0</v>
       </c>
       <c r="Y199" s="1"/>
-    </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA199" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="200" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -52421,8 +54181,12 @@
         <v>0</v>
       </c>
       <c r="Y200" s="1"/>
-    </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA200" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="201" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -52496,8 +54260,12 @@
         <v>0</v>
       </c>
       <c r="Y201" s="1"/>
-    </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA201" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="202" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -52571,8 +54339,12 @@
         <v>12</v>
       </c>
       <c r="Y202" s="1"/>
-    </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA202">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="203" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -52646,8 +54418,12 @@
         <v>0</v>
       </c>
       <c r="Y203" s="1"/>
-    </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA203" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="204" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -52721,8 +54497,12 @@
         <v>0</v>
       </c>
       <c r="Y204" s="1"/>
-    </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA204" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="205" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -52796,8 +54576,12 @@
         <v>0</v>
       </c>
       <c r="Y205" s="1"/>
-    </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA205" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="206" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -52871,8 +54655,12 @@
         <v>0</v>
       </c>
       <c r="Y206" s="1"/>
-    </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA206" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="207" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -52946,8 +54734,12 @@
         <v>0</v>
       </c>
       <c r="Y207" s="1"/>
-    </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA207" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="208" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -53021,8 +54813,12 @@
         <v>0</v>
       </c>
       <c r="Y208" s="1"/>
-    </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA208" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="209" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -53096,8 +54892,12 @@
         <v>0</v>
       </c>
       <c r="Y209" s="1"/>
-    </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA209" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="210" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -53171,8 +54971,12 @@
         <v>0</v>
       </c>
       <c r="Y210" s="1"/>
-    </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA210" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="211" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -53246,8 +55050,12 @@
         <v>0</v>
       </c>
       <c r="Y211" s="1"/>
-    </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA211" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="212" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -53321,8 +55129,12 @@
         <v>0</v>
       </c>
       <c r="Y212" s="1"/>
-    </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA212" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="213" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -53396,8 +55208,12 @@
         <v>0</v>
       </c>
       <c r="Y213" s="1"/>
-    </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA213" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="214" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -53471,8 +55287,12 @@
         <v>0</v>
       </c>
       <c r="Y214" s="1"/>
-    </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA214" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="215" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -53546,8 +55366,12 @@
         <v>0</v>
       </c>
       <c r="Y215" s="1"/>
-    </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA215" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="216" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -53621,8 +55445,12 @@
         <v>0</v>
       </c>
       <c r="Y216" s="1"/>
-    </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA216" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="217" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -53696,8 +55524,12 @@
         <v>0</v>
       </c>
       <c r="Y217" s="1"/>
-    </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA217" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="218" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -53771,8 +55603,12 @@
         <v>1</v>
       </c>
       <c r="Y218" s="1"/>
-    </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA218">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -53846,8 +55682,12 @@
         <v>0</v>
       </c>
       <c r="Y219" s="1"/>
-    </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA219" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="220" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -53921,8 +55761,12 @@
         <v>0</v>
       </c>
       <c r="Y220" s="1"/>
-    </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA220" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="221" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -53996,8 +55840,12 @@
         <v>0</v>
       </c>
       <c r="Y221" s="1"/>
-    </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA221" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="222" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -54071,8 +55919,12 @@
         <v>0</v>
       </c>
       <c r="Y222" s="1"/>
-    </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA222" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="223" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -54143,8 +55995,12 @@
         <v>0</v>
       </c>
       <c r="Y223" s="1"/>
-    </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA223" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="224" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -54218,8 +56074,12 @@
         <v>0</v>
       </c>
       <c r="Y224" s="1"/>
-    </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA224" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="225" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -54293,8 +56153,12 @@
         <v>0</v>
       </c>
       <c r="Y225" s="1"/>
-    </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA225" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="226" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -54368,8 +56232,12 @@
         <v>0</v>
       </c>
       <c r="Y226" s="1"/>
-    </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA226" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="227" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -54443,8 +56311,12 @@
         <v>0</v>
       </c>
       <c r="Y227" s="1"/>
-    </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA227" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="228" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -54518,8 +56390,12 @@
         <v>0</v>
       </c>
       <c r="Y228" s="1"/>
-    </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA228" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="229" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -54593,8 +56469,12 @@
         <v>0</v>
       </c>
       <c r="Y229" s="1"/>
-    </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA229" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="230" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -54668,8 +56548,12 @@
         <v>0</v>
       </c>
       <c r="Y230" s="1"/>
-    </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA230" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="231" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -54743,8 +56627,12 @@
         <v>0</v>
       </c>
       <c r="Y231" s="1"/>
-    </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA231" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="232" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -54818,8 +56706,12 @@
         <v>0</v>
       </c>
       <c r="Y232" s="1"/>
-    </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA232" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="233" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -54893,8 +56785,12 @@
         <v>0</v>
       </c>
       <c r="Y233" s="1"/>
-    </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA233" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="234" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -54968,8 +56864,12 @@
         <v>0</v>
       </c>
       <c r="Y234" s="1"/>
-    </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA234" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="235" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -55043,8 +56943,12 @@
         <v>1</v>
       </c>
       <c r="Y235" s="1"/>
-    </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA235">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -55118,8 +57022,12 @@
         <v>0</v>
       </c>
       <c r="Y236" s="1"/>
-    </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA236" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="237" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -55193,8 +57101,12 @@
         <v>0</v>
       </c>
       <c r="Y237" s="1"/>
-    </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA237" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="238" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -55268,8 +57180,12 @@
         <v>0</v>
       </c>
       <c r="Y238" s="1"/>
-    </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA238" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="239" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -55343,8 +57259,12 @@
         <v>0</v>
       </c>
       <c r="Y239" s="1"/>
-    </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA239" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="240" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -55418,8 +57338,12 @@
         <v>0</v>
       </c>
       <c r="Y240" s="1"/>
-    </row>
-    <row r="241" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA240" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="241" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -55493,8 +57417,12 @@
         <v>0</v>
       </c>
       <c r="Y241" s="1"/>
-    </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA241" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="242" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -55568,8 +57496,12 @@
         <v>0</v>
       </c>
       <c r="Y242" s="1"/>
-    </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA242" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="243" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -55643,8 +57575,12 @@
         <v>0</v>
       </c>
       <c r="Y243" s="1"/>
-    </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA243" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="244" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -55718,8 +57654,12 @@
         <v>0</v>
       </c>
       <c r="Y244" s="1"/>
-    </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA244" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="245" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -55793,8 +57733,12 @@
         <v>0</v>
       </c>
       <c r="Y245" s="1"/>
-    </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA245" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="246" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -55868,8 +57812,12 @@
         <v>0</v>
       </c>
       <c r="Y246" s="1"/>
-    </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA246" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="247" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -55943,8 +57891,12 @@
         <v>0</v>
       </c>
       <c r="Y247" s="1"/>
-    </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA247" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="248" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -56018,8 +57970,12 @@
         <v>0</v>
       </c>
       <c r="Y248" s="1"/>
-    </row>
-    <row r="249" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA248" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="249" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -56093,8 +58049,12 @@
         <v>0</v>
       </c>
       <c r="Y249" s="1"/>
-    </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA249" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="250" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -56168,6 +58128,10 @@
         <v>0</v>
       </c>
       <c r="Y250" s="1"/>
+      <c r="AA250" t="e">
+        <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2020_prflplayers.xlsx
+++ b/2020_prflplayers.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LCD\GIT\prfl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GIT\prfl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C801BF51-576B-4FE7-815B-5586E713CE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854F632A-D5F6-46C6-A2C7-7DCFBFB86E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{BA228D13-2244-495E-B498-5A53B12CE2AB}"/>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{68C4CD1C-F6FC-42D1-9C86-4B42BFFB4529}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{BA228D13-2244-495E-B498-5A53B12CE2AB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{68C4CD1C-F6FC-42D1-9C86-4B42BFFB4529}"/>
   </bookViews>
   <sheets>
     <sheet name="QB" sheetId="2" r:id="rId1"/>
@@ -41,6 +41,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -82,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8007" uniqueCount="3091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8081" uniqueCount="3093">
   <si>
     <t>#</t>
   </si>
@@ -9355,6 +9364,12 @@
   </si>
   <si>
     <t>Points Per Dollar</t>
+  </si>
+  <si>
+    <t>Price per Dollar</t>
+  </si>
+  <si>
+    <t>Points per dollar</t>
   </si>
 </sst>
 </file>
@@ -10692,8 +10707,8 @@
     <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="AC1" sqref="AC1:AO7"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView topLeftCell="P1" workbookViewId="1">
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17709,9 +17724,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681680E9-D1B5-42D3-A896-083F116750FE}">
   <dimension ref="A1:E358"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView topLeftCell="A284" workbookViewId="1">
-      <selection activeCell="D303" sqref="D303"/>
+    <sheetView topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="E334" sqref="E334"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23821,11 +23838,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C297E5C-7BCB-43E5-8EC6-AD86F7EBD60A}">
   <dimension ref="A1:AO177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
     <sheetView topLeftCell="J1" workbookViewId="1">
-      <selection activeCell="AC1" sqref="AC1:AO7"/>
+      <selection activeCell="AI19" sqref="AI19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38101,11 +38118,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B673A536-67B5-48A3-A483-84D8474FC03E}">
   <dimension ref="A1:AO250"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="X60" sqref="X60"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView topLeftCell="I1" workbookViewId="1">
+      <selection activeCell="X40" sqref="X40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40037,12 +40054,12 @@
         <v>13</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y21" s="1"/>
-      <c r="AA21" t="e">
+      <c r="AA21">
         <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
-        <v>#DIV/0!</v>
+        <v>483.52</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
@@ -40116,12 +40133,12 @@
         <v>4</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y22" s="1"/>
-      <c r="AA22" t="e">
+      <c r="AA22">
         <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
-        <v>#DIV/0!</v>
+        <v>475.76</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
@@ -40669,12 +40686,12 @@
         <v>4</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y29" s="1"/>
-      <c r="AA29" t="e">
+      <c r="AA29">
         <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
-        <v>#DIV/0!</v>
+        <v>435.88</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
@@ -41380,12 +41397,12 @@
         <v>10</v>
       </c>
       <c r="X38">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y38" s="1"/>
-      <c r="AA38" t="e">
+      <c r="AA38">
         <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
-        <v>#DIV/0!</v>
+        <v>777.64</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
@@ -41459,12 +41476,12 @@
         <v>10</v>
       </c>
       <c r="X39">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Y39" s="1"/>
-      <c r="AA39" t="e">
+      <c r="AA39">
         <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
-        <v>#DIV/0!</v>
+        <v>86.391111111111115</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
@@ -41538,12 +41555,12 @@
         <v>10</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y40" s="1"/>
-      <c r="AA40" t="e">
+      <c r="AA40">
         <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
-        <v>#DIV/0!</v>
+        <v>747.96</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
@@ -41933,12 +41950,12 @@
         <v>6</v>
       </c>
       <c r="X45">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y45" s="1"/>
-      <c r="AA45" t="e">
+      <c r="AA45">
         <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
-        <v>#DIV/0!</v>
+        <v>354.32</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
@@ -42407,12 +42424,12 @@
         <v>5</v>
       </c>
       <c r="X51">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y51" s="1"/>
-      <c r="AA51" t="e">
+      <c r="AA51">
         <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
-        <v>#DIV/0!</v>
+        <v>650.4</v>
       </c>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
@@ -42723,12 +42740,12 @@
         <v>8</v>
       </c>
       <c r="X55">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y55" s="1"/>
-      <c r="AA55" t="e">
+      <c r="AA55">
         <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
-        <v>#DIV/0!</v>
+        <v>639.44000000000005</v>
       </c>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.25">
@@ -42802,12 +42819,12 @@
         <v>11</v>
       </c>
       <c r="X56">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y56" s="1"/>
-      <c r="AA56" t="e">
+      <c r="AA56">
         <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
-        <v>#DIV/0!</v>
+        <v>635.44000000000005</v>
       </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.25">
@@ -42881,12 +42898,12 @@
         <v>11</v>
       </c>
       <c r="X57">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y57" s="1"/>
-      <c r="AA57" t="e">
+      <c r="AA57">
         <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
-        <v>#DIV/0!</v>
+        <v>621.76</v>
       </c>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
@@ -43039,12 +43056,12 @@
         <v>11</v>
       </c>
       <c r="X59">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y59" s="1"/>
-      <c r="AA59" t="e">
+      <c r="AA59">
         <f>Table_1__3[[#This Row],[Pts]]/Table_1__3[[#This Row],[Salary]]</f>
-        <v>#DIV/0!</v>
+        <v>576.88</v>
       </c>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
@@ -58143,12 +58160,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB75FCD-00A1-4E5F-83D2-B943EA17A375}">
-  <dimension ref="A1:Y143"/>
+  <dimension ref="A1:AO143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:U143"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="1">
+      <selection activeCell="Z18" sqref="Z18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -58167,7 +58186,7 @@
     <col min="25" max="25" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -58243,8 +58262,41 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA1" t="s">
+        <v>3091</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>2358</v>
+      </c>
+      <c r="AI1">
+        <v>-3</v>
+      </c>
+      <c r="AJ1">
+        <v>-2</v>
+      </c>
+      <c r="AK1">
+        <v>-1</v>
+      </c>
+      <c r="AL1">
+        <v>0</v>
+      </c>
+      <c r="AM1">
+        <v>1</v>
+      </c>
+      <c r="AN1">
+        <v>2</v>
+      </c>
+      <c r="AO1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -58318,8 +58370,58 @@
         <v>29</v>
       </c>
       <c r="Y2" s="1"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA2">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>15.620689655172415</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="AD2">
+        <f>AVERAGE(C2:C65)</f>
+        <v>129.97499999999999</v>
+      </c>
+      <c r="AE2">
+        <f>AVERAGE(C2:C33)</f>
+        <v>189.77812499999999</v>
+      </c>
+      <c r="AF2">
+        <f>AVERAGE(C2:C17)</f>
+        <v>241.97499999999997</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>2356</v>
+      </c>
+      <c r="AI2">
+        <f>AD2-(3*AD3)</f>
+        <v>-114.05639334417614</v>
+      </c>
+      <c r="AJ2">
+        <f>AD2-(2*AD3)</f>
+        <v>-32.712595562784088</v>
+      </c>
+      <c r="AK2">
+        <f>AD2-(AD3)</f>
+        <v>48.631202218607953</v>
+      </c>
+      <c r="AL2">
+        <f>AD2</f>
+        <v>129.97499999999999</v>
+      </c>
+      <c r="AM2">
+        <f>AD2+AD3</f>
+        <v>211.31879778139205</v>
+      </c>
+      <c r="AN2">
+        <f>AD2+(2*AD3)</f>
+        <v>292.66259556278408</v>
+      </c>
+      <c r="AO2">
+        <f>AD2+(3*AD3)</f>
+        <v>374.0063933441761</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -58393,8 +58495,58 @@
         <v>15</v>
       </c>
       <c r="Y3" s="1"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA3">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>26.48</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>2359</v>
+      </c>
+      <c r="AD3">
+        <f>_xlfn.STDEV.P(C2:C65)</f>
+        <v>81.343797781392041</v>
+      </c>
+      <c r="AE3">
+        <f>_xlfn.STDEV.P(C2:C33)</f>
+        <v>75.357455397487982</v>
+      </c>
+      <c r="AF3">
+        <f>_xlfn.STDEV.P(C2:C17)</f>
+        <v>72.161715091868643</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>2357</v>
+      </c>
+      <c r="AI3">
+        <f>AE2-(3*AE3)</f>
+        <v>-36.294241192463971</v>
+      </c>
+      <c r="AJ3">
+        <f>AE2-(2*AE3)</f>
+        <v>39.063214205024025</v>
+      </c>
+      <c r="AK3">
+        <f>AE2-AE3</f>
+        <v>114.42066960251201</v>
+      </c>
+      <c r="AL3">
+        <f>AE2</f>
+        <v>189.77812499999999</v>
+      </c>
+      <c r="AM3">
+        <f>AE2+AE3</f>
+        <v>265.13558039748796</v>
+      </c>
+      <c r="AN3">
+        <f>AE2+(2*AE3)</f>
+        <v>340.49303579497598</v>
+      </c>
+      <c r="AO3">
+        <f>AE2+(3*AE3)</f>
+        <v>415.85049119246395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -58468,8 +58620,58 @@
         <v>1</v>
       </c>
       <c r="Y4" s="1"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA4">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>246.7</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>2360</v>
+      </c>
+      <c r="AD4">
+        <f>_xlfn.VAR.P(C2:C65)</f>
+        <v>6616.8134375000009</v>
+      </c>
+      <c r="AE4">
+        <f>_xlfn.VAR.P(C2:C33)</f>
+        <v>5678.7460839843916</v>
+      </c>
+      <c r="AF4">
+        <f>_xlfn.VAR.P(C2:C17)</f>
+        <v>5207.3131250000224</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>2358</v>
+      </c>
+      <c r="AI4">
+        <f>AF2-(3*AF3)</f>
+        <v>25.489854724394036</v>
+      </c>
+      <c r="AJ4">
+        <f>AF2-(2*AF3)</f>
+        <v>97.651569816262679</v>
+      </c>
+      <c r="AK4">
+        <f>AF2-AF3</f>
+        <v>169.81328490813132</v>
+      </c>
+      <c r="AL4">
+        <f>AF2</f>
+        <v>241.97499999999997</v>
+      </c>
+      <c r="AM4">
+        <f>AF2+AF3</f>
+        <v>314.13671509186861</v>
+      </c>
+      <c r="AN4">
+        <f>AF2+(2*AF3)</f>
+        <v>386.29843018373725</v>
+      </c>
+      <c r="AO4">
+        <f>AF2+(3*AF3)</f>
+        <v>458.4601452756059</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -58540,11 +58742,46 @@
         <v>8</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y5" s="1"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA5">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>984.8</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>2356</v>
+      </c>
+      <c r="AI5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AI2)</f>
+        <v>64</v>
+      </c>
+      <c r="AJ5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AJ2)</f>
+        <v>64</v>
+      </c>
+      <c r="AK5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AK2)</f>
+        <v>60</v>
+      </c>
+      <c r="AL5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AL2)</f>
+        <v>24</v>
+      </c>
+      <c r="AM5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AM2)</f>
+        <v>8</v>
+      </c>
+      <c r="AN5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AN2)</f>
+        <v>2</v>
+      </c>
+      <c r="AO5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AO2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -58618,8 +58855,43 @@
         <v>11</v>
       </c>
       <c r="Y6" s="1"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA6">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>21.472727272727273</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>2357</v>
+      </c>
+      <c r="AI6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AI3)</f>
+        <v>32</v>
+      </c>
+      <c r="AJ6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AJ3)</f>
+        <v>32</v>
+      </c>
+      <c r="AK6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AK3)</f>
+        <v>28</v>
+      </c>
+      <c r="AL6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AL3)</f>
+        <v>14</v>
+      </c>
+      <c r="AM6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AM3)</f>
+        <v>2</v>
+      </c>
+      <c r="AN6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AN3)</f>
+        <v>2</v>
+      </c>
+      <c r="AO6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AO3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -58693,8 +58965,43 @@
         <v>6</v>
       </c>
       <c r="Y7" s="1"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA7">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>39.199999999999996</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>2358</v>
+      </c>
+      <c r="AI7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AI4)</f>
+        <v>16</v>
+      </c>
+      <c r="AJ7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AJ4)</f>
+        <v>16</v>
+      </c>
+      <c r="AK7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AK4)</f>
+        <v>16</v>
+      </c>
+      <c r="AL7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AL4)</f>
+        <v>4</v>
+      </c>
+      <c r="AM7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AM4)</f>
+        <v>2</v>
+      </c>
+      <c r="AN7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AN4)</f>
+        <v>2</v>
+      </c>
+      <c r="AO7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AO4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -58768,8 +59075,12 @@
         <v>5</v>
       </c>
       <c r="Y8" s="1"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA8">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>45.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -58843,8 +59154,12 @@
         <v>1</v>
       </c>
       <c r="Y9" s="1"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA9">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>215.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -58918,8 +59233,12 @@
         <v>3</v>
       </c>
       <c r="Y10" s="1"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA10">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -58993,8 +59312,12 @@
         <v>8</v>
       </c>
       <c r="Y11" s="1"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA11">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -59068,8 +59391,12 @@
         <v>6</v>
       </c>
       <c r="Y12" s="1"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA12">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -59143,8 +59470,12 @@
         <v>2</v>
       </c>
       <c r="Y13" s="1"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA13">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>103.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -59218,8 +59549,12 @@
         <v>1</v>
       </c>
       <c r="Y14" s="1"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA14">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>206.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -59290,11 +59625,15 @@
         <v>4</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y15" s="1"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA15">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>393.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -59368,8 +59707,12 @@
         <v>20</v>
       </c>
       <c r="Y16" s="1"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA16">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>9.4349999999999987</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -59440,11 +59783,15 @@
         <v>11</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y17" s="1"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA17">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>748.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -59518,8 +59865,12 @@
         <v>1</v>
       </c>
       <c r="Y18" s="1"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA18">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>185.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -59593,8 +59944,12 @@
         <v>5</v>
       </c>
       <c r="Y19" s="1"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA19">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>35.880000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -59668,8 +60023,12 @@
         <v>1</v>
       </c>
       <c r="Y20" s="1"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA20">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>177.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -59743,8 +60102,12 @@
         <v>4</v>
       </c>
       <c r="Y21" s="1"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA21">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -59818,8 +60181,12 @@
         <v>8</v>
       </c>
       <c r="Y22" s="1"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA22">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>19.625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -59890,11 +60257,15 @@
         <v>8</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y23" s="1"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA23">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>46.866666666666667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -59965,11 +60336,15 @@
         <v>9</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y24" s="1"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA24">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>538.79999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -60043,8 +60418,12 @@
         <v>7</v>
       </c>
       <c r="Y25" s="1"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA25">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>19.142857142857142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -60118,8 +60497,12 @@
         <v>5</v>
       </c>
       <c r="Y26" s="1"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA26">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>24.82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -60190,11 +60573,15 @@
         <v>4</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y27" s="1"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA27">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>489.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -60268,8 +60655,12 @@
         <v>1</v>
       </c>
       <c r="Y28" s="1"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA28">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -60343,8 +60734,12 @@
         <v>0</v>
       </c>
       <c r="Y29" s="1"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA29" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -60418,8 +60813,12 @@
         <v>10</v>
       </c>
       <c r="Y30" s="1"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA30">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>11.379999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -60493,8 +60892,12 @@
         <v>12</v>
       </c>
       <c r="Y31" s="1"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA31">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>9.1666666666666661</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -60568,8 +60971,12 @@
         <v>4</v>
       </c>
       <c r="Y32" s="1"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA32">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>27.125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -60643,8 +61050,12 @@
         <v>7</v>
       </c>
       <c r="Y33" s="1"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA33">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>15.342857142857143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -60718,8 +61129,12 @@
         <v>2</v>
       </c>
       <c r="Y34" s="1"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA34">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -60793,8 +61208,12 @@
         <v>0</v>
       </c>
       <c r="Y35" s="1"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA35" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -60868,8 +61287,12 @@
         <v>0</v>
       </c>
       <c r="Y36" s="1"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA36" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -60943,8 +61366,12 @@
         <v>4</v>
       </c>
       <c r="Y37" s="1"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA37">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -61018,8 +61445,12 @@
         <v>0</v>
       </c>
       <c r="Y38" s="1"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA38" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -61093,8 +61524,12 @@
         <v>0</v>
       </c>
       <c r="Y39" s="1"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA39" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -61168,8 +61603,12 @@
         <v>0</v>
       </c>
       <c r="Y40" s="1"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA40" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -61243,8 +61682,12 @@
         <v>0</v>
       </c>
       <c r="Y41" s="1"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA41" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -61318,8 +61761,12 @@
         <v>1</v>
       </c>
       <c r="Y42" s="1"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA42">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>86.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -61393,8 +61840,12 @@
         <v>5</v>
       </c>
       <c r="Y43" s="1"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA43">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>17.16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -61468,8 +61919,12 @@
         <v>0</v>
       </c>
       <c r="Y44" s="1"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA44" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -61543,8 +61998,12 @@
         <v>0</v>
       </c>
       <c r="Y45" s="1"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA45" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -61618,8 +62077,12 @@
         <v>0</v>
       </c>
       <c r="Y46" s="1"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA46" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -61693,8 +62156,12 @@
         <v>0</v>
       </c>
       <c r="Y47" s="1"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA47" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -61768,8 +62235,12 @@
         <v>0</v>
       </c>
       <c r="Y48" s="1"/>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA48" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -61843,8 +62314,12 @@
         <v>0</v>
       </c>
       <c r="Y49" s="1"/>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA49" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -61918,8 +62393,12 @@
         <v>0</v>
       </c>
       <c r="Y50" s="1"/>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA50" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -61993,8 +62472,12 @@
         <v>0</v>
       </c>
       <c r="Y51" s="1"/>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA51" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -62068,8 +62551,12 @@
         <v>0</v>
       </c>
       <c r="Y52" s="1"/>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA52" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -62143,8 +62630,12 @@
         <v>0</v>
       </c>
       <c r="Y53" s="1"/>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA53" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -62218,8 +62709,12 @@
         <v>0</v>
       </c>
       <c r="Y54" s="1"/>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA54" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -62293,8 +62788,12 @@
         <v>0</v>
       </c>
       <c r="Y55" s="1"/>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA55" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -62368,8 +62867,12 @@
         <v>0</v>
       </c>
       <c r="Y56" s="1"/>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA56" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -62443,8 +62946,12 @@
         <v>13</v>
       </c>
       <c r="Y57" s="1"/>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA57">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>4.0153846153846153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -62518,8 +63025,12 @@
         <v>0</v>
       </c>
       <c r="Y58" s="1"/>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA58" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -62593,8 +63104,12 @@
         <v>0</v>
       </c>
       <c r="Y59" s="1"/>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA59" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -62668,8 +63183,12 @@
         <v>1</v>
       </c>
       <c r="Y60" s="1"/>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA60">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -62743,8 +63262,12 @@
         <v>0</v>
       </c>
       <c r="Y61" s="1"/>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA61" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -62818,8 +63341,12 @@
         <v>0</v>
       </c>
       <c r="Y62" s="1"/>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA62" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -62893,8 +63420,12 @@
         <v>0</v>
       </c>
       <c r="Y63" s="1"/>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA63" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -62968,8 +63499,12 @@
         <v>0</v>
       </c>
       <c r="Y64" s="1"/>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA64" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -63043,8 +63578,12 @@
         <v>0</v>
       </c>
       <c r="Y65" s="1"/>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA65" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -63118,8 +63657,12 @@
         <v>0</v>
       </c>
       <c r="Y66" s="1"/>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA66" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -63193,8 +63736,12 @@
         <v>12</v>
       </c>
       <c r="Y67" s="1"/>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA67">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>3.2333333333333329</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -63268,8 +63815,12 @@
         <v>1</v>
       </c>
       <c r="Y68" s="1"/>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA68">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -63343,8 +63894,12 @@
         <v>8</v>
       </c>
       <c r="Y69" s="1"/>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA69">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -63418,8 +63973,12 @@
         <v>0</v>
       </c>
       <c r="Y70" s="1"/>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA70" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -63493,8 +64052,12 @@
         <v>0</v>
       </c>
       <c r="Y71" s="1"/>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA71" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -63568,8 +64131,12 @@
         <v>0</v>
       </c>
       <c r="Y72" s="1"/>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA72" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -63643,8 +64210,12 @@
         <v>1</v>
       </c>
       <c r="Y73" s="1"/>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA73">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -63718,8 +64289,12 @@
         <v>0</v>
       </c>
       <c r="Y74" s="1"/>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA74" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -63793,8 +64368,12 @@
         <v>0</v>
       </c>
       <c r="Y75" s="1"/>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA75" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -63868,8 +64447,12 @@
         <v>7</v>
       </c>
       <c r="Y76" s="1"/>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA76">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>4.1714285714285717</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -63943,8 +64526,12 @@
         <v>6</v>
       </c>
       <c r="Y77" s="1"/>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA77">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>4.3666666666666663</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -64018,8 +64605,12 @@
         <v>0</v>
       </c>
       <c r="Y78" s="1"/>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA78" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -64093,8 +64684,12 @@
         <v>0</v>
       </c>
       <c r="Y79" s="1"/>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA79" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -64168,8 +64763,12 @@
         <v>0</v>
       </c>
       <c r="Y80" s="1"/>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA80" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -64243,8 +64842,12 @@
         <v>0</v>
       </c>
       <c r="Y81" s="1"/>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA81" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -64318,8 +64921,12 @@
         <v>0</v>
       </c>
       <c r="Y82" s="1"/>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA82" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -64393,8 +65000,12 @@
         <v>0</v>
       </c>
       <c r="Y83" s="1"/>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA83" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -64468,8 +65079,12 @@
         <v>0</v>
       </c>
       <c r="Y84" s="1"/>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA84" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -64543,8 +65158,12 @@
         <v>0</v>
       </c>
       <c r="Y85" s="1"/>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA85" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -64618,8 +65237,12 @@
         <v>0</v>
       </c>
       <c r="Y86" s="1"/>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA86" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -64693,8 +65316,12 @@
         <v>0</v>
       </c>
       <c r="Y87" s="1"/>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA87" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -64768,8 +65395,12 @@
         <v>0</v>
       </c>
       <c r="Y88" s="1"/>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA88" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -64843,8 +65474,12 @@
         <v>0</v>
       </c>
       <c r="Y89" s="1"/>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA89" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -64918,8 +65553,12 @@
         <v>0</v>
       </c>
       <c r="Y90" s="1"/>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA90" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -64993,8 +65632,12 @@
         <v>0</v>
       </c>
       <c r="Y91" s="1"/>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA91" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -65068,8 +65711,12 @@
         <v>0</v>
       </c>
       <c r="Y92" s="1"/>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA92" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -65143,8 +65790,12 @@
         <v>0</v>
       </c>
       <c r="Y93" s="1"/>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA93" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -65218,8 +65869,12 @@
         <v>0</v>
       </c>
       <c r="Y94" s="1"/>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA94" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -65293,8 +65948,12 @@
         <v>0</v>
       </c>
       <c r="Y95" s="1"/>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA95" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -65368,8 +66027,12 @@
         <v>0</v>
       </c>
       <c r="Y96" s="1"/>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA96" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -65443,8 +66106,12 @@
         <v>0</v>
       </c>
       <c r="Y97" s="1"/>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA97" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -65518,8 +66185,12 @@
         <v>0</v>
       </c>
       <c r="Y98" s="1"/>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA98" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -65593,8 +66264,12 @@
         <v>0</v>
       </c>
       <c r="Y99" s="1"/>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA99" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -65668,8 +66343,12 @@
         <v>1</v>
       </c>
       <c r="Y100" s="1"/>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA100">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -65743,8 +66422,12 @@
         <v>0</v>
       </c>
       <c r="Y101" s="1"/>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA101" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -65818,8 +66501,12 @@
         <v>0</v>
       </c>
       <c r="Y102" s="1"/>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA102" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -65893,8 +66580,12 @@
         <v>0</v>
       </c>
       <c r="Y103" s="1"/>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA103" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -65968,8 +66659,12 @@
         <v>0</v>
       </c>
       <c r="Y104" s="1"/>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA104" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -66043,8 +66738,12 @@
         <v>0</v>
       </c>
       <c r="Y105" s="1"/>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA105" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -66118,8 +66817,12 @@
         <v>0</v>
       </c>
       <c r="Y106" s="1"/>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA106" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -66193,8 +66896,12 @@
         <v>0</v>
       </c>
       <c r="Y107" s="1"/>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA107" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -66268,8 +66975,12 @@
         <v>1</v>
       </c>
       <c r="Y108" s="1"/>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA108">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -66343,8 +67054,12 @@
         <v>0</v>
       </c>
       <c r="Y109" s="1"/>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA109" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -66418,8 +67133,12 @@
         <v>0</v>
       </c>
       <c r="Y110" s="1"/>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA110" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -66493,8 +67212,12 @@
         <v>0</v>
       </c>
       <c r="Y111" s="1"/>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA111" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -66568,8 +67291,12 @@
         <v>0</v>
       </c>
       <c r="Y112" s="1"/>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA112" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -66643,8 +67370,12 @@
         <v>0</v>
       </c>
       <c r="Y113" s="1"/>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA113" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -66718,8 +67449,12 @@
         <v>0</v>
       </c>
       <c r="Y114" s="1"/>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA114" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -66793,8 +67528,12 @@
         <v>0</v>
       </c>
       <c r="Y115" s="1"/>
-    </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA115" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -66868,8 +67607,12 @@
         <v>0</v>
       </c>
       <c r="Y116" s="1"/>
-    </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA116" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -66943,8 +67686,12 @@
         <v>0</v>
       </c>
       <c r="Y117" s="1"/>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA117" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -67018,8 +67765,12 @@
         <v>0</v>
       </c>
       <c r="Y118" s="1"/>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA118" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -67093,8 +67844,12 @@
         <v>0</v>
       </c>
       <c r="Y119" s="1"/>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA119" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -67168,8 +67923,12 @@
         <v>0</v>
       </c>
       <c r="Y120" s="1"/>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA120" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -67243,8 +68002,12 @@
         <v>0</v>
       </c>
       <c r="Y121" s="1"/>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA121" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -67318,8 +68081,12 @@
         <v>0</v>
       </c>
       <c r="Y122" s="1"/>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA122" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -67393,8 +68160,12 @@
         <v>0</v>
       </c>
       <c r="Y123" s="1"/>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA123" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -67468,8 +68239,12 @@
         <v>0</v>
       </c>
       <c r="Y124" s="1"/>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA124" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -67543,8 +68318,12 @@
         <v>0</v>
       </c>
       <c r="Y125" s="1"/>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA125" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -67618,8 +68397,12 @@
         <v>0</v>
       </c>
       <c r="Y126" s="1"/>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA126" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -67693,8 +68476,12 @@
         <v>0</v>
       </c>
       <c r="Y127" s="1"/>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA127" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -67768,8 +68555,12 @@
         <v>0</v>
       </c>
       <c r="Y128" s="1"/>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA128" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -67843,8 +68634,12 @@
         <v>0</v>
       </c>
       <c r="Y129" s="1"/>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA129" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -67918,8 +68713,12 @@
         <v>0</v>
       </c>
       <c r="Y130" s="1"/>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA130" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -67993,8 +68792,12 @@
         <v>0</v>
       </c>
       <c r="Y131" s="1"/>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA131" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -68068,8 +68871,12 @@
         <v>0</v>
       </c>
       <c r="Y132" s="1"/>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA132" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -68143,8 +68950,12 @@
         <v>0</v>
       </c>
       <c r="Y133" s="1"/>
-    </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA133" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -68218,8 +69029,12 @@
         <v>0</v>
       </c>
       <c r="Y134" s="1"/>
-    </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA134" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -68293,8 +69108,12 @@
         <v>0</v>
       </c>
       <c r="Y135" s="1"/>
-    </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA135" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -68368,8 +69187,12 @@
         <v>0</v>
       </c>
       <c r="Y136" s="1"/>
-    </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA136" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -68443,8 +69266,12 @@
         <v>0</v>
       </c>
       <c r="Y137" s="1"/>
-    </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA137" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -68518,8 +69345,12 @@
         <v>0</v>
       </c>
       <c r="Y138" s="1"/>
-    </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA138" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -68593,8 +69424,12 @@
         <v>0</v>
       </c>
       <c r="Y139" s="1"/>
-    </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA139" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -68668,8 +69503,12 @@
         <v>0</v>
       </c>
       <c r="Y140" s="1"/>
-    </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA140" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -68743,8 +69582,12 @@
         <v>0</v>
       </c>
       <c r="Y141" s="1"/>
-    </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA141" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -68818,8 +69661,12 @@
         <v>0</v>
       </c>
       <c r="Y142" s="1"/>
-    </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA142" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -68893,6 +69740,10 @@
         <v>0</v>
       </c>
       <c r="Y143" s="1"/>
+      <c r="AA143" t="e">
+        <f>Table_1__4[[#This Row],[Pts]]/Table_1__4[[#This Row],[Salary]]</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -68904,12 +69755,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455861B8-C402-4F4A-8F7B-02E9CB8B3ACA}">
-  <dimension ref="A1:Y47"/>
+  <dimension ref="A1:AO47"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:U47"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView topLeftCell="H1" workbookViewId="1">
+      <selection activeCell="AC1" sqref="AC1:AO7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -68928,7 +69781,7 @@
     <col min="25" max="25" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -69004,8 +69857,38 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AD1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>2358</v>
+      </c>
+      <c r="AI1">
+        <v>-3</v>
+      </c>
+      <c r="AJ1">
+        <v>-2</v>
+      </c>
+      <c r="AK1">
+        <v>-1</v>
+      </c>
+      <c r="AL1">
+        <v>0</v>
+      </c>
+      <c r="AM1">
+        <v>1</v>
+      </c>
+      <c r="AN1">
+        <v>2</v>
+      </c>
+      <c r="AO1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -69079,8 +69962,54 @@
         <v>0</v>
       </c>
       <c r="Y2" s="1"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="AD2">
+        <f>AVERAGE(C2:C65)</f>
+        <v>116.15217391304348</v>
+      </c>
+      <c r="AE2">
+        <f>AVERAGE(C2:C33)</f>
+        <v>158.125</v>
+      </c>
+      <c r="AF2">
+        <f>AVERAGE(C2:C17)</f>
+        <v>191.75</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>2356</v>
+      </c>
+      <c r="AI2">
+        <f>AD2-(3*AD3)</f>
+        <v>-104.29654895463078</v>
+      </c>
+      <c r="AJ2">
+        <f>AD2-(2*AD3)</f>
+        <v>-30.813641332072692</v>
+      </c>
+      <c r="AK2">
+        <f>AD2-(AD3)</f>
+        <v>42.669266290485396</v>
+      </c>
+      <c r="AL2">
+        <f>AD2</f>
+        <v>116.15217391304348</v>
+      </c>
+      <c r="AM2">
+        <f>AD2+AD3</f>
+        <v>189.63508153560156</v>
+      </c>
+      <c r="AN2">
+        <f>AD2+(2*AD3)</f>
+        <v>263.11798915815967</v>
+      </c>
+      <c r="AO2">
+        <f>AD2+(3*AD3)</f>
+        <v>336.60089678071773</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -69154,8 +70083,54 @@
         <v>0</v>
       </c>
       <c r="Y3" s="1"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC3" t="s">
+        <v>2359</v>
+      </c>
+      <c r="AD3">
+        <f>_xlfn.STDEV.P(C2:C65)</f>
+        <v>73.482907622558088</v>
+      </c>
+      <c r="AE3">
+        <f>_xlfn.STDEV.P(C2:C33)</f>
+        <v>42.888481845362634</v>
+      </c>
+      <c r="AF3">
+        <f>_xlfn.STDEV.P(C2:C17)</f>
+        <v>21.414072475827666</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>2357</v>
+      </c>
+      <c r="AI3">
+        <f>AE2-(3*AE3)</f>
+        <v>29.459554463912099</v>
+      </c>
+      <c r="AJ3">
+        <f>AE2-(2*AE3)</f>
+        <v>72.348036309274733</v>
+      </c>
+      <c r="AK3">
+        <f>AE2-AE3</f>
+        <v>115.23651815463737</v>
+      </c>
+      <c r="AL3">
+        <f>AE2</f>
+        <v>158.125</v>
+      </c>
+      <c r="AM3">
+        <f>AE2+AE3</f>
+        <v>201.01348184536263</v>
+      </c>
+      <c r="AN3">
+        <f>AE2+(2*AE3)</f>
+        <v>243.90196369072527</v>
+      </c>
+      <c r="AO3">
+        <f>AE2+(3*AE3)</f>
+        <v>286.79044553608787</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -69229,8 +70204,54 @@
         <v>2</v>
       </c>
       <c r="Y4" s="1"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC4" t="s">
+        <v>2360</v>
+      </c>
+      <c r="AD4">
+        <f>_xlfn.VAR.P(C2:C65)</f>
+        <v>5399.7377126654064</v>
+      </c>
+      <c r="AE4">
+        <f>_xlfn.VAR.P(C2:C33)</f>
+        <v>1839.421875</v>
+      </c>
+      <c r="AF4">
+        <f>_xlfn.VAR.P(C2:C17)</f>
+        <v>458.5625</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>2358</v>
+      </c>
+      <c r="AI4">
+        <f>AF2-(3*AF3)</f>
+        <v>127.507782572517</v>
+      </c>
+      <c r="AJ4">
+        <f>AF2-(2*AF3)</f>
+        <v>148.92185504834467</v>
+      </c>
+      <c r="AK4">
+        <f>AF2-AF3</f>
+        <v>170.33592752417235</v>
+      </c>
+      <c r="AL4">
+        <f>AF2</f>
+        <v>191.75</v>
+      </c>
+      <c r="AM4">
+        <f>AF2+AF3</f>
+        <v>213.16407247582765</v>
+      </c>
+      <c r="AN4">
+        <f>AF2+(2*AF3)</f>
+        <v>234.57814495165533</v>
+      </c>
+      <c r="AO4">
+        <f>AF2+(3*AF3)</f>
+        <v>255.99221742748301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -69304,8 +70325,39 @@
         <v>1</v>
       </c>
       <c r="Y5" s="1"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AH5" t="s">
+        <v>2356</v>
+      </c>
+      <c r="AI5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AI2)</f>
+        <v>46</v>
+      </c>
+      <c r="AJ5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AJ2)</f>
+        <v>46</v>
+      </c>
+      <c r="AK5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AK2)</f>
+        <v>33</v>
+      </c>
+      <c r="AL5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AL2)</f>
+        <v>27</v>
+      </c>
+      <c r="AM5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AM2)</f>
+        <v>9</v>
+      </c>
+      <c r="AN5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AN2)</f>
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AO2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -69379,8 +70431,39 @@
         <v>0</v>
       </c>
       <c r="Y6" s="1"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AH6" t="s">
+        <v>2357</v>
+      </c>
+      <c r="AI6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AI3)</f>
+        <v>32</v>
+      </c>
+      <c r="AJ6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AJ3)</f>
+        <v>30</v>
+      </c>
+      <c r="AK6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AK3)</f>
+        <v>27</v>
+      </c>
+      <c r="AL6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AL3)</f>
+        <v>18</v>
+      </c>
+      <c r="AM6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AM3)</f>
+        <v>3</v>
+      </c>
+      <c r="AN6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AN3)</f>
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AO3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -69454,8 +70537,39 @@
         <v>0</v>
       </c>
       <c r="Y7" s="1"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AH7" t="s">
+        <v>2358</v>
+      </c>
+      <c r="AI7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AI4)</f>
+        <v>16</v>
+      </c>
+      <c r="AJ7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AJ4)</f>
+        <v>16</v>
+      </c>
+      <c r="AK7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AK4)</f>
+        <v>13</v>
+      </c>
+      <c r="AL7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AL4)</f>
+        <v>7</v>
+      </c>
+      <c r="AM7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AM4)</f>
+        <v>3</v>
+      </c>
+      <c r="AN7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AN4)</f>
+        <v>1</v>
+      </c>
+      <c r="AO7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AO4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -69530,7 +70644,7 @@
       </c>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -69605,7 +70719,7 @@
       </c>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -69680,7 +70794,7 @@
       </c>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -69755,7 +70869,7 @@
       </c>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -69830,7 +70944,7 @@
       </c>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -69905,7 +71019,7 @@
       </c>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -69980,7 +71094,7 @@
       </c>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -70055,7 +71169,7 @@
       </c>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -72465,12 +73579,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA3AB95-9EBE-4A35-BB68-435A39BB81BF}">
-  <dimension ref="A1:Y33"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:U33"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView topLeftCell="J1" workbookViewId="1">
+      <selection activeCell="AP1" sqref="AP1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -72495,7 +73611,7 @@
     <col min="25" max="25" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -72571,8 +73687,41 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB1" t="s">
+        <v>3092</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>2358</v>
+      </c>
+      <c r="AI1">
+        <v>-3</v>
+      </c>
+      <c r="AJ1">
+        <v>-2</v>
+      </c>
+      <c r="AK1">
+        <v>-1</v>
+      </c>
+      <c r="AL1">
+        <v>0</v>
+      </c>
+      <c r="AM1">
+        <v>1</v>
+      </c>
+      <c r="AN1">
+        <v>2</v>
+      </c>
+      <c r="AO1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -72646,8 +73795,58 @@
         <v>1</v>
       </c>
       <c r="Y2" s="1"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB2">
+        <f>Table_1__6[[#This Row],[Pts]]/Table_1__6[[#This Row],[Salary]]</f>
+        <v>388.38</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="AD2">
+        <f>AVERAGE(C2:C65)</f>
+        <v>236.11875000000003</v>
+      </c>
+      <c r="AE2">
+        <f>AVERAGE(C2:C33)</f>
+        <v>236.11875000000003</v>
+      </c>
+      <c r="AF2">
+        <f>AVERAGE(C2:C17)</f>
+        <v>294.40999999999997</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>2356</v>
+      </c>
+      <c r="AI2">
+        <f>AD2-(3*AD3)</f>
+        <v>22.509568523787834</v>
+      </c>
+      <c r="AJ2">
+        <f>AD2-(2*AD3)</f>
+        <v>93.712629015858568</v>
+      </c>
+      <c r="AK2">
+        <f>AD2-(AD3)</f>
+        <v>164.9156895079293</v>
+      </c>
+      <c r="AL2">
+        <f>AD2</f>
+        <v>236.11875000000003</v>
+      </c>
+      <c r="AM2">
+        <f>AD2+AD3</f>
+        <v>307.32181049207077</v>
+      </c>
+      <c r="AN2">
+        <f>AD2+(2*AD3)</f>
+        <v>378.5248709841415</v>
+      </c>
+      <c r="AO2">
+        <f>AD2+(3*AD3)</f>
+        <v>449.72793147621223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -72721,8 +73920,58 @@
         <v>4</v>
       </c>
       <c r="Y3" s="1"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB3">
+        <f>Table_1__6[[#This Row],[Pts]]/Table_1__6[[#This Row],[Salary]]</f>
+        <v>84.55</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>2359</v>
+      </c>
+      <c r="AD3">
+        <f>_xlfn.STDEV.P(C2:C65)</f>
+        <v>71.203060492070733</v>
+      </c>
+      <c r="AE3">
+        <f>_xlfn.STDEV.P(C2:C33)</f>
+        <v>71.203060492070733</v>
+      </c>
+      <c r="AF3">
+        <f>_xlfn.STDEV.P(C2:C17)</f>
+        <v>36.469422808704202</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>2357</v>
+      </c>
+      <c r="AI3">
+        <f>AE2-(3*AE3)</f>
+        <v>22.509568523787834</v>
+      </c>
+      <c r="AJ3">
+        <f>AE2-(2*AE3)</f>
+        <v>93.712629015858568</v>
+      </c>
+      <c r="AK3">
+        <f>AE2-AE3</f>
+        <v>164.9156895079293</v>
+      </c>
+      <c r="AL3">
+        <f>AE2</f>
+        <v>236.11875000000003</v>
+      </c>
+      <c r="AM3">
+        <f>AE2+AE3</f>
+        <v>307.32181049207077</v>
+      </c>
+      <c r="AN3">
+        <f>AE2+(2*AE3)</f>
+        <v>378.5248709841415</v>
+      </c>
+      <c r="AO3">
+        <f>AE2+(3*AE3)</f>
+        <v>449.72793147621223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -72793,11 +74042,61 @@
         <v>8</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y4" s="1"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB4">
+        <f>Table_1__6[[#This Row],[Pts]]/Table_1__6[[#This Row],[Salary]]</f>
+        <v>1329.68</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>2360</v>
+      </c>
+      <c r="AD4">
+        <f>_xlfn.VAR.P(C2:C65)</f>
+        <v>5069.8758234374836</v>
+      </c>
+      <c r="AE4">
+        <f>_xlfn.VAR.P(C2:C33)</f>
+        <v>5069.8758234374836</v>
+      </c>
+      <c r="AF4">
+        <f>_xlfn.VAR.P(C2:C17)</f>
+        <v>1330.0188000000344</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>2358</v>
+      </c>
+      <c r="AI4">
+        <f>AF2-(3*AF3)</f>
+        <v>185.00173157388735</v>
+      </c>
+      <c r="AJ4">
+        <f>AF2-(2*AF3)</f>
+        <v>221.47115438259158</v>
+      </c>
+      <c r="AK4">
+        <f>AF2-AF3</f>
+        <v>257.94057719129574</v>
+      </c>
+      <c r="AL4">
+        <f>AF2</f>
+        <v>294.40999999999997</v>
+      </c>
+      <c r="AM4">
+        <f>AF2+AF3</f>
+        <v>330.87942280870419</v>
+      </c>
+      <c r="AN4">
+        <f>AF2+(2*AF3)</f>
+        <v>367.34884561740836</v>
+      </c>
+      <c r="AO4">
+        <f>AF2+(3*AF3)</f>
+        <v>403.81826842611258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -72871,8 +74170,43 @@
         <v>2</v>
       </c>
       <c r="Y5" s="1"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB5">
+        <f>Table_1__6[[#This Row],[Pts]]/Table_1__6[[#This Row],[Salary]]</f>
+        <v>162.51</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>2356</v>
+      </c>
+      <c r="AI5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AI2)</f>
+        <v>32</v>
+      </c>
+      <c r="AJ5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AJ2)</f>
+        <v>31</v>
+      </c>
+      <c r="AK5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AK2)</f>
+        <v>27</v>
+      </c>
+      <c r="AL5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AL2)</f>
+        <v>16</v>
+      </c>
+      <c r="AM5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AM2)</f>
+        <v>5</v>
+      </c>
+      <c r="AN5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AN2)</f>
+        <v>1</v>
+      </c>
+      <c r="AO5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AO2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -72946,8 +74280,43 @@
         <v>1</v>
       </c>
       <c r="Y6" s="1"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB6">
+        <f>Table_1__6[[#This Row],[Pts]]/Table_1__6[[#This Row],[Salary]]</f>
+        <v>314.52</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>2357</v>
+      </c>
+      <c r="AI6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AI3)</f>
+        <v>32</v>
+      </c>
+      <c r="AJ6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AJ3)</f>
+        <v>31</v>
+      </c>
+      <c r="AK6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AK3)</f>
+        <v>27</v>
+      </c>
+      <c r="AL6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AL3)</f>
+        <v>16</v>
+      </c>
+      <c r="AM6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AM3)</f>
+        <v>5</v>
+      </c>
+      <c r="AN6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AN3)</f>
+        <v>1</v>
+      </c>
+      <c r="AO6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AO3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -73021,8 +74390,43 @@
         <v>1</v>
       </c>
       <c r="Y7" s="1"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB7">
+        <f>Table_1__6[[#This Row],[Pts]]/Table_1__6[[#This Row],[Salary]]</f>
+        <v>300.77999999999997</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>2358</v>
+      </c>
+      <c r="AI7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AI4)</f>
+        <v>16</v>
+      </c>
+      <c r="AJ7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AJ4)</f>
+        <v>16</v>
+      </c>
+      <c r="AK7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AK4)</f>
+        <v>14</v>
+      </c>
+      <c r="AL7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AL4)</f>
+        <v>7</v>
+      </c>
+      <c r="AM7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AM4)</f>
+        <v>3</v>
+      </c>
+      <c r="AN7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AN4)</f>
+        <v>1</v>
+      </c>
+      <c r="AO7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AO4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -73093,11 +74497,15 @@
         <v>13</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y8" s="1"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB8">
+        <f>Table_1__6[[#This Row],[Pts]]/Table_1__6[[#This Row],[Salary]]</f>
+        <v>594.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -73168,11 +74576,15 @@
         <v>7</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Y9" s="1"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB9">
+        <f>Table_1__6[[#This Row],[Pts]]/Table_1__6[[#This Row],[Salary]]</f>
+        <v>129.12888888888889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -73246,8 +74658,12 @@
         <v>2</v>
       </c>
       <c r="Y10" s="1"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB10">
+        <f>Table_1__6[[#This Row],[Pts]]/Table_1__6[[#This Row],[Salary]]</f>
+        <v>138.44999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -73318,11 +74734,15 @@
         <v>10</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Y11" s="1"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB11">
+        <f>Table_1__6[[#This Row],[Pts]]/Table_1__6[[#This Row],[Salary]]</f>
+        <v>78.51428571428572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -73396,8 +74816,12 @@
         <v>3</v>
       </c>
       <c r="Y12" s="1"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB12">
+        <f>Table_1__6[[#This Row],[Pts]]/Table_1__6[[#This Row],[Salary]]</f>
+        <v>90.733333333333334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -73468,11 +74892,15 @@
         <v>5</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y13" s="1"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB13">
+        <f>Table_1__6[[#This Row],[Pts]]/Table_1__6[[#This Row],[Salary]]</f>
+        <v>542.76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -73543,11 +74971,15 @@
         <v>11</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y14" s="1"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB14">
+        <f>Table_1__6[[#This Row],[Pts]]/Table_1__6[[#This Row],[Salary]]</f>
+        <v>1082.08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -73621,8 +75053,12 @@
         <v>3</v>
       </c>
       <c r="Y15" s="1"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB15">
+        <f>Table_1__6[[#This Row],[Pts]]/Table_1__6[[#This Row],[Salary]]</f>
+        <v>86.626666666666665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -73693,11 +75129,15 @@
         <v>8</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y16" s="1"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB16">
+        <f>Table_1__6[[#This Row],[Pts]]/Table_1__6[[#This Row],[Salary]]</f>
+        <v>1019.84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -73768,11 +75208,15 @@
         <v>11</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y17" s="1"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB17">
+        <f>Table_1__6[[#This Row],[Pts]]/Table_1__6[[#This Row],[Salary]]</f>
+        <v>971.76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -73843,11 +75287,15 @@
         <v>9</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y18" s="1"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB18">
+        <f>Table_1__6[[#This Row],[Pts]]/Table_1__6[[#This Row],[Salary]]</f>
+        <v>940.48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -73918,11 +75366,15 @@
         <v>6</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y19" s="1"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB19">
+        <f>Table_1__6[[#This Row],[Pts]]/Table_1__6[[#This Row],[Salary]]</f>
+        <v>929.84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -73993,11 +75445,15 @@
         <v>13</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y20" s="1"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB20">
+        <f>Table_1__6[[#This Row],[Pts]]/Table_1__6[[#This Row],[Salary]]</f>
+        <v>898.48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -74068,11 +75524,15 @@
         <v>6</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y21" s="1"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB21">
+        <f>Table_1__6[[#This Row],[Pts]]/Table_1__6[[#This Row],[Salary]]</f>
+        <v>890.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -74143,11 +75603,15 @@
         <v>9</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y22" s="1"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB22">
+        <f>Table_1__6[[#This Row],[Pts]]/Table_1__6[[#This Row],[Salary]]</f>
+        <v>864.56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -74221,8 +75685,12 @@
         <v>1</v>
       </c>
       <c r="Y23" s="1"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB23">
+        <f>Table_1__6[[#This Row],[Pts]]/Table_1__6[[#This Row],[Salary]]</f>
+        <v>194.54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -74293,11 +75761,15 @@
         <v>5</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y24" s="1"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB24">
+        <f>Table_1__6[[#This Row],[Pts]]/Table_1__6[[#This Row],[Salary]]</f>
+        <v>753.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -74368,11 +75840,15 @@
         <v>10</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y25" s="1"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB25">
+        <f>Table_1__6[[#This Row],[Pts]]/Table_1__6[[#This Row],[Salary]]</f>
+        <v>748.56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -74446,8 +75922,12 @@
         <v>1</v>
       </c>
       <c r="Y26" s="1"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB26">
+        <f>Table_1__6[[#This Row],[Pts]]/Table_1__6[[#This Row],[Salary]]</f>
+        <v>184.38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -74518,11 +75998,15 @@
         <v>10</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y27" s="1"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB27">
+        <f>Table_1__6[[#This Row],[Pts]]/Table_1__6[[#This Row],[Salary]]</f>
+        <v>722.32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -74593,11 +76077,15 @@
         <v>9</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y28" s="1"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB28">
+        <f>Table_1__6[[#This Row],[Pts]]/Table_1__6[[#This Row],[Salary]]</f>
+        <v>721.68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -74671,8 +76159,12 @@
         <v>2</v>
       </c>
       <c r="Y29" s="1"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB29">
+        <f>Table_1__6[[#This Row],[Pts]]/Table_1__6[[#This Row],[Salary]]</f>
+        <v>75.13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -74743,11 +76235,15 @@
         <v>6</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y30" s="1"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB30">
+        <f>Table_1__6[[#This Row],[Pts]]/Table_1__6[[#This Row],[Salary]]</f>
+        <v>563.91999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -74818,11 +76314,15 @@
         <v>8</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y31" s="1"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB31">
+        <f>Table_1__6[[#This Row],[Pts]]/Table_1__6[[#This Row],[Salary]]</f>
+        <v>470.56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -74893,11 +76393,15 @@
         <v>8</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y32" s="1"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB32">
+        <f>Table_1__6[[#This Row],[Pts]]/Table_1__6[[#This Row],[Salary]]</f>
+        <v>430.08</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -74968,9 +76472,13 @@
         <v>5</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y33" s="1"/>
+      <c r="AB33">
+        <f>Table_1__6[[#This Row],[Pts]]/Table_1__6[[#This Row],[Salary]]</f>
+        <v>330.08</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -74982,12 +76490,14 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C86734-D141-46B1-84E8-A16F21200AC5}">
-  <dimension ref="A1:Y33"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:U33"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="AC1" sqref="AC1:AO7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -75015,7 +76525,7 @@
     <col min="25" max="25" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -75091,8 +76601,38 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AD1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>2358</v>
+      </c>
+      <c r="AI1">
+        <v>-3</v>
+      </c>
+      <c r="AJ1">
+        <v>-2</v>
+      </c>
+      <c r="AK1">
+        <v>-1</v>
+      </c>
+      <c r="AL1">
+        <v>0</v>
+      </c>
+      <c r="AM1">
+        <v>1</v>
+      </c>
+      <c r="AN1">
+        <v>2</v>
+      </c>
+      <c r="AO1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -75166,8 +76706,54 @@
         <v>0</v>
       </c>
       <c r="Y2" s="1"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="AD2">
+        <f>AVERAGE(C2:C65)</f>
+        <v>21.59375</v>
+      </c>
+      <c r="AE2">
+        <f>AVERAGE(C2:C33)</f>
+        <v>21.59375</v>
+      </c>
+      <c r="AF2">
+        <f>AVERAGE(C2:C17)</f>
+        <v>39.818750000000001</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>2356</v>
+      </c>
+      <c r="AI2">
+        <f>AD2-(3*AD3)</f>
+        <v>-48.312707487398839</v>
+      </c>
+      <c r="AJ2">
+        <f>AD2-(2*AD3)</f>
+        <v>-25.010554991599228</v>
+      </c>
+      <c r="AK2">
+        <f>AD2-(AD3)</f>
+        <v>-1.7084024957996142</v>
+      </c>
+      <c r="AL2">
+        <f>AD2</f>
+        <v>21.59375</v>
+      </c>
+      <c r="AM2">
+        <f>AD2+AD3</f>
+        <v>44.895902495799618</v>
+      </c>
+      <c r="AN2">
+        <f>AD2+(2*AD3)</f>
+        <v>68.198054991599236</v>
+      </c>
+      <c r="AO2">
+        <f>AD2+(3*AD3)</f>
+        <v>91.500207487398839</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -75241,8 +76827,54 @@
         <v>1</v>
       </c>
       <c r="Y3" s="1"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC3" t="s">
+        <v>2359</v>
+      </c>
+      <c r="AD3">
+        <f>_xlfn.STDEV.P(C2:C65)</f>
+        <v>23.302152495799614</v>
+      </c>
+      <c r="AE3">
+        <f>_xlfn.STDEV.P(C2:C33)</f>
+        <v>23.302152495799614</v>
+      </c>
+      <c r="AF3">
+        <f>_xlfn.STDEV.P(C2:C17)</f>
+        <v>11.254204700355324</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>2357</v>
+      </c>
+      <c r="AI3">
+        <f>AE2-(3*AE3)</f>
+        <v>-48.312707487398839</v>
+      </c>
+      <c r="AJ3">
+        <f>AE2-(2*AE3)</f>
+        <v>-25.010554991599228</v>
+      </c>
+      <c r="AK3">
+        <f>AE2-AE3</f>
+        <v>-1.7084024957996142</v>
+      </c>
+      <c r="AL3">
+        <f>AE2</f>
+        <v>21.59375</v>
+      </c>
+      <c r="AM3">
+        <f>AE2+AE3</f>
+        <v>44.895902495799618</v>
+      </c>
+      <c r="AN3">
+        <f>AE2+(2*AE3)</f>
+        <v>68.198054991599236</v>
+      </c>
+      <c r="AO3">
+        <f>AE2+(3*AE3)</f>
+        <v>91.500207487398839</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -75316,8 +76948,54 @@
         <v>0</v>
       </c>
       <c r="Y4" s="1"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC4" t="s">
+        <v>2360</v>
+      </c>
+      <c r="AD4">
+        <f>_xlfn.VAR.P(C2:C65)</f>
+        <v>542.99031093750011</v>
+      </c>
+      <c r="AE4">
+        <f>_xlfn.VAR.P(C2:C33)</f>
+        <v>542.99031093750011</v>
+      </c>
+      <c r="AF4">
+        <f>_xlfn.VAR.P(C2:C17)</f>
+        <v>126.65712343749988</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>2358</v>
+      </c>
+      <c r="AI4">
+        <f>AF2-(3*AF3)</f>
+        <v>6.0561358989340306</v>
+      </c>
+      <c r="AJ4">
+        <f>AF2-(2*AF3)</f>
+        <v>17.310340599289354</v>
+      </c>
+      <c r="AK4">
+        <f>AF2-AF3</f>
+        <v>28.564545299644678</v>
+      </c>
+      <c r="AL4">
+        <f>AF2</f>
+        <v>39.818750000000001</v>
+      </c>
+      <c r="AM4">
+        <f>AF2+AF3</f>
+        <v>51.072954700355325</v>
+      </c>
+      <c r="AN4">
+        <f>AF2+(2*AF3)</f>
+        <v>62.327159400710649</v>
+      </c>
+      <c r="AO4">
+        <f>AF2+(3*AF3)</f>
+        <v>73.581364101065972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -75391,8 +77069,39 @@
         <v>0</v>
       </c>
       <c r="Y5" s="1"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AH5" t="s">
+        <v>2356</v>
+      </c>
+      <c r="AI5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AI2)</f>
+        <v>32</v>
+      </c>
+      <c r="AJ5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AJ2)</f>
+        <v>30</v>
+      </c>
+      <c r="AK5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AK2)</f>
+        <v>27</v>
+      </c>
+      <c r="AL5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AL2)</f>
+        <v>17</v>
+      </c>
+      <c r="AM5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AM2)</f>
+        <v>3</v>
+      </c>
+      <c r="AN5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AN2)</f>
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AO2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -75466,8 +77175,39 @@
         <v>0</v>
       </c>
       <c r="Y6" s="1"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AH6" t="s">
+        <v>2357</v>
+      </c>
+      <c r="AI6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AI3)</f>
+        <v>32</v>
+      </c>
+      <c r="AJ6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AJ3)</f>
+        <v>30</v>
+      </c>
+      <c r="AK6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AK3)</f>
+        <v>27</v>
+      </c>
+      <c r="AL6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AL3)</f>
+        <v>17</v>
+      </c>
+      <c r="AM6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AM3)</f>
+        <v>3</v>
+      </c>
+      <c r="AN6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AN3)</f>
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AO3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -75541,8 +77281,39 @@
         <v>1</v>
       </c>
       <c r="Y7" s="1"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AH7" t="s">
+        <v>2358</v>
+      </c>
+      <c r="AI7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AI4)</f>
+        <v>16</v>
+      </c>
+      <c r="AJ7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AJ4)</f>
+        <v>16</v>
+      </c>
+      <c r="AK7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AK4)</f>
+        <v>15</v>
+      </c>
+      <c r="AL7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AL4)</f>
+        <v>6</v>
+      </c>
+      <c r="AM7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AM4)</f>
+        <v>3</v>
+      </c>
+      <c r="AN7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AN4)</f>
+        <v>2</v>
+      </c>
+      <c r="AO7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AO4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -75617,7 +77388,7 @@
       </c>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -75692,7 +77463,7 @@
       </c>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -75767,7 +77538,7 @@
       </c>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -75842,7 +77613,7 @@
       </c>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -75917,7 +77688,7 @@
       </c>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -75992,7 +77763,7 @@
       </c>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -76067,7 +77838,7 @@
       </c>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -76142,7 +77913,7 @@
       </c>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -77502,12 +79273,14 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DA5216-F90F-4DAB-8248-03CE26736C9E}">
-  <dimension ref="A1:Y33"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="AB20" sqref="AB20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -77525,7 +79298,7 @@
     <col min="25" max="25" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -77601,8 +79374,38 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AD1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>2358</v>
+      </c>
+      <c r="AI1">
+        <v>-3</v>
+      </c>
+      <c r="AJ1">
+        <v>-2</v>
+      </c>
+      <c r="AK1">
+        <v>-1</v>
+      </c>
+      <c r="AL1">
+        <v>0</v>
+      </c>
+      <c r="AM1">
+        <v>1</v>
+      </c>
+      <c r="AN1">
+        <v>2</v>
+      </c>
+      <c r="AO1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -77673,11 +79476,61 @@
         <v>11</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y2" s="1"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB2">
+        <f>Table_1__8[[#This Row],[Pts]]/Table_1__8[[#This Row],[Salary]]</f>
+        <v>1386.16</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="AD2">
+        <f>AVERAGE(C2:C65)</f>
+        <v>286.32406250000003</v>
+      </c>
+      <c r="AE2">
+        <f>AVERAGE(C2:C33)</f>
+        <v>286.32406250000003</v>
+      </c>
+      <c r="AF2">
+        <f>AVERAGE(C2:C17)</f>
+        <v>317.46312500000005</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>2356</v>
+      </c>
+      <c r="AI2">
+        <f>AD2-(3*AD3)</f>
+        <v>171.80665733449757</v>
+      </c>
+      <c r="AJ2">
+        <f>AD2-(2*AD3)</f>
+        <v>209.97912572299839</v>
+      </c>
+      <c r="AK2">
+        <f>AD2-(AD3)</f>
+        <v>248.15159411149921</v>
+      </c>
+      <c r="AL2">
+        <f>AD2</f>
+        <v>286.32406250000003</v>
+      </c>
+      <c r="AM2">
+        <f>AD2+AD3</f>
+        <v>324.49653088850084</v>
+      </c>
+      <c r="AN2">
+        <f>AD2+(2*AD3)</f>
+        <v>362.66899927700166</v>
+      </c>
+      <c r="AO2">
+        <f>AD2+(3*AD3)</f>
+        <v>400.84146766550248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -77751,8 +79604,58 @@
         <v>4</v>
       </c>
       <c r="Y3" s="1"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB3">
+        <f>Table_1__8[[#This Row],[Pts]]/Table_1__8[[#This Row],[Salary]]</f>
+        <v>85.71</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>2359</v>
+      </c>
+      <c r="AD3">
+        <f>_xlfn.STDEV.P(C2:C65)</f>
+        <v>38.172468388500818</v>
+      </c>
+      <c r="AE3">
+        <f>_xlfn.STDEV.P(C2:C33)</f>
+        <v>38.172468388500818</v>
+      </c>
+      <c r="AF3">
+        <f>_xlfn.STDEV.P(C2:C17)</f>
+        <v>15.900816692370711</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>2357</v>
+      </c>
+      <c r="AI3">
+        <f>AE2-(3*AE3)</f>
+        <v>171.80665733449757</v>
+      </c>
+      <c r="AJ3">
+        <f>AE2-(2*AE3)</f>
+        <v>209.97912572299839</v>
+      </c>
+      <c r="AK3">
+        <f>AE2-AE3</f>
+        <v>248.15159411149921</v>
+      </c>
+      <c r="AL3">
+        <f>AE2</f>
+        <v>286.32406250000003</v>
+      </c>
+      <c r="AM3">
+        <f>AE2+AE3</f>
+        <v>324.49653088850084</v>
+      </c>
+      <c r="AN3">
+        <f>AE2+(2*AE3)</f>
+        <v>362.66899927700166</v>
+      </c>
+      <c r="AO3">
+        <f>AE2+(3*AE3)</f>
+        <v>400.84146766550248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -77823,11 +79726,61 @@
         <v>5</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y4" s="1"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB4">
+        <f>Table_1__8[[#This Row],[Pts]]/Table_1__8[[#This Row],[Salary]]</f>
+        <v>1340.88</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>2360</v>
+      </c>
+      <c r="AD4">
+        <f>_xlfn.VAR.P(C2:C65)</f>
+        <v>1457.137342871094</v>
+      </c>
+      <c r="AE4">
+        <f>_xlfn.VAR.P(C2:C33)</f>
+        <v>1457.137342871094</v>
+      </c>
+      <c r="AF4">
+        <f>_xlfn.VAR.P(C2:C17)</f>
+        <v>252.83597148437502</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>2358</v>
+      </c>
+      <c r="AI4">
+        <f>AF2-(3*AF3)</f>
+        <v>269.76067492288792</v>
+      </c>
+      <c r="AJ4">
+        <f>AF2-(2*AF3)</f>
+        <v>285.66149161525863</v>
+      </c>
+      <c r="AK4">
+        <f>AF2-AF3</f>
+        <v>301.56230830762934</v>
+      </c>
+      <c r="AL4">
+        <f>AF2</f>
+        <v>317.46312500000005</v>
+      </c>
+      <c r="AM4">
+        <f>AF2+AF3</f>
+        <v>333.36394169237076</v>
+      </c>
+      <c r="AN4">
+        <f>AF2+(2*AF3)</f>
+        <v>349.26475838474147</v>
+      </c>
+      <c r="AO4">
+        <f>AF2+(3*AF3)</f>
+        <v>365.16557507711218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -77901,8 +79854,43 @@
         <v>3</v>
       </c>
       <c r="Y5" s="1"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB5">
+        <f>Table_1__8[[#This Row],[Pts]]/Table_1__8[[#This Row],[Salary]]</f>
+        <v>110.14666666666666</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>2356</v>
+      </c>
+      <c r="AI5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AI2)</f>
+        <v>32</v>
+      </c>
+      <c r="AJ5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AJ2)</f>
+        <v>31</v>
+      </c>
+      <c r="AK5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AK2)</f>
+        <v>28</v>
+      </c>
+      <c r="AL5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AL2)</f>
+        <v>19</v>
+      </c>
+      <c r="AM5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AM2)</f>
+        <v>5</v>
+      </c>
+      <c r="AN5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AN2)</f>
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AO2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -77973,11 +79961,46 @@
         <v>6</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y6" s="1"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB6">
+        <f>Table_1__8[[#This Row],[Pts]]/Table_1__8[[#This Row],[Salary]]</f>
+        <v>1318.96</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>2357</v>
+      </c>
+      <c r="AI6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AI3)</f>
+        <v>32</v>
+      </c>
+      <c r="AJ6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AJ3)</f>
+        <v>31</v>
+      </c>
+      <c r="AK6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AK3)</f>
+        <v>28</v>
+      </c>
+      <c r="AL6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AL3)</f>
+        <v>19</v>
+      </c>
+      <c r="AM6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AM3)</f>
+        <v>5</v>
+      </c>
+      <c r="AN6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AN3)</f>
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AO3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -78051,8 +80074,43 @@
         <v>1</v>
       </c>
       <c r="Y7" s="1"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB7">
+        <f>Table_1__8[[#This Row],[Pts]]/Table_1__8[[#This Row],[Salary]]</f>
+        <v>321.95999999999998</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>2358</v>
+      </c>
+      <c r="AI7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AI4)</f>
+        <v>16</v>
+      </c>
+      <c r="AJ7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AJ4)</f>
+        <v>16</v>
+      </c>
+      <c r="AK7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AK4)</f>
+        <v>13</v>
+      </c>
+      <c r="AL7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AL4)</f>
+        <v>8</v>
+      </c>
+      <c r="AM7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AM4)</f>
+        <v>3</v>
+      </c>
+      <c r="AN7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AN4)</f>
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AO4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -78123,11 +80181,15 @@
         <v>4</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y8" s="1"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB8">
+        <f>Table_1__8[[#This Row],[Pts]]/Table_1__8[[#This Row],[Salary]]</f>
+        <v>1282.1600000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -78201,8 +80263,12 @@
         <v>1</v>
       </c>
       <c r="Y9" s="1"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB9">
+        <f>Table_1__8[[#This Row],[Pts]]/Table_1__8[[#This Row],[Salary]]</f>
+        <v>319.47000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -78276,8 +80342,12 @@
         <v>3</v>
       </c>
       <c r="Y10" s="1"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB10">
+        <f>Table_1__8[[#This Row],[Pts]]/Table_1__8[[#This Row],[Salary]]</f>
+        <v>105.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -78348,11 +80418,15 @@
         <v>6</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y11" s="1"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB11">
+        <f>Table_1__8[[#This Row],[Pts]]/Table_1__8[[#This Row],[Salary]]</f>
+        <v>1242.56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -78423,11 +80497,15 @@
         <v>8</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Y12" s="1"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB12">
+        <f>Table_1__8[[#This Row],[Pts]]/Table_1__8[[#This Row],[Salary]]</f>
+        <v>411.78666666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -78498,11 +80576,15 @@
         <v>7</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y13" s="1"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB13">
+        <f>Table_1__8[[#This Row],[Pts]]/Table_1__8[[#This Row],[Salary]]</f>
+        <v>1230.04</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -78576,8 +80658,12 @@
         <v>4</v>
       </c>
       <c r="Y14" s="1"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB14">
+        <f>Table_1__8[[#This Row],[Pts]]/Table_1__8[[#This Row],[Salary]]</f>
+        <v>75.512500000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -78648,11 +80734,15 @@
         <v>7</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y15" s="1"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB15">
+        <f>Table_1__8[[#This Row],[Pts]]/Table_1__8[[#This Row],[Salary]]</f>
+        <v>1195.8800000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -78726,8 +80816,12 @@
         <v>1</v>
       </c>
       <c r="Y16" s="1"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB16">
+        <f>Table_1__8[[#This Row],[Pts]]/Table_1__8[[#This Row],[Salary]]</f>
+        <v>294.16000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -78798,11 +80892,15 @@
         <v>9</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y17" s="1"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB17">
+        <f>Table_1__8[[#This Row],[Pts]]/Table_1__8[[#This Row],[Salary]]</f>
+        <v>588.28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -78873,11 +80971,15 @@
         <v>10</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y18" s="1"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB18">
+        <f>Table_1__8[[#This Row],[Pts]]/Table_1__8[[#This Row],[Salary]]</f>
+        <v>1165.4000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -78951,8 +81053,12 @@
         <v>1</v>
       </c>
       <c r="Y19" s="1"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB19">
+        <f>Table_1__8[[#This Row],[Pts]]/Table_1__8[[#This Row],[Salary]]</f>
+        <v>291.12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -79023,11 +81129,15 @@
         <v>6</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y20" s="1"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB20">
+        <f>Table_1__8[[#This Row],[Pts]]/Table_1__8[[#This Row],[Salary]]</f>
+        <v>1161.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -79098,11 +81208,15 @@
         <v>13</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y21" s="1"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB21">
+        <f>Table_1__8[[#This Row],[Pts]]/Table_1__8[[#This Row],[Salary]]</f>
+        <v>1110.04</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -79176,8 +81290,12 @@
         <v>1</v>
       </c>
       <c r="Y22" s="1"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB22">
+        <f>Table_1__8[[#This Row],[Pts]]/Table_1__8[[#This Row],[Salary]]</f>
+        <v>269.22000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -79248,11 +81366,15 @@
         <v>8</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y23" s="1"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB23">
+        <f>Table_1__8[[#This Row],[Pts]]/Table_1__8[[#This Row],[Salary]]</f>
+        <v>1054.48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -79323,11 +81445,15 @@
         <v>11</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y24" s="1"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB24">
+        <f>Table_1__8[[#This Row],[Pts]]/Table_1__8[[#This Row],[Salary]]</f>
+        <v>1051.3599999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -79398,11 +81524,15 @@
         <v>5</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y25" s="1"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB25">
+        <f>Table_1__8[[#This Row],[Pts]]/Table_1__8[[#This Row],[Salary]]</f>
+        <v>1044.32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -79473,11 +81603,15 @@
         <v>5</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y26" s="1"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB26">
+        <f>Table_1__8[[#This Row],[Pts]]/Table_1__8[[#This Row],[Salary]]</f>
+        <v>1032.28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -79548,11 +81682,15 @@
         <v>5</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y27" s="1"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB27">
+        <f>Table_1__8[[#This Row],[Pts]]/Table_1__8[[#This Row],[Salary]]</f>
+        <v>1030.3599999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -79623,11 +81761,15 @@
         <v>9</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y28" s="1"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB28">
+        <f>Table_1__8[[#This Row],[Pts]]/Table_1__8[[#This Row],[Salary]]</f>
+        <v>1007.92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -79698,11 +81840,15 @@
         <v>8</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y29" s="1"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB29">
+        <f>Table_1__8[[#This Row],[Pts]]/Table_1__8[[#This Row],[Salary]]</f>
+        <v>995.12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -79773,11 +81919,15 @@
         <v>11</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y30" s="1"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB30">
+        <f>Table_1__8[[#This Row],[Pts]]/Table_1__8[[#This Row],[Salary]]</f>
+        <v>896.28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -79848,11 +81998,15 @@
         <v>8</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y31" s="1"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB31">
+        <f>Table_1__8[[#This Row],[Pts]]/Table_1__8[[#This Row],[Salary]]</f>
+        <v>880.16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -79923,11 +82077,15 @@
         <v>9</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y32" s="1"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB32">
+        <f>Table_1__8[[#This Row],[Pts]]/Table_1__8[[#This Row],[Salary]]</f>
+        <v>854.84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -79998,9 +82156,13 @@
         <v>10</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y33" s="1"/>
+      <c r="AB33">
+        <f>Table_1__8[[#This Row],[Pts]]/Table_1__8[[#This Row],[Salary]]</f>
+        <v>806.48</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -80012,12 +82174,14 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FC8503-914A-4F48-BAC5-5CA39C390C4F}">
-  <dimension ref="A1:Y36"/>
+  <dimension ref="A1:AO36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="W21" sqref="W21"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="AB6" sqref="AB6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -80033,7 +82197,7 @@
     <col min="25" max="25" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -80109,8 +82273,38 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AD1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>2358</v>
+      </c>
+      <c r="AI1">
+        <v>-3</v>
+      </c>
+      <c r="AJ1">
+        <v>-2</v>
+      </c>
+      <c r="AK1">
+        <v>-1</v>
+      </c>
+      <c r="AL1">
+        <v>0</v>
+      </c>
+      <c r="AM1">
+        <v>1</v>
+      </c>
+      <c r="AN1">
+        <v>2</v>
+      </c>
+      <c r="AO1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -80184,8 +82378,58 @@
         <v>1</v>
       </c>
       <c r="Y2" s="1"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB2">
+        <f>Table_1__9[[#This Row],[Pts]]/Table_1__9[[#This Row],[Salary]]</f>
+        <v>51</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="AD2">
+        <f>AVERAGE(C2:C65)</f>
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <f>AVERAGE(C2:C33)</f>
+        <v>5.40625</v>
+      </c>
+      <c r="AF2">
+        <f>AVERAGE(C2:C17)</f>
+        <v>29.6875</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>2356</v>
+      </c>
+      <c r="AI2">
+        <f>AD2-(3*AD3)</f>
+        <v>-96.41961863201314</v>
+      </c>
+      <c r="AJ2">
+        <f>AD2-(2*AD3)</f>
+        <v>-64.279745754675432</v>
+      </c>
+      <c r="AK2">
+        <f>AD2-(AD3)</f>
+        <v>-32.139872877337716</v>
+      </c>
+      <c r="AL2">
+        <f>AD2</f>
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <f>AD2+AD3</f>
+        <v>32.139872877337716</v>
+      </c>
+      <c r="AN2">
+        <f>AD2+(2*AD3)</f>
+        <v>64.279745754675432</v>
+      </c>
+      <c r="AO2">
+        <f>AD2+(3*AD3)</f>
+        <v>96.41961863201314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -80259,8 +82503,58 @@
         <v>3</v>
       </c>
       <c r="Y3" s="1"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB3">
+        <f>Table_1__9[[#This Row],[Pts]]/Table_1__9[[#This Row],[Salary]]</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>2359</v>
+      </c>
+      <c r="AD3">
+        <f>_xlfn.STDEV.P(C2:C65)</f>
+        <v>32.139872877337716</v>
+      </c>
+      <c r="AE3">
+        <f>_xlfn.STDEV.P(C2:C33)</f>
+        <v>27.68896370284558</v>
+      </c>
+      <c r="AF3">
+        <f>_xlfn.STDEV.P(C2:C17)</f>
+        <v>16.754546957467994</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>2357</v>
+      </c>
+      <c r="AI3">
+        <f>AE2-(3*AE3)</f>
+        <v>-77.660641108536737</v>
+      </c>
+      <c r="AJ3">
+        <f>AE2-(2*AE3)</f>
+        <v>-49.97167740569116</v>
+      </c>
+      <c r="AK3">
+        <f>AE2-AE3</f>
+        <v>-22.28271370284558</v>
+      </c>
+      <c r="AL3">
+        <f>AE2</f>
+        <v>5.40625</v>
+      </c>
+      <c r="AM3">
+        <f>AE2+AE3</f>
+        <v>33.095213702845584</v>
+      </c>
+      <c r="AN3">
+        <f>AE2+(2*AE3)</f>
+        <v>60.78417740569116</v>
+      </c>
+      <c r="AO3">
+        <f>AE2+(3*AE3)</f>
+        <v>88.473141108536737</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -80331,11 +82625,61 @@
         <v>11</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y4" s="1"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB4">
+        <f>Table_1__9[[#This Row],[Pts]]/Table_1__9[[#This Row],[Salary]]</f>
+        <v>98</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>2360</v>
+      </c>
+      <c r="AD4">
+        <f>_xlfn.VAR.P(C2:C65)</f>
+        <v>1032.9714285714285</v>
+      </c>
+      <c r="AE4">
+        <f>_xlfn.VAR.P(C2:C33)</f>
+        <v>766.6787109375</v>
+      </c>
+      <c r="AF4">
+        <f>_xlfn.VAR.P(C2:C17)</f>
+        <v>280.71484375</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>2358</v>
+      </c>
+      <c r="AI4">
+        <f>AF2-(3*AF3)</f>
+        <v>-20.576140872403982</v>
+      </c>
+      <c r="AJ4">
+        <f>AF2-(2*AF3)</f>
+        <v>-3.8215939149359883</v>
+      </c>
+      <c r="AK4">
+        <f>AF2-AF3</f>
+        <v>12.932953042532006</v>
+      </c>
+      <c r="AL4">
+        <f>AF2</f>
+        <v>29.6875</v>
+      </c>
+      <c r="AM4">
+        <f>AF2+AF3</f>
+        <v>46.442046957467994</v>
+      </c>
+      <c r="AN4">
+        <f>AF2+(2*AF3)</f>
+        <v>63.196593914935988</v>
+      </c>
+      <c r="AO4">
+        <f>AF2+(3*AF3)</f>
+        <v>79.951140872403982</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -80409,8 +82753,43 @@
         <v>1</v>
       </c>
       <c r="Y5" s="1"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB5">
+        <f>Table_1__9[[#This Row],[Pts]]/Table_1__9[[#This Row],[Salary]]</f>
+        <v>44</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>2356</v>
+      </c>
+      <c r="AI5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AI2)</f>
+        <v>35</v>
+      </c>
+      <c r="AJ5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AJ2)</f>
+        <v>33</v>
+      </c>
+      <c r="AK5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AK2)</f>
+        <v>30</v>
+      </c>
+      <c r="AL5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AL2)</f>
+        <v>15</v>
+      </c>
+      <c r="AM5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AM2)</f>
+        <v>8</v>
+      </c>
+      <c r="AN5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AN2)</f>
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <f>COUNTIF(C2:C65,"&gt;" &amp; AO2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -80484,8 +82863,43 @@
         <v>3</v>
       </c>
       <c r="Y6" s="1"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB6">
+        <f>Table_1__9[[#This Row],[Pts]]/Table_1__9[[#This Row],[Salary]]</f>
+        <v>13.666666666666666</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>2357</v>
+      </c>
+      <c r="AI6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AI3)</f>
+        <v>32</v>
+      </c>
+      <c r="AJ6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AJ3)</f>
+        <v>32</v>
+      </c>
+      <c r="AK6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AK3)</f>
+        <v>27</v>
+      </c>
+      <c r="AL6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AL3)</f>
+        <v>14</v>
+      </c>
+      <c r="AM6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AM3)</f>
+        <v>8</v>
+      </c>
+      <c r="AN6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AN3)</f>
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <f>COUNTIF(C2:C33,"&gt;" &amp; AO3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -80559,8 +82973,43 @@
         <v>2</v>
       </c>
       <c r="Y7" s="1"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB7">
+        <f>Table_1__9[[#This Row],[Pts]]/Table_1__9[[#This Row],[Salary]]</f>
+        <v>20</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>2358</v>
+      </c>
+      <c r="AI7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AI4)</f>
+        <v>16</v>
+      </c>
+      <c r="AJ7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AJ4)</f>
+        <v>16</v>
+      </c>
+      <c r="AK7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AK4)</f>
+        <v>13</v>
+      </c>
+      <c r="AL7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AL4)</f>
+        <v>9</v>
+      </c>
+      <c r="AM7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AM4)</f>
+        <v>3</v>
+      </c>
+      <c r="AN7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AN4)</f>
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <f>COUNTIF(C2:C17,"&gt;" &amp; AO4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -80634,8 +83083,12 @@
         <v>1</v>
       </c>
       <c r="Y8" s="1"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB8">
+        <f>Table_1__9[[#This Row],[Pts]]/Table_1__9[[#This Row],[Salary]]</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -80709,8 +83162,12 @@
         <v>1</v>
       </c>
       <c r="Y9" s="1"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB9">
+        <f>Table_1__9[[#This Row],[Pts]]/Table_1__9[[#This Row],[Salary]]</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -80784,8 +83241,12 @@
         <v>1</v>
       </c>
       <c r="Y10" s="1"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB10">
+        <f>Table_1__9[[#This Row],[Pts]]/Table_1__9[[#This Row],[Salary]]</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -80856,11 +83317,15 @@
         <v>7</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y11" s="1"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB11">
+        <f>Table_1__9[[#This Row],[Pts]]/Table_1__9[[#This Row],[Salary]]</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -80931,11 +83396,15 @@
         <v>9</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Y12" s="1"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB12">
+        <f>Table_1__9[[#This Row],[Pts]]/Table_1__9[[#This Row],[Salary]]</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -81009,8 +83478,12 @@
         <v>1</v>
       </c>
       <c r="Y13" s="1"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB13">
+        <f>Table_1__9[[#This Row],[Pts]]/Table_1__9[[#This Row],[Salary]]</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -81081,11 +83554,15 @@
         <v>9</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y14" s="1"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB14">
+        <f>Table_1__9[[#This Row],[Pts]]/Table_1__9[[#This Row],[Salary]]</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -81156,11 +83633,15 @@
         <v>8</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y15" s="1"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB15">
+        <f>Table_1__9[[#This Row],[Pts]]/Table_1__9[[#This Row],[Salary]]</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -81231,11 +83712,15 @@
         <v>11</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y16" s="1"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB16">
+        <f>Table_1__9[[#This Row],[Pts]]/Table_1__9[[#This Row],[Salary]]</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -81306,11 +83791,15 @@
         <v>8</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y17" s="1"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB17">
+        <f>Table_1__9[[#This Row],[Pts]]/Table_1__9[[#This Row],[Salary]]</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -81381,11 +83870,15 @@
         <v>6</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y18" s="1"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB18">
+        <f>Table_1__9[[#This Row],[Pts]]/Table_1__9[[#This Row],[Salary]]</f>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -81456,11 +83949,15 @@
         <v>10</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y19" s="1"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB19">
+        <f>Table_1__9[[#This Row],[Pts]]/Table_1__9[[#This Row],[Salary]]</f>
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -81531,11 +84028,15 @@
         <v>6</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y20" s="1"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB20">
+        <f>Table_1__9[[#This Row],[Pts]]/Table_1__9[[#This Row],[Salary]]</f>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -81609,8 +84110,12 @@
         <v>1</v>
       </c>
       <c r="Y21" s="1"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB21">
+        <f>Table_1__9[[#This Row],[Pts]]/Table_1__9[[#This Row],[Salary]]</f>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -81681,11 +84186,15 @@
         <v>7</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y22" s="1"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB22">
+        <f>Table_1__9[[#This Row],[Pts]]/Table_1__9[[#This Row],[Salary]]</f>
+        <v>-56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -81759,8 +84268,12 @@
         <v>1</v>
       </c>
       <c r="Y23" s="1"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB23">
+        <f>Table_1__9[[#This Row],[Pts]]/Table_1__9[[#This Row],[Salary]]</f>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -81834,8 +84347,12 @@
         <v>2</v>
       </c>
       <c r="Y24" s="1"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB24">
+        <f>Table_1__9[[#This Row],[Pts]]/Table_1__9[[#This Row],[Salary]]</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -81909,8 +84426,12 @@
         <v>4</v>
       </c>
       <c r="Y25" s="1"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB25">
+        <f>Table_1__9[[#This Row],[Pts]]/Table_1__9[[#This Row],[Salary]]</f>
+        <v>-4.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -81981,11 +84502,15 @@
         <v>8</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y26" s="1"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB26">
+        <f>Table_1__9[[#This Row],[Pts]]/Table_1__9[[#This Row],[Salary]]</f>
+        <v>-76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -82056,11 +84581,15 @@
         <v>5</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y27" s="1"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB27">
+        <f>Table_1__9[[#This Row],[Pts]]/Table_1__9[[#This Row],[Salary]]</f>
+        <v>-84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -82131,11 +84660,15 @@
         <v>10</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y28" s="1"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB28">
+        <f>Table_1__9[[#This Row],[Pts]]/Table_1__9[[#This Row],[Salary]]</f>
+        <v>-84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -82206,11 +84739,15 @@
         <v>11</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y29" s="1"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB29">
+        <f>Table_1__9[[#This Row],[Pts]]/Table_1__9[[#This Row],[Salary]]</f>
+        <v>-92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -82281,11 +84818,15 @@
         <v>13</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y30" s="1"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB30">
+        <f>Table_1__9[[#This Row],[Pts]]/Table_1__9[[#This Row],[Salary]]</f>
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -82359,8 +84900,12 @@
         <v>2</v>
       </c>
       <c r="Y31" s="1"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB31">
+        <f>Table_1__9[[#This Row],[Pts]]/Table_1__9[[#This Row],[Salary]]</f>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -82431,11 +84976,15 @@
         <v>9</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y32" s="1"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB32">
+        <f>Table_1__9[[#This Row],[Pts]]/Table_1__9[[#This Row],[Salary]]</f>
+        <v>-140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -82506,11 +85055,15 @@
         <v>5</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y33" s="1"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB33">
+        <f>Table_1__9[[#This Row],[Pts]]/Table_1__9[[#This Row],[Salary]]</f>
+        <v>-144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -82581,11 +85134,15 @@
         <v>9</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y34" s="1"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB34">
+        <f>Table_1__9[[#This Row],[Pts]]/Table_1__9[[#This Row],[Salary]]</f>
+        <v>-144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -82656,11 +85213,15 @@
         <v>10</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y35" s="1"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB35">
+        <f>Table_1__9[[#This Row],[Pts]]/Table_1__9[[#This Row],[Salary]]</f>
+        <v>-268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -82731,9 +85292,13 @@
         <v>8</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y36" s="1"/>
+      <c r="AB36">
+        <f>Table_1__9[[#This Row],[Pts]]/Table_1__9[[#This Row],[Salary]]</f>
+        <v>-280</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2020_prflplayers.xlsx
+++ b/2020_prflplayers.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GIT\prfl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854F632A-D5F6-46C6-A2C7-7DCFBFB86E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA733FF-E5F9-49FC-83B8-B0F22B60B110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{BA228D13-2244-495E-B498-5A53B12CE2AB}"/>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{68C4CD1C-F6FC-42D1-9C86-4B42BFFB4529}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{68C4CD1C-F6FC-42D1-9C86-4B42BFFB4529}"/>
   </bookViews>
   <sheets>
     <sheet name="QB" sheetId="2" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8081" uniqueCount="3093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8090" uniqueCount="3093">
   <si>
     <t>#</t>
   </si>
@@ -10707,8 +10707,8 @@
     <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="AC1" sqref="AC1:AO7"/>
     </sheetView>
-    <sheetView topLeftCell="P1" workbookViewId="1">
-      <selection activeCell="Z15" sqref="Z15"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="1">
+      <selection activeCell="AI9" sqref="AI9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11706,6 +11706,52 @@
         <f>Table_1[[#This Row],[Pts]]/Table_1[[#This Row],[Salary]]</f>
         <v>464.17333333333335</v>
       </c>
+      <c r="AC9" t="s">
+        <v>2355</v>
+      </c>
+      <c r="AD9">
+        <f>AVERAGE(AA2:AA65)</f>
+        <v>128.72178575828019</v>
+      </c>
+      <c r="AE9">
+        <f>AVERAGE(AA2:AA33)</f>
+        <v>254.71121741933729</v>
+      </c>
+      <c r="AF9">
+        <f>AVERAGE(AA2:AA17)</f>
+        <v>222.5749772652116</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>2356</v>
+      </c>
+      <c r="AI9">
+        <f>AD9-(3*AD10)</f>
+        <v>-581.6278218061841</v>
+      </c>
+      <c r="AJ9">
+        <f>AD9-(2*AD10)</f>
+        <v>-344.84461928469608</v>
+      </c>
+      <c r="AK9">
+        <f>AD9-(AD10)</f>
+        <v>-108.06141676320794</v>
+      </c>
+      <c r="AL9">
+        <f>AD9</f>
+        <v>128.72178575828019</v>
+      </c>
+      <c r="AM9">
+        <f>AD9+AD10</f>
+        <v>365.50498827976833</v>
+      </c>
+      <c r="AN9">
+        <f>AD9+(2*AD10)</f>
+        <v>602.28819080125641</v>
+      </c>
+      <c r="AO9">
+        <f>AD9+(3*AD10)</f>
+        <v>839.0713933227446</v>
+      </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -11785,6 +11831,52 @@
         <f>Table_1[[#This Row],[Pts]]/Table_1[[#This Row],[Salary]]</f>
         <v>12.19814814814815</v>
       </c>
+      <c r="AC10" t="s">
+        <v>2359</v>
+      </c>
+      <c r="AD10">
+        <f>_xlfn.STDEV.P(AA2:AA65)</f>
+        <v>236.78320252148814</v>
+      </c>
+      <c r="AE10">
+        <f>_xlfn.STDEV.P(AA2:AA33)</f>
+        <v>283.13706784821295</v>
+      </c>
+      <c r="AF10">
+        <f>_xlfn.STDEV.P(AA2:AA17)</f>
+        <v>302.18651869188687</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>2357</v>
+      </c>
+      <c r="AI10">
+        <f>AE9-(3*AE10)</f>
+        <v>-594.69998612530162</v>
+      </c>
+      <c r="AJ10">
+        <f>AE9-(2*AE10)</f>
+        <v>-311.56291827708861</v>
+      </c>
+      <c r="AK10">
+        <f>AE9-AE10</f>
+        <v>-28.425850428875663</v>
+      </c>
+      <c r="AL10">
+        <f>AE9</f>
+        <v>254.71121741933729</v>
+      </c>
+      <c r="AM10">
+        <f>AE9+AE10</f>
+        <v>537.84828526755018</v>
+      </c>
+      <c r="AN10">
+        <f>AE9+(2*AE10)</f>
+        <v>820.98535311576325</v>
+      </c>
+      <c r="AO10">
+        <f>AE9+(3*AE10)</f>
+        <v>1104.1224209639761</v>
+      </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -11864,6 +11956,52 @@
         <f>Table_1[[#This Row],[Pts]]/Table_1[[#This Row],[Salary]]</f>
         <v>1248.72</v>
       </c>
+      <c r="AC11" t="s">
+        <v>2360</v>
+      </c>
+      <c r="AD11">
+        <f>_xlfn.VAR.P(AA2:AA65)</f>
+        <v>56066.284996332062</v>
+      </c>
+      <c r="AE11">
+        <f>_xlfn.VAR.P(AA2:AA33)</f>
+        <v>80166.599189683548</v>
+      </c>
+      <c r="AF11">
+        <f>_xlfn.VAR.P(AA2:AA17)</f>
+        <v>91316.692079122091</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>2358</v>
+      </c>
+      <c r="AI11">
+        <f>AF9-(3*AF10)</f>
+        <v>-683.98457881044897</v>
+      </c>
+      <c r="AJ11">
+        <f>AF9-(2*AF10)</f>
+        <v>-381.79806011856215</v>
+      </c>
+      <c r="AK11">
+        <f>AF9-AF10</f>
+        <v>-79.611541426675274</v>
+      </c>
+      <c r="AL11">
+        <f>AF9</f>
+        <v>222.5749772652116</v>
+      </c>
+      <c r="AM11">
+        <f>AF9+AF10</f>
+        <v>524.76149595709853</v>
+      </c>
+      <c r="AN11">
+        <f>AF9+(2*AF10)</f>
+        <v>826.94801464898535</v>
+      </c>
+      <c r="AO11">
+        <f>AF9+(3*AF10)</f>
+        <v>1129.1345333408722</v>
+      </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -11943,6 +12081,37 @@
         <f>Table_1[[#This Row],[Pts]]/Table_1[[#This Row],[Salary]]</f>
         <v>286.91000000000003</v>
       </c>
+      <c r="AH12" t="s">
+        <v>2356</v>
+      </c>
+      <c r="AI12">
+        <f>COUNTIF(C9:C72,"&gt;" &amp; AI9)</f>
+        <v>64</v>
+      </c>
+      <c r="AJ12">
+        <f>COUNTIF(C9:C72,"&gt;" &amp; AJ9)</f>
+        <v>64</v>
+      </c>
+      <c r="AK12">
+        <f>COUNTIF(C9:C72,"&gt;" &amp; AK9)</f>
+        <v>64</v>
+      </c>
+      <c r="AL12">
+        <f>COUNTIF(C9:C72,"&gt;" &amp; AL9)</f>
+        <v>19</v>
+      </c>
+      <c r="AM12">
+        <f>COUNTIF(C9:C72,"&gt;" &amp; AM9)</f>
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <f>COUNTIF(C9:C72,"&gt;" &amp; AN9)</f>
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <f>COUNTIF(C9:C72,"&gt;" &amp; AO9)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -12022,6 +12191,37 @@
         <f>Table_1[[#This Row],[Pts]]/Table_1[[#This Row],[Salary]]</f>
         <v>130.565</v>
       </c>
+      <c r="AH13" t="s">
+        <v>2357</v>
+      </c>
+      <c r="AI13">
+        <f>COUNTIF(C9:C40,"&gt;" &amp; AI10)</f>
+        <v>32</v>
+      </c>
+      <c r="AJ13">
+        <f>COUNTIF(C9:C40,"&gt;" &amp; AJ10)</f>
+        <v>32</v>
+      </c>
+      <c r="AK13">
+        <f>COUNTIF(C9:C40,"&gt;" &amp; AK10)</f>
+        <v>32</v>
+      </c>
+      <c r="AL13">
+        <f>COUNTIF(C9:C40,"&gt;" &amp; AL10)</f>
+        <v>5</v>
+      </c>
+      <c r="AM13">
+        <f>COUNTIF(C9:C40,"&gt;" &amp; AM10)</f>
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <f>COUNTIF(C9:C40,"&gt;" &amp; AN10)</f>
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <f>COUNTIF(C9:C40,"&gt;" &amp; AO10)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -12100,6 +12300,37 @@
       <c r="AA14">
         <f>Table_1[[#This Row],[Pts]]/Table_1[[#This Row],[Salary]]</f>
         <v>503.7</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>2358</v>
+      </c>
+      <c r="AI14">
+        <f>COUNTIF(C9:C24,"&gt;" &amp; AI11)</f>
+        <v>16</v>
+      </c>
+      <c r="AJ14">
+        <f>COUNTIF(C9:C24,"&gt;" &amp; AJ11)</f>
+        <v>16</v>
+      </c>
+      <c r="AK14">
+        <f>COUNTIF(C9:C24,"&gt;" &amp; AK11)</f>
+        <v>16</v>
+      </c>
+      <c r="AL14">
+        <f>COUNTIF(C9:C24,"&gt;" &amp; AL11)</f>
+        <v>9</v>
+      </c>
+      <c r="AM14">
+        <f>COUNTIF(C9:C24,"&gt;" &amp; AM11)</f>
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <f>COUNTIF(C9:C24,"&gt;" &amp; AN11)</f>
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <f>COUNTIF(C9:C24,"&gt;" &amp; AO11)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
@@ -58165,7 +58396,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:U143"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="1">
+    <sheetView topLeftCell="J1" workbookViewId="1">
       <selection activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
